--- a/results/2013_08_15_sort_high_res.xlsx
+++ b/results/2013_08_15_sort_high_res.xlsx
@@ -4889,367 +4889,367 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="0">
-                  <c:v>3.0000000000000001E-6</c:v>
+                  <c:v>5.7799999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999999995E-7</c:v>
+                  <c:v>5.5999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0000000000000001E-6</c:v>
+                  <c:v>5.2700000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>5.4799999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0000000000000001E-6</c:v>
+                  <c:v>5.5000000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0000000000000001E-6</c:v>
+                  <c:v>5.2899999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9999999999999998E-6</c:v>
+                  <c:v>5.7399999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9999999999999998E-6</c:v>
+                  <c:v>5.53E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>5.2400000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>5.5500000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9999999999999998E-6</c:v>
+                  <c:v>6.02E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0000000000000004E-6</c:v>
+                  <c:v>6.0999999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9999999999999998E-6</c:v>
+                  <c:v>5.7399999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0000000000000002E-6</c:v>
+                  <c:v>5.3300000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0000000000000004E-6</c:v>
+                  <c:v>5.8799999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>5.4799999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>6.29E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>6.1700000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>5.5999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.9999999999999996E-6</c:v>
+                  <c:v>5.8E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0000000000000001E-6</c:v>
+                  <c:v>6.4899999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0000000000000001E-6</c:v>
+                  <c:v>5.6400000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.9999999999999999E-6</c:v>
+                  <c:v>5.8699999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.9999999999999998E-6</c:v>
+                  <c:v>6.1899999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0000000000000004E-6</c:v>
+                  <c:v>5.3600000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.0000000000000004E-6</c:v>
+                  <c:v>5.6800000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.0000000000000004E-6</c:v>
+                  <c:v>6.1899999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.0000000000000002E-6</c:v>
+                  <c:v>5.6499999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.9999999999999999E-6</c:v>
+                  <c:v>5.7499999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.9999999999999996E-6</c:v>
+                  <c:v>5.6599999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.0000000000000002E-6</c:v>
+                  <c:v>5.4799999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>6.11E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1E-5</c:v>
+                  <c:v>6.1899999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.2999999999999999E-5</c:v>
+                  <c:v>5.4299999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.5E-5</c:v>
+                  <c:v>5.8799999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.0000000000000002E-5</c:v>
+                  <c:v>6.8900000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.4000000000000001E-5</c:v>
+                  <c:v>5.4600000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.4E-5</c:v>
+                  <c:v>5.7799999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.6999999999999999E-5</c:v>
+                  <c:v>5.9599999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.1999999999999999E-5</c:v>
+                  <c:v>5.7200000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.3000000000000002E-5</c:v>
+                  <c:v>5.5599999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.3000000000000002E-5</c:v>
+                  <c:v>5.9000000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.8000000000000001E-5</c:v>
+                  <c:v>5.3799999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.8999999999999998E-5</c:v>
+                  <c:v>5.4600000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.4999999999999994E-5</c:v>
+                  <c:v>6.0300000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.7999999999999998E-5</c:v>
+                  <c:v>6.3699999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.1000000000000004E-5</c:v>
+                  <c:v>5.8100000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.16E-4</c:v>
+                  <c:v>6.3100000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.13E-4</c:v>
+                  <c:v>5.6300000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.26E-4</c:v>
+                  <c:v>6.0300000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.73E-4</c:v>
+                  <c:v>7.6900000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.76E-4</c:v>
+                  <c:v>6.3299999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.1100000000000001E-4</c:v>
+                  <c:v>6.1700000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.2599999999999999E-4</c:v>
+                  <c:v>6.3100000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.8499999999999999E-4</c:v>
+                  <c:v>6.1700000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.68E-4</c:v>
+                  <c:v>6.3500000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.5799999999999997E-4</c:v>
+                  <c:v>6.4800000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.15E-4</c:v>
+                  <c:v>6.2699999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.9299999999999995E-4</c:v>
+                  <c:v>6.4899999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.3700000000000004E-4</c:v>
+                  <c:v>6.78E-4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.1599999999999995E-4</c:v>
+                  <c:v>6.9099999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.0500000000000001E-4</c:v>
+                  <c:v>6.9300000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.4999999999999995E-4</c:v>
+                  <c:v>7.6499999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.3300000000000002E-4</c:v>
+                  <c:v>7.7300000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.1429999999999999E-3</c:v>
+                  <c:v>7.8100000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.408E-3</c:v>
+                  <c:v>8.1400000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.4450000000000001E-3</c:v>
+                  <c:v>8.6700000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.621E-3</c:v>
+                  <c:v>8.9300000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.9629999999999999E-3</c:v>
+                  <c:v>9.7400000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.6020000000000001E-3</c:v>
+                  <c:v>1.041E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4520000000000002E-3</c:v>
+                  <c:v>1.155E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.8600000000000001E-3</c:v>
+                  <c:v>1.255E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.2299999999999998E-3</c:v>
+                  <c:v>1.436E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.699E-3</c:v>
+                  <c:v>1.539E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.3689999999999996E-3</c:v>
+                  <c:v>1.7520000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.4869999999999997E-3</c:v>
+                  <c:v>1.9889999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.3359999999999996E-3</c:v>
+                  <c:v>2.2039999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.574E-3</c:v>
+                  <c:v>2.7399999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.7520000000000002E-3</c:v>
+                  <c:v>2.8210000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.1050000000000002E-3</c:v>
+                  <c:v>2.7130000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.307E-2</c:v>
+                  <c:v>3.614E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.5321E-2</c:v>
+                  <c:v>4.104E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.7825000000000001E-2</c:v>
+                  <c:v>4.6940000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.0607E-2</c:v>
+                  <c:v>5.2890000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.4006E-2</c:v>
+                  <c:v>6.1409999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.7730000000000001E-2</c:v>
+                  <c:v>7.1910000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>8.1759999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.7734999999999998E-2</c:v>
+                  <c:v>9.3950000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.2827999999999998E-2</c:v>
+                  <c:v>1.0668E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.8481999999999997E-2</c:v>
+                  <c:v>1.2177E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.4928999999999999E-2</c:v>
+                  <c:v>1.4237E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.1462999999999997E-2</c:v>
+                  <c:v>1.6032999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.2636999999999993E-2</c:v>
+                  <c:v>2.1826999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.3488999999999994E-2</c:v>
+                  <c:v>2.1493999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.5599000000000003E-2</c:v>
+                  <c:v>2.4208E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.108642</c:v>
+                  <c:v>2.7564999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.12623300000000001</c:v>
+                  <c:v>3.1628999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.145374</c:v>
+                  <c:v>3.6727000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.17203199999999999</c:v>
+                  <c:v>4.1807999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.19111600000000001</c:v>
+                  <c:v>4.8459000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.21957499999999999</c:v>
+                  <c:v>5.4550000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.25300099999999998</c:v>
+                  <c:v>6.2994999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.290024</c:v>
+                  <c:v>7.2902999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.33310699999999999</c:v>
+                  <c:v>8.3049999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.38113599999999997</c:v>
+                  <c:v>9.5651E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.43836700000000001</c:v>
+                  <c:v>0.10893600000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.50213099999999999</c:v>
+                  <c:v>0.125083</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.58169400000000004</c:v>
+                  <c:v>0.14440600000000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.68053300000000005</c:v>
+                  <c:v>0.16637299999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.76647399999999999</c:v>
+                  <c:v>0.19142400000000001</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.88116300000000003</c:v>
+                  <c:v>0.219751</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.009571</c:v>
+                  <c:v>0.251531</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.170804</c:v>
+                  <c:v>0.28958099999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.36145</c:v>
+                  <c:v>0.33216000000000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.537642</c:v>
+                  <c:v>0.38455299999999998</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.760103</c:v>
+                  <c:v>0.44852900000000001</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.0234770000000002</c:v>
+                  <c:v>0.50617599999999996</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.3315700000000001</c:v>
+                  <c:v>0.58214900000000003</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.6894909999999999</c:v>
+                  <c:v>0.67033200000000004</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3.0847630000000001</c:v>
+                  <c:v>0.77732599999999996</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3.5440689999999999</c:v>
+                  <c:v>0.883718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5652,367 +5652,367 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="0">
-                  <c:v>3.0000000000000001E-6</c:v>
+                  <c:v>8.83E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>8.1999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>8.1400000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>9.1399999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>7.7300000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>1.0200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>7.8700000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>7.8100000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>7.8299999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>8.12E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>8.4199999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>8.6399999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>8.3199999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0000000000000001E-6</c:v>
+                  <c:v>6.9800000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0000000000000001E-6</c:v>
+                  <c:v>7.5600000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0000000000000001E-6</c:v>
+                  <c:v>7.4799999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>8.1300000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0000000000000001E-6</c:v>
+                  <c:v>8.3500000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0000000000000001E-6</c:v>
+                  <c:v>6.8300000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9999999999999998E-6</c:v>
+                  <c:v>6.7000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.0000000000000002E-6</c:v>
+                  <c:v>7.2000000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0000000000000002E-6</c:v>
+                  <c:v>6.7299999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.0000000000000001E-6</c:v>
+                  <c:v>6.7500000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.9999999999999996E-6</c:v>
+                  <c:v>6.8099999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.0000000000000002E-6</c:v>
+                  <c:v>6.7500000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>6.7599999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1E-5</c:v>
+                  <c:v>7.27E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2E-5</c:v>
+                  <c:v>6.7699999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4E-5</c:v>
+                  <c:v>6.9399999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.9999999999999999E-6</c:v>
+                  <c:v>6.8300000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.9999999999999999E-6</c:v>
+                  <c:v>6.7100000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.0000000000000002E-5</c:v>
+                  <c:v>6.7299999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0000000000000002E-5</c:v>
+                  <c:v>6.7599999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.1999999999999999E-5</c:v>
+                  <c:v>6.7599999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.9000000000000001E-5</c:v>
+                  <c:v>6.8900000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.5999999999999998E-5</c:v>
+                  <c:v>6.78E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.5999999999999999E-5</c:v>
+                  <c:v>7.27E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.6999999999999999E-5</c:v>
+                  <c:v>7.0200000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0999999999999999E-5</c:v>
+                  <c:v>7.0899999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.6000000000000001E-5</c:v>
+                  <c:v>6.69E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.0000000000000002E-5</c:v>
+                  <c:v>6.7900000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6999999999999998E-5</c:v>
+                  <c:v>6.9700000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.6999999999999998E-5</c:v>
+                  <c:v>6.7599999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.1999999999999998E-5</c:v>
+                  <c:v>6.9099999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.0999999999999999E-5</c:v>
+                  <c:v>6.7199999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.8999999999999995E-5</c:v>
+                  <c:v>6.7199999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.6000000000000005E-5</c:v>
+                  <c:v>6.8300000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.7000000000000001E-5</c:v>
+                  <c:v>6.9099999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.7000000000000001E-5</c:v>
+                  <c:v>6.9800000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.5000000000000005E-5</c:v>
+                  <c:v>6.8099999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.7899999999999999E-4</c:v>
+                  <c:v>6.6500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2899999999999999E-4</c:v>
+                  <c:v>7.4399999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.4899999999999998E-4</c:v>
+                  <c:v>7.1900000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.7200000000000001E-4</c:v>
+                  <c:v>6.78E-4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.95E-4</c:v>
+                  <c:v>7.0799999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.6000000000000002E-4</c:v>
+                  <c:v>6.8000000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5599999999999999E-4</c:v>
+                  <c:v>6.9899999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.9399999999999999E-4</c:v>
+                  <c:v>6.9899999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.3700000000000001E-4</c:v>
+                  <c:v>7.0299999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.8699999999999997E-4</c:v>
+                  <c:v>7.2900000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.5000000000000002E-4</c:v>
+                  <c:v>7.0899999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.3899999999999998E-4</c:v>
+                  <c:v>7.3999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.9100000000000005E-4</c:v>
+                  <c:v>7.4700000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.7900000000000002E-4</c:v>
+                  <c:v>7.6800000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.7899999999999996E-4</c:v>
+                  <c:v>7.8600000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.358E-3</c:v>
+                  <c:v>8.2100000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.0430000000000001E-3</c:v>
+                  <c:v>8.5400000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.24E-3</c:v>
+                  <c:v>9.2400000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.4159999999999999E-3</c:v>
+                  <c:v>9.3899999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.5770000000000001E-3</c:v>
+                  <c:v>1.0039999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.903E-3</c:v>
+                  <c:v>1.057E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.1640000000000001E-3</c:v>
+                  <c:v>1.158E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.4940000000000001E-3</c:v>
+                  <c:v>1.2329999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.8579999999999999E-3</c:v>
+                  <c:v>1.335E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.3249999999999998E-3</c:v>
+                  <c:v>1.5870000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.8149999999999999E-3</c:v>
+                  <c:v>1.725E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.2529999999999998E-3</c:v>
+                  <c:v>1.9870000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.0809999999999996E-3</c:v>
+                  <c:v>2.1159999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.692E-3</c:v>
+                  <c:v>2.2520000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.5519999999999997E-3</c:v>
+                  <c:v>2.5530000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.2005E-2</c:v>
+                  <c:v>3.1250000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.3677999999999999E-2</c:v>
+                  <c:v>3.5460000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.5921999999999999E-2</c:v>
+                  <c:v>4.1739999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.7475000000000001E-2</c:v>
+                  <c:v>4.5909999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.1080999999999999E-2</c:v>
+                  <c:v>5.8900000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4527E-2</c:v>
+                  <c:v>6.5199999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.8256E-2</c:v>
+                  <c:v>7.3720000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.2579999999999998E-2</c:v>
+                  <c:v>8.6400000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.7561999999999998E-2</c:v>
+                  <c:v>8.7539999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.3114E-2</c:v>
+                  <c:v>1.1537E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.9361000000000002E-2</c:v>
+                  <c:v>1.2666999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.6550999999999997E-2</c:v>
+                  <c:v>1.4198000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.5396999999999997E-2</c:v>
+                  <c:v>1.5594999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.5068999999999997E-2</c:v>
+                  <c:v>1.9210999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.5943000000000006E-2</c:v>
+                  <c:v>2.1918E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.9014000000000005E-2</c:v>
+                  <c:v>2.2790999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.113229</c:v>
+                  <c:v>2.6418000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.13056100000000001</c:v>
+                  <c:v>3.1821000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.147786</c:v>
+                  <c:v>3.7478999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.18223</c:v>
+                  <c:v>4.0847000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.19558700000000001</c:v>
+                  <c:v>4.9509999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.22920099999999999</c:v>
+                  <c:v>5.3032999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.26041399999999998</c:v>
+                  <c:v>6.1538000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.29972799999999999</c:v>
+                  <c:v>7.3428999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.34397899999999998</c:v>
+                  <c:v>8.3113999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.39508900000000002</c:v>
+                  <c:v>9.4964999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.455596</c:v>
+                  <c:v>0.112217</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.53655699999999995</c:v>
+                  <c:v>0.127195</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.60335300000000003</c:v>
+                  <c:v>0.14125599999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.69625499999999996</c:v>
+                  <c:v>0.16605700000000001</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.79044199999999998</c:v>
+                  <c:v>0.18824199999999999</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.90446499999999996</c:v>
+                  <c:v>0.21906400000000001</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.0429489999999999</c:v>
+                  <c:v>0.24989900000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.2029319999999999</c:v>
+                  <c:v>0.284721</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.380196</c:v>
+                  <c:v>0.337447</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.5800670000000001</c:v>
+                  <c:v>0.37368200000000001</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.7915019999999999</c:v>
+                  <c:v>0.433394</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.0897209999999999</c:v>
+                  <c:v>0.51137600000000005</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.4215450000000001</c:v>
+                  <c:v>0.56406400000000001</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.766534</c:v>
+                  <c:v>0.66171899999999995</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3.1063269999999998</c:v>
+                  <c:v>0.76144999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7553,11 +7553,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99767936"/>
-        <c:axId val="99765056"/>
+        <c:axId val="39636352"/>
+        <c:axId val="39634624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99767936"/>
+        <c:axId val="39636352"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7594,12 +7594,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99765056"/>
+        <c:crossAx val="39634624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99765056"/>
+        <c:axId val="39634624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7630,7 +7630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99767936"/>
+        <c:crossAx val="39636352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7976,8 +7976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C1135" sqref="C1135"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K510" sqref="K510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13178,1696 +13178,1696 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" s="2">
+      <c r="A379" s="3">
         <v>2</v>
       </c>
-      <c r="B379" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C379" s="2">
+      <c r="B379" s="3">
+        <v>5.7799999999999995E-4</v>
+      </c>
+      <c r="C379" s="3">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <v>3</v>
+      </c>
+      <c r="B380" s="3">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="C380" s="3">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <v>4</v>
+      </c>
+      <c r="B381" s="3">
+        <v>5.2700000000000002E-4</v>
+      </c>
+      <c r="C381" s="3">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
+        <v>5</v>
+      </c>
+      <c r="B382" s="3">
+        <v>5.4799999999999998E-4</v>
+      </c>
+      <c r="C382" s="3">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
+        <v>6</v>
+      </c>
+      <c r="B383" s="3">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="C383" s="3">
+        <v>1.4E-5</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <v>8</v>
+      </c>
+      <c r="B384" s="3">
+        <v>5.2899999999999996E-4</v>
+      </c>
+      <c r="C384" s="3">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D379" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="2">
-        <v>3</v>
-      </c>
-      <c r="B380" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C380" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D380" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="2">
-        <v>4</v>
-      </c>
-      <c r="B381" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C381" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D381" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="2">
-        <v>5</v>
-      </c>
-      <c r="B382" s="2">
+      <c r="D384" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <v>9</v>
+      </c>
+      <c r="B385" s="3">
+        <v>5.7399999999999997E-4</v>
+      </c>
+      <c r="C385" s="3">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <v>10</v>
+      </c>
+      <c r="B386" s="3">
+        <v>5.53E-4</v>
+      </c>
+      <c r="C386" s="3">
+        <v>1.2E-5</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <v>12</v>
+      </c>
+      <c r="B387" s="3">
+        <v>5.2400000000000005E-4</v>
+      </c>
+      <c r="C387" s="3">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <v>13</v>
+      </c>
+      <c r="B388" s="3">
+        <v>5.5500000000000005E-4</v>
+      </c>
+      <c r="C388" s="3">
+        <v>2.3E-5</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
+        <v>16</v>
+      </c>
+      <c r="B389" s="3">
+        <v>6.02E-4</v>
+      </c>
+      <c r="C389" s="3">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <v>18</v>
+      </c>
+      <c r="B390" s="3">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="C390" s="3">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
+        <v>21</v>
+      </c>
+      <c r="B391" s="3">
+        <v>5.7399999999999997E-4</v>
+      </c>
+      <c r="C391" s="3">
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
+        <v>24</v>
+      </c>
+      <c r="B392" s="3">
+        <v>5.3300000000000005E-4</v>
+      </c>
+      <c r="C392" s="3">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
+        <v>27</v>
+      </c>
+      <c r="B393" s="3">
+        <v>5.8799999999999998E-4</v>
+      </c>
+      <c r="C393" s="3">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <v>32</v>
+      </c>
+      <c r="B394" s="3">
+        <v>5.4799999999999998E-4</v>
+      </c>
+      <c r="C394" s="3">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
+        <v>36</v>
+      </c>
+      <c r="B395" s="3">
+        <v>6.29E-4</v>
+      </c>
+      <c r="C395" s="3">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <v>42</v>
+      </c>
+      <c r="B396" s="3">
+        <v>6.1700000000000004E-4</v>
+      </c>
+      <c r="C396" s="3">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
+        <v>48</v>
+      </c>
+      <c r="B397" s="3">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="C397" s="3">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
+        <v>55</v>
+      </c>
+      <c r="B398" s="3">
+        <v>5.8E-4</v>
+      </c>
+      <c r="C398" s="3">
+        <v>5.7000000000000003E-5</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
+        <v>64</v>
+      </c>
+      <c r="B399" s="3">
+        <v>6.4899999999999995E-4</v>
+      </c>
+      <c r="C399" s="3">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
+        <v>73</v>
+      </c>
+      <c r="B400" s="3">
+        <v>5.6400000000000005E-4</v>
+      </c>
+      <c r="C400" s="3">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
+        <v>84</v>
+      </c>
+      <c r="B401" s="3">
+        <v>5.8699999999999996E-4</v>
+      </c>
+      <c r="C401" s="3">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
+        <v>97</v>
+      </c>
+      <c r="B402" s="3">
+        <v>6.1899999999999998E-4</v>
+      </c>
+      <c r="C402" s="3">
+        <v>1.7E-5</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
+        <v>111</v>
+      </c>
+      <c r="B403" s="3">
+        <v>5.3600000000000002E-4</v>
+      </c>
+      <c r="C403" s="3">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <v>128</v>
+      </c>
+      <c r="B404" s="3">
+        <v>5.6800000000000004E-4</v>
+      </c>
+      <c r="C404" s="3">
+        <v>4.1E-5</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
+        <v>147</v>
+      </c>
+      <c r="B405" s="3">
+        <v>6.1899999999999998E-4</v>
+      </c>
+      <c r="C405" s="3">
+        <v>1.1E-5</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
+        <v>168</v>
+      </c>
+      <c r="B406" s="3">
+        <v>5.6499999999999996E-4</v>
+      </c>
+      <c r="C406" s="3">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
+        <v>194</v>
+      </c>
+      <c r="B407" s="3">
+        <v>5.7499999999999999E-4</v>
+      </c>
+      <c r="C407" s="3">
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
+        <v>222</v>
+      </c>
+      <c r="B408" s="3">
+        <v>5.6599999999999999E-4</v>
+      </c>
+      <c r="C408" s="3">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
+        <v>256</v>
+      </c>
+      <c r="B409" s="3">
+        <v>5.4799999999999998E-4</v>
+      </c>
+      <c r="C409" s="3">
+        <v>1.2E-5</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
+        <v>294</v>
+      </c>
+      <c r="B410" s="3">
+        <v>6.11E-4</v>
+      </c>
+      <c r="C410" s="3">
+        <v>4.1E-5</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="3">
+        <v>337</v>
+      </c>
+      <c r="B411" s="3">
+        <v>6.1899999999999998E-4</v>
+      </c>
+      <c r="C411" s="3">
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
+        <v>388</v>
+      </c>
+      <c r="B412" s="3">
+        <v>5.4299999999999997E-4</v>
+      </c>
+      <c r="C412" s="3">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="3">
+        <v>445</v>
+      </c>
+      <c r="B413" s="3">
+        <v>5.8799999999999998E-4</v>
+      </c>
+      <c r="C413" s="3">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
+        <v>512</v>
+      </c>
+      <c r="B414" s="3">
+        <v>6.8900000000000005E-4</v>
+      </c>
+      <c r="C414" s="3">
+        <v>1.5E-5</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="3">
+        <v>588</v>
+      </c>
+      <c r="B415" s="3">
+        <v>5.4600000000000004E-4</v>
+      </c>
+      <c r="C415" s="3">
+        <v>1.1E-5</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
+        <v>675</v>
+      </c>
+      <c r="B416" s="3">
+        <v>5.7799999999999995E-4</v>
+      </c>
+      <c r="C416" s="3">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="3">
+        <v>776</v>
+      </c>
+      <c r="B417" s="3">
+        <v>5.9599999999999996E-4</v>
+      </c>
+      <c r="C417" s="3">
+        <v>3.4E-5</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="3">
+        <v>891</v>
+      </c>
+      <c r="B418" s="3">
+        <v>5.7200000000000003E-4</v>
+      </c>
+      <c r="C418" s="3">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B419" s="3">
+        <v>5.5599999999999996E-4</v>
+      </c>
+      <c r="C419" s="3">
+        <v>1.8E-5</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="3">
+        <v>1176</v>
+      </c>
+      <c r="B420" s="3">
+        <v>5.9000000000000003E-4</v>
+      </c>
+      <c r="C420" s="3">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="3">
+        <v>1351</v>
+      </c>
+      <c r="B421" s="3">
+        <v>5.3799999999999996E-4</v>
+      </c>
+      <c r="C421" s="3">
+        <v>1.5E-5</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="3">
+        <v>1552</v>
+      </c>
+      <c r="B422" s="3">
+        <v>5.4600000000000004E-4</v>
+      </c>
+      <c r="C422" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="3">
+        <v>1782</v>
+      </c>
+      <c r="B423" s="3">
+        <v>6.0300000000000002E-4</v>
+      </c>
+      <c r="C423" s="3">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="3">
+        <v>2048</v>
+      </c>
+      <c r="B424" s="3">
+        <v>6.3699999999999998E-4</v>
+      </c>
+      <c r="C424" s="3">
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="3">
+        <v>2352</v>
+      </c>
+      <c r="B425" s="3">
+        <v>5.8100000000000003E-4</v>
+      </c>
+      <c r="C425" s="3">
+        <v>1.8E-5</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="3">
+        <v>2702</v>
+      </c>
+      <c r="B426" s="3">
+        <v>6.3100000000000005E-4</v>
+      </c>
+      <c r="C426" s="3">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="3">
+        <v>3104</v>
+      </c>
+      <c r="B427" s="3">
+        <v>5.6300000000000002E-4</v>
+      </c>
+      <c r="C427" s="3">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="3">
+        <v>3565</v>
+      </c>
+      <c r="B428" s="3">
+        <v>6.0300000000000002E-4</v>
+      </c>
+      <c r="C428" s="3">
+        <v>6.2000000000000003E-5</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="3">
+        <v>4096</v>
+      </c>
+      <c r="B429" s="3">
+        <v>7.6900000000000004E-4</v>
+      </c>
+      <c r="C429" s="3">
+        <v>8.7000000000000001E-5</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="3">
+        <v>4705</v>
+      </c>
+      <c r="B430" s="3">
+        <v>6.3299999999999999E-4</v>
+      </c>
+      <c r="C430" s="3">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="3">
+        <v>5404</v>
+      </c>
+      <c r="B431" s="3">
+        <v>6.1700000000000004E-4</v>
+      </c>
+      <c r="C431" s="3">
+        <v>2.3E-5</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="3">
+        <v>6208</v>
+      </c>
+      <c r="B432" s="3">
+        <v>6.3100000000000005E-4</v>
+      </c>
+      <c r="C432" s="3">
+        <v>3.6999999999999998E-5</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="3">
+        <v>7131</v>
+      </c>
+      <c r="B433" s="3">
+        <v>6.1700000000000004E-4</v>
+      </c>
+      <c r="C433" s="3">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="3">
+        <v>8192</v>
+      </c>
+      <c r="B434" s="3">
+        <v>6.3500000000000004E-4</v>
+      </c>
+      <c r="C434" s="3">
+        <v>3.4E-5</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="3">
+        <v>9410</v>
+      </c>
+      <c r="B435" s="3">
+        <v>6.4800000000000003E-4</v>
+      </c>
+      <c r="C435" s="3">
+        <v>2.9E-5</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="3">
+        <v>10809</v>
+      </c>
+      <c r="B436" s="3">
+        <v>6.2699999999999995E-4</v>
+      </c>
+      <c r="C436" s="3">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="3">
+        <v>12416</v>
+      </c>
+      <c r="B437" s="3">
+        <v>6.4899999999999995E-4</v>
+      </c>
+      <c r="C437" s="3">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="3">
+        <v>14263</v>
+      </c>
+      <c r="B438" s="3">
+        <v>6.78E-4</v>
+      </c>
+      <c r="C438" s="3">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="3">
+        <v>16384</v>
+      </c>
+      <c r="B439" s="3">
+        <v>6.9099999999999999E-4</v>
+      </c>
+      <c r="C439" s="3">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="3">
+        <v>18820</v>
+      </c>
+      <c r="B440" s="3">
+        <v>6.9300000000000004E-4</v>
+      </c>
+      <c r="C440" s="3">
+        <v>1.1E-5</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="3">
+        <v>21618</v>
+      </c>
+      <c r="B441" s="3">
+        <v>7.6499999999999995E-4</v>
+      </c>
+      <c r="C441" s="3">
+        <v>4.1E-5</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="3">
+        <v>24833</v>
+      </c>
+      <c r="B442" s="3">
+        <v>7.7300000000000003E-4</v>
+      </c>
+      <c r="C442" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="3">
+        <v>28526</v>
+      </c>
+      <c r="B443" s="3">
+        <v>7.8100000000000001E-4</v>
+      </c>
+      <c r="C443" s="3">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="3">
+        <v>32768</v>
+      </c>
+      <c r="B444" s="3">
+        <v>8.1400000000000005E-4</v>
+      </c>
+      <c r="C444" s="3">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="C382" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D382" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" s="2">
-        <v>6</v>
-      </c>
-      <c r="B383" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C383" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D383" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" s="2">
-        <v>8</v>
-      </c>
-      <c r="B384" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C384" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D384" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="2">
-        <v>9</v>
-      </c>
-      <c r="B385" s="2">
+      <c r="D444" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="3">
+        <v>37640</v>
+      </c>
+      <c r="B445" s="3">
+        <v>8.6700000000000004E-4</v>
+      </c>
+      <c r="C445" s="3">
+        <v>1.2E-5</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="3">
+        <v>43237</v>
+      </c>
+      <c r="B446" s="3">
+        <v>8.9300000000000002E-4</v>
+      </c>
+      <c r="C446" s="3">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="3">
+        <v>49667</v>
+      </c>
+      <c r="B447" s="3">
+        <v>9.7400000000000004E-4</v>
+      </c>
+      <c r="C447" s="3">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="C385" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D385" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="2">
-        <v>10</v>
-      </c>
-      <c r="B386" s="2">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="C386" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D386" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="2">
-        <v>12</v>
-      </c>
-      <c r="B387" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C387" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D387" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="2">
-        <v>13</v>
-      </c>
-      <c r="B388" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C388" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="2">
-        <v>16</v>
-      </c>
-      <c r="B389" s="2">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="C389" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="D389" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="2">
-        <v>18</v>
-      </c>
-      <c r="B390" s="2">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="C390" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="2">
-        <v>21</v>
-      </c>
-      <c r="B391" s="2">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="C391" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D391" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="2">
-        <v>24</v>
-      </c>
-      <c r="B392" s="2">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="C392" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D392" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="2">
-        <v>27</v>
-      </c>
-      <c r="B393" s="2">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="C393" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="D393" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="2">
-        <v>32</v>
-      </c>
-      <c r="B394" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C394" s="2">
-        <v>0</v>
-      </c>
-      <c r="D394" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="2">
-        <v>36</v>
-      </c>
-      <c r="B395" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C395" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="2">
-        <v>42</v>
-      </c>
-      <c r="B396" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C396" s="2">
-        <v>0</v>
-      </c>
-      <c r="D396" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="2">
-        <v>48</v>
-      </c>
-      <c r="B397" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C397" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D397" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="2">
-        <v>55</v>
-      </c>
-      <c r="B398" s="2">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="C398" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="D398" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="2">
-        <v>64</v>
-      </c>
-      <c r="B399" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C399" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D399" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="2">
-        <v>73</v>
-      </c>
-      <c r="B400" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C400" s="2">
-        <v>0</v>
-      </c>
-      <c r="D400" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" s="2">
-        <v>84</v>
-      </c>
-      <c r="B401" s="2">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="C401" s="2">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="D401" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" s="2">
-        <v>97</v>
-      </c>
-      <c r="B402" s="2">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="C402" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D402" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="2">
-        <v>111</v>
-      </c>
-      <c r="B403" s="2">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="C403" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D403" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="2">
-        <v>128</v>
-      </c>
-      <c r="B404" s="2">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="C404" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D404" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" s="2">
-        <v>147</v>
-      </c>
-      <c r="B405" s="2">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="C405" s="2">
-        <v>0</v>
-      </c>
-      <c r="D405" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="2">
-        <v>168</v>
-      </c>
-      <c r="B406" s="2">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="C406" s="2">
-        <v>0</v>
-      </c>
-      <c r="D406" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="2">
-        <v>194</v>
-      </c>
-      <c r="B407" s="2">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="C407" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D407" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" s="2">
-        <v>222</v>
-      </c>
-      <c r="B408" s="2">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="C408" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" s="2">
-        <v>256</v>
-      </c>
-      <c r="B409" s="2">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="C409" s="2">
-        <v>0</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" s="2">
-        <v>294</v>
-      </c>
-      <c r="B410" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C410" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" s="2">
-        <v>337</v>
-      </c>
-      <c r="B411" s="2">
-        <v>1.1E-5</v>
-      </c>
-      <c r="C411" s="2">
-        <v>0</v>
-      </c>
-      <c r="D411" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" s="2">
-        <v>388</v>
-      </c>
-      <c r="B412" s="2">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="C412" s="2">
-        <v>0</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" s="2">
-        <v>445</v>
-      </c>
-      <c r="B413" s="2">
-        <v>1.5E-5</v>
-      </c>
-      <c r="C413" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D413" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" s="2">
-        <v>512</v>
-      </c>
-      <c r="B414" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="C414" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" s="2">
-        <v>588</v>
-      </c>
-      <c r="B415" s="2">
-        <v>2.4000000000000001E-5</v>
-      </c>
-      <c r="C415" s="2">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" s="2">
-        <v>675</v>
-      </c>
-      <c r="B416" s="2">
-        <v>3.4E-5</v>
-      </c>
-      <c r="C416" s="2">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" s="2">
-        <v>776</v>
-      </c>
-      <c r="B417" s="2">
-        <v>2.6999999999999999E-5</v>
-      </c>
-      <c r="C417" s="2">
-        <v>0</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="2">
-        <v>891</v>
-      </c>
-      <c r="B418" s="2">
+      <c r="D447" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="3">
+        <v>57052</v>
+      </c>
+      <c r="B448" s="3">
+        <v>1.041E-3</v>
+      </c>
+      <c r="C448" s="3">
         <v>3.1999999999999999E-5</v>
       </c>
-      <c r="C418" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="2">
-        <v>1024</v>
-      </c>
-      <c r="B419" s="2">
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="C419" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D419" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="2">
-        <v>1176</v>
-      </c>
-      <c r="B420" s="2">
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="C420" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" s="2">
-        <v>1351</v>
-      </c>
-      <c r="B421" s="2">
+      <c r="D448" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" s="3">
+        <v>65536</v>
+      </c>
+      <c r="B449" s="3">
+        <v>1.155E-3</v>
+      </c>
+      <c r="C449" s="3">
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" s="3">
+        <v>75281</v>
+      </c>
+      <c r="B450" s="3">
+        <v>1.255E-3</v>
+      </c>
+      <c r="C450" s="3">
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="3">
+        <v>86475</v>
+      </c>
+      <c r="B451" s="3">
+        <v>1.436E-3</v>
+      </c>
+      <c r="C451" s="3">
+        <v>5.5000000000000002E-5</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="3">
+        <v>99334</v>
+      </c>
+      <c r="B452" s="3">
+        <v>1.539E-3</v>
+      </c>
+      <c r="C452" s="3">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="3">
+        <v>114104</v>
+      </c>
+      <c r="B453" s="3">
+        <v>1.7520000000000001E-3</v>
+      </c>
+      <c r="C453" s="3">
+        <v>9.2999999999999997E-5</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="3">
+        <v>131072</v>
+      </c>
+      <c r="B454" s="3">
+        <v>1.9889999999999999E-3</v>
+      </c>
+      <c r="C454" s="3">
+        <v>8.1000000000000004E-5</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="3">
+        <v>150562</v>
+      </c>
+      <c r="B455" s="3">
+        <v>2.2039999999999998E-3</v>
+      </c>
+      <c r="C455" s="3">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="3">
+        <v>172950</v>
+      </c>
+      <c r="B456" s="3">
+        <v>2.7399999999999998E-3</v>
+      </c>
+      <c r="C456" s="3">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="3">
+        <v>198668</v>
+      </c>
+      <c r="B457" s="3">
+        <v>2.8210000000000002E-3</v>
+      </c>
+      <c r="C457" s="3">
+        <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="3">
+        <v>228209</v>
+      </c>
+      <c r="B458" s="3">
+        <v>2.7130000000000001E-3</v>
+      </c>
+      <c r="C458" s="3">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="3">
+        <v>262144</v>
+      </c>
+      <c r="B459" s="3">
+        <v>3.614E-3</v>
+      </c>
+      <c r="C459" s="3">
+        <v>1.4E-5</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" s="3">
+        <v>301124</v>
+      </c>
+      <c r="B460" s="3">
+        <v>4.104E-3</v>
+      </c>
+      <c r="C460" s="3">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="3">
+        <v>345901</v>
+      </c>
+      <c r="B461" s="3">
+        <v>4.6940000000000003E-3</v>
+      </c>
+      <c r="C461" s="3">
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="3">
+        <v>397336</v>
+      </c>
+      <c r="B462" s="3">
+        <v>5.2890000000000003E-3</v>
+      </c>
+      <c r="C462" s="3">
+        <v>1.65E-4</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="3">
+        <v>456419</v>
+      </c>
+      <c r="B463" s="3">
+        <v>6.1409999999999998E-3</v>
+      </c>
+      <c r="C463" s="3">
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="3">
+        <v>524288</v>
+      </c>
+      <c r="B464" s="3">
+        <v>7.1910000000000003E-3</v>
+      </c>
+      <c r="C464" s="3">
+        <v>1.5300000000000001E-4</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="3">
+        <v>602248</v>
+      </c>
+      <c r="B465" s="3">
+        <v>8.1759999999999992E-3</v>
+      </c>
+      <c r="C465" s="3">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="C421" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="2">
-        <v>1552</v>
-      </c>
-      <c r="B422" s="2">
-        <v>5.8999999999999998E-5</v>
-      </c>
-      <c r="C422" s="2">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="2">
-        <v>1782</v>
-      </c>
-      <c r="B423" s="2">
-        <v>6.4999999999999994E-5</v>
-      </c>
-      <c r="C423" s="2">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="2">
-        <v>2048</v>
-      </c>
-      <c r="B424" s="2">
-        <v>8.7999999999999998E-5</v>
-      </c>
-      <c r="C424" s="2">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" s="2">
-        <v>2352</v>
-      </c>
-      <c r="B425" s="2">
-        <v>8.1000000000000004E-5</v>
-      </c>
-      <c r="C425" s="2">
-        <v>0</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="2">
-        <v>2702</v>
-      </c>
-      <c r="B426" s="2">
-        <v>1.16E-4</v>
-      </c>
-      <c r="C426" s="2">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" s="2">
-        <v>3104</v>
-      </c>
-      <c r="B427" s="2">
-        <v>1.13E-4</v>
-      </c>
-      <c r="C427" s="2">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428" s="2">
-        <v>3565</v>
-      </c>
-      <c r="B428" s="2">
-        <v>1.26E-4</v>
-      </c>
-      <c r="C428" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="2">
-        <v>4096</v>
-      </c>
-      <c r="B429" s="2">
-        <v>1.73E-4</v>
-      </c>
-      <c r="C429" s="2">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="2">
-        <v>4705</v>
-      </c>
-      <c r="B430" s="2">
-        <v>1.76E-4</v>
-      </c>
-      <c r="C430" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="2">
-        <v>5404</v>
-      </c>
-      <c r="B431" s="2">
-        <v>2.1100000000000001E-4</v>
-      </c>
-      <c r="C431" s="2">
-        <v>0</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" s="2">
-        <v>6208</v>
-      </c>
-      <c r="B432" s="2">
-        <v>2.2599999999999999E-4</v>
-      </c>
-      <c r="C432" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" s="2">
-        <v>7131</v>
-      </c>
-      <c r="B433" s="2">
-        <v>2.8499999999999999E-4</v>
-      </c>
-      <c r="C433" s="2">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="D433" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" s="2">
-        <v>8192</v>
-      </c>
-      <c r="B434" s="2">
-        <v>3.68E-4</v>
-      </c>
-      <c r="C434" s="2">
-        <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="D434" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" s="2">
-        <v>9410</v>
-      </c>
-      <c r="B435" s="2">
-        <v>3.5799999999999997E-4</v>
-      </c>
-      <c r="C435" s="2">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" s="2">
-        <v>10809</v>
-      </c>
-      <c r="B436" s="2">
-        <v>4.15E-4</v>
-      </c>
-      <c r="C436" s="2">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="D436" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" s="2">
-        <v>12416</v>
-      </c>
-      <c r="B437" s="2">
-        <v>4.9299999999999995E-4</v>
-      </c>
-      <c r="C437" s="2">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" s="2">
-        <v>14263</v>
-      </c>
-      <c r="B438" s="2">
-        <v>5.3700000000000004E-4</v>
-      </c>
-      <c r="C438" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="D438" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" s="2">
-        <v>16384</v>
-      </c>
-      <c r="B439" s="2">
-        <v>7.1599999999999995E-4</v>
-      </c>
-      <c r="C439" s="2">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="D439" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" s="2">
-        <v>18820</v>
-      </c>
-      <c r="B440" s="2">
-        <v>7.0500000000000001E-4</v>
-      </c>
-      <c r="C440" s="2">
-        <v>1.4E-5</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" s="2">
-        <v>21618</v>
-      </c>
-      <c r="B441" s="2">
-        <v>8.4999999999999995E-4</v>
-      </c>
-      <c r="C441" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" s="2">
-        <v>24833</v>
-      </c>
-      <c r="B442" s="2">
-        <v>9.3300000000000002E-4</v>
-      </c>
-      <c r="C442" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="D442" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" s="2">
-        <v>28526</v>
-      </c>
-      <c r="B443" s="2">
-        <v>1.1429999999999999E-3</v>
-      </c>
-      <c r="C443" s="2">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="D443" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" s="2">
-        <v>32768</v>
-      </c>
-      <c r="B444" s="2">
-        <v>1.408E-3</v>
-      </c>
-      <c r="C444" s="2">
-        <v>1.7E-5</v>
-      </c>
-      <c r="D444" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" s="2">
-        <v>37640</v>
-      </c>
-      <c r="B445" s="2">
-        <v>1.4450000000000001E-3</v>
-      </c>
-      <c r="C445" s="2">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="D445" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" s="2">
-        <v>43237</v>
-      </c>
-      <c r="B446" s="2">
-        <v>1.621E-3</v>
-      </c>
-      <c r="C446" s="2">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" s="2">
-        <v>49667</v>
-      </c>
-      <c r="B447" s="2">
-        <v>1.9629999999999999E-3</v>
-      </c>
-      <c r="C447" s="2">
+      <c r="D465" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="3">
+        <v>691802</v>
+      </c>
+      <c r="B466" s="3">
+        <v>9.3950000000000006E-3</v>
+      </c>
+      <c r="C466" s="3">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="3">
+        <v>794672</v>
+      </c>
+      <c r="B467" s="3">
+        <v>1.0668E-2</v>
+      </c>
+      <c r="C467" s="3">
+        <v>2.9E-5</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="3">
+        <v>912838</v>
+      </c>
+      <c r="B468" s="3">
+        <v>1.2177E-2</v>
+      </c>
+      <c r="C468" s="3">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="3">
+        <v>1048576</v>
+      </c>
+      <c r="B469" s="3">
+        <v>1.4237E-2</v>
+      </c>
+      <c r="C469" s="3">
+        <v>3.01E-4</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="3">
+        <v>1204497</v>
+      </c>
+      <c r="B470" s="3">
+        <v>1.6032999999999999E-2</v>
+      </c>
+      <c r="C470" s="3">
         <v>7.6000000000000004E-5</v>
       </c>
-      <c r="D447" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" s="2">
-        <v>57052</v>
-      </c>
-      <c r="B448" s="2">
-        <v>2.6020000000000001E-3</v>
-      </c>
-      <c r="C448" s="2">
-        <v>4.66E-4</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" s="2">
-        <v>65536</v>
-      </c>
-      <c r="B449" s="2">
-        <v>2.4520000000000002E-3</v>
-      </c>
-      <c r="C449" s="2">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="D449" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" s="2">
-        <v>75281</v>
-      </c>
-      <c r="B450" s="2">
-        <v>2.8600000000000001E-3</v>
-      </c>
-      <c r="C450" s="2">
-        <v>1.2E-5</v>
-      </c>
-      <c r="D450" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" s="2">
-        <v>86475</v>
-      </c>
-      <c r="B451" s="2">
-        <v>3.2299999999999998E-3</v>
-      </c>
-      <c r="C451" s="2">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="D451" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452" s="2">
-        <v>99334</v>
-      </c>
-      <c r="B452" s="2">
-        <v>3.699E-3</v>
-      </c>
-      <c r="C452" s="2">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="D452" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453" s="2">
-        <v>114104</v>
-      </c>
-      <c r="B453" s="2">
-        <v>4.3689999999999996E-3</v>
-      </c>
-      <c r="C453" s="2">
-        <v>6.3999999999999997E-5</v>
-      </c>
-      <c r="D453" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454" s="2">
-        <v>131072</v>
-      </c>
-      <c r="B454" s="2">
-        <v>6.4869999999999997E-3</v>
-      </c>
-      <c r="C454" s="2">
-        <v>9.7999999999999997E-5</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A455" s="2">
-        <v>150562</v>
-      </c>
-      <c r="B455" s="2">
-        <v>6.3359999999999996E-3</v>
-      </c>
-      <c r="C455" s="2">
-        <v>1.55E-4</v>
-      </c>
-      <c r="D455" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A456" s="2">
-        <v>172950</v>
-      </c>
-      <c r="B456" s="2">
-        <v>6.574E-3</v>
-      </c>
-      <c r="C456" s="2">
-        <v>2.4699999999999999E-4</v>
-      </c>
-      <c r="D456" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" s="2">
-        <v>198668</v>
-      </c>
-      <c r="B457" s="2">
-        <v>7.7520000000000002E-3</v>
-      </c>
-      <c r="C457" s="2">
-        <v>2.9E-5</v>
-      </c>
-      <c r="D457" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A458" s="2">
-        <v>228209</v>
-      </c>
-      <c r="B458" s="2">
-        <v>9.1050000000000002E-3</v>
-      </c>
-      <c r="C458" s="2">
-        <v>1.18E-4</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" s="2">
-        <v>262144</v>
-      </c>
-      <c r="B459" s="2">
-        <v>1.307E-2</v>
-      </c>
-      <c r="C459" s="2">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" s="2">
-        <v>301124</v>
-      </c>
-      <c r="B460" s="2">
-        <v>1.5321E-2</v>
-      </c>
-      <c r="C460" s="2">
-        <v>1.15E-4</v>
-      </c>
-      <c r="D460" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461" s="2">
-        <v>345901</v>
-      </c>
-      <c r="B461" s="2">
-        <v>1.7825000000000001E-2</v>
-      </c>
-      <c r="C461" s="2">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" s="2">
-        <v>397336</v>
-      </c>
-      <c r="B462" s="2">
-        <v>2.0607E-2</v>
-      </c>
-      <c r="C462" s="2">
-        <v>1.47E-4</v>
-      </c>
-      <c r="D462" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" s="2">
-        <v>456419</v>
-      </c>
-      <c r="B463" s="2">
-        <v>2.4006E-2</v>
-      </c>
-      <c r="C463" s="2">
-        <v>1.22E-4</v>
-      </c>
-      <c r="D463" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464" s="2">
-        <v>524288</v>
-      </c>
-      <c r="B464" s="2">
-        <v>2.7730000000000001E-2</v>
-      </c>
-      <c r="C464" s="2">
-        <v>3.6900000000000002E-4</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" s="2">
-        <v>602248</v>
-      </c>
-      <c r="B465" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C465" s="2">
-        <v>2.52E-4</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" s="2">
-        <v>691802</v>
-      </c>
-      <c r="B466" s="2">
-        <v>3.7734999999999998E-2</v>
-      </c>
-      <c r="C466" s="2">
-        <v>7.5799999999999999E-4</v>
-      </c>
-      <c r="D466" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467" s="2">
-        <v>794672</v>
-      </c>
-      <c r="B467" s="2">
-        <v>4.2827999999999998E-2</v>
-      </c>
-      <c r="C467" s="2">
-        <v>1.5200000000000001E-4</v>
-      </c>
-      <c r="D467" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468" s="2">
-        <v>912838</v>
-      </c>
-      <c r="B468" s="2">
-        <v>4.8481999999999997E-2</v>
-      </c>
-      <c r="C468" s="2">
-        <v>4.6700000000000002E-4</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469" s="2">
-        <v>1048576</v>
-      </c>
-      <c r="B469" s="2">
-        <v>5.4928999999999999E-2</v>
-      </c>
-      <c r="C469" s="2">
-        <v>2.7799999999999998E-4</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470" s="2">
-        <v>1204497</v>
-      </c>
-      <c r="B470" s="2">
-        <v>6.1462999999999997E-2</v>
-      </c>
-      <c r="C470" s="2">
-        <v>2.3700000000000001E-3</v>
-      </c>
-      <c r="D470" s="2" t="s">
+      <c r="D470" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471" s="2">
+      <c r="A471" s="3">
         <v>1383604</v>
       </c>
-      <c r="B471" s="2">
-        <v>7.2636999999999993E-2</v>
-      </c>
-      <c r="C471" s="2">
-        <v>3.57E-4</v>
-      </c>
-      <c r="D471" s="2" t="s">
+      <c r="B471" s="3">
+        <v>2.1826999999999999E-2</v>
+      </c>
+      <c r="C471" s="3">
+        <v>4.2929999999999999E-3</v>
+      </c>
+      <c r="D471" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A472" s="2">
+      <c r="A472" s="3">
         <v>1589344</v>
       </c>
-      <c r="B472" s="2">
-        <v>8.3488999999999994E-2</v>
-      </c>
-      <c r="C472" s="2">
-        <v>2.92E-4</v>
-      </c>
-      <c r="D472" s="2" t="s">
+      <c r="B472" s="3">
+        <v>2.1493999999999999E-2</v>
+      </c>
+      <c r="C472" s="3">
+        <v>1.0900000000000001E-4</v>
+      </c>
+      <c r="D472" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473" s="2">
+      <c r="A473" s="3">
         <v>1825676</v>
       </c>
-      <c r="B473" s="2">
-        <v>9.5599000000000003E-2</v>
-      </c>
-      <c r="C473" s="2">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="D473" s="2" t="s">
+      <c r="B473" s="3">
+        <v>2.4208E-2</v>
+      </c>
+      <c r="C473" s="3">
+        <v>4.1800000000000002E-4</v>
+      </c>
+      <c r="D473" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474" s="2">
+      <c r="A474" s="3">
         <v>2097152</v>
       </c>
-      <c r="B474" s="2">
-        <v>0.108642</v>
-      </c>
-      <c r="C474" s="2">
-        <v>2.0609999999999999E-3</v>
-      </c>
-      <c r="D474" s="2" t="s">
+      <c r="B474" s="3">
+        <v>2.7564999999999999E-2</v>
+      </c>
+      <c r="C474" s="3">
+        <v>6.2000000000000003E-5</v>
+      </c>
+      <c r="D474" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A475" s="2">
+      <c r="A475" s="3">
         <v>2408995</v>
       </c>
-      <c r="B475" s="2">
-        <v>0.12623300000000001</v>
-      </c>
-      <c r="C475" s="2">
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="D475" s="2" t="s">
+      <c r="B475" s="3">
+        <v>3.1628999999999997E-2</v>
+      </c>
+      <c r="C475" s="3">
+        <v>2.7500000000000002E-4</v>
+      </c>
+      <c r="D475" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476" s="2">
+      <c r="A476" s="3">
         <v>2767208</v>
       </c>
-      <c r="B476" s="2">
-        <v>0.145374</v>
-      </c>
-      <c r="C476" s="2">
-        <v>3.4000000000000002E-4</v>
-      </c>
-      <c r="D476" s="2" t="s">
+      <c r="B476" s="3">
+        <v>3.6727000000000003E-2</v>
+      </c>
+      <c r="C476" s="3">
+        <v>2.6899999999999998E-4</v>
+      </c>
+      <c r="D476" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477" s="2">
+      <c r="A477" s="3">
         <v>3178688</v>
       </c>
-      <c r="B477" s="2">
-        <v>0.17203199999999999</v>
-      </c>
-      <c r="C477" s="2">
-        <v>7.6600000000000001E-3</v>
-      </c>
-      <c r="D477" s="2" t="s">
+      <c r="B477" s="3">
+        <v>4.1807999999999998E-2</v>
+      </c>
+      <c r="C477" s="3">
+        <v>2.43E-4</v>
+      </c>
+      <c r="D477" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478" s="2">
+      <c r="A478" s="3">
         <v>3651353</v>
       </c>
-      <c r="B478" s="2">
-        <v>0.19111600000000001</v>
-      </c>
-      <c r="C478" s="2">
-        <v>4.9399999999999997E-4</v>
-      </c>
-      <c r="D478" s="2" t="s">
+      <c r="B478" s="3">
+        <v>4.8459000000000002E-2</v>
+      </c>
+      <c r="C478" s="3">
+        <v>1.64E-4</v>
+      </c>
+      <c r="D478" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A479" s="2">
+      <c r="A479" s="3">
         <v>4194304</v>
       </c>
-      <c r="B479" s="2">
-        <v>0.21957499999999999</v>
-      </c>
-      <c r="C479" s="2">
-        <v>3.1100000000000002E-4</v>
-      </c>
-      <c r="D479" s="2" t="s">
+      <c r="B479" s="3">
+        <v>5.4550000000000001E-2</v>
+      </c>
+      <c r="C479" s="3">
+        <v>8.3999999999999995E-5</v>
+      </c>
+      <c r="D479" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480" s="2">
+      <c r="A480" s="3">
         <v>4817990</v>
       </c>
-      <c r="B480" s="2">
-        <v>0.25300099999999998</v>
-      </c>
-      <c r="C480" s="2">
-        <v>8.4999999999999995E-4</v>
-      </c>
-      <c r="D480" s="2" t="s">
+      <c r="B480" s="3">
+        <v>6.2994999999999995E-2</v>
+      </c>
+      <c r="C480" s="3">
+        <v>4.8500000000000003E-4</v>
+      </c>
+      <c r="D480" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A481" s="2">
+      <c r="A481" s="3">
         <v>5534417</v>
       </c>
-      <c r="B481" s="2">
-        <v>0.290024</v>
-      </c>
-      <c r="C481" s="2">
-        <v>4.37E-4</v>
-      </c>
-      <c r="D481" s="2" t="s">
+      <c r="B481" s="3">
+        <v>7.2902999999999996E-2</v>
+      </c>
+      <c r="C481" s="3">
+        <v>1.057E-3</v>
+      </c>
+      <c r="D481" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A482" s="2">
+      <c r="A482" s="3">
         <v>6357376</v>
       </c>
-      <c r="B482" s="2">
-        <v>0.33310699999999999</v>
-      </c>
-      <c r="C482" s="2">
-        <v>7.67E-4</v>
-      </c>
-      <c r="D482" s="2" t="s">
+      <c r="B482" s="3">
+        <v>8.3049999999999999E-2</v>
+      </c>
+      <c r="C482" s="3">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="D482" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483" s="2">
+      <c r="A483" s="3">
         <v>7302707</v>
       </c>
-      <c r="B483" s="2">
-        <v>0.38113599999999997</v>
-      </c>
-      <c r="C483" s="2">
-        <v>6.1879999999999999E-3</v>
-      </c>
-      <c r="D483" s="2" t="s">
+      <c r="B483" s="3">
+        <v>9.5651E-2</v>
+      </c>
+      <c r="C483" s="3">
+        <v>7.6599999999999997E-4</v>
+      </c>
+      <c r="D483" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484" s="2">
+      <c r="A484" s="3">
         <v>8388608</v>
       </c>
-      <c r="B484" s="2">
-        <v>0.43836700000000001</v>
-      </c>
-      <c r="C484" s="2">
-        <v>1.256E-3</v>
-      </c>
-      <c r="D484" s="2" t="s">
+      <c r="B484" s="3">
+        <v>0.10893600000000001</v>
+      </c>
+      <c r="C484" s="3">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="D484" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485" s="2">
+      <c r="A485" s="3">
         <v>9635980</v>
       </c>
-      <c r="B485" s="2">
-        <v>0.50213099999999999</v>
-      </c>
-      <c r="C485" s="2">
-        <v>4.5989999999999998E-3</v>
-      </c>
-      <c r="D485" s="2" t="s">
+      <c r="B485" s="3">
+        <v>0.125083</v>
+      </c>
+      <c r="C485" s="3">
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="D485" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A486" s="2">
+      <c r="A486" s="3">
         <v>11068834</v>
       </c>
-      <c r="B486" s="2">
-        <v>0.58169400000000004</v>
-      </c>
-      <c r="C486" s="2">
-        <v>3.28E-4</v>
-      </c>
-      <c r="D486" s="2" t="s">
+      <c r="B486" s="3">
+        <v>0.14440600000000001</v>
+      </c>
+      <c r="C486" s="3">
+        <v>2.05E-4</v>
+      </c>
+      <c r="D486" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487" s="2">
+      <c r="A487" s="3">
         <v>12714752</v>
       </c>
-      <c r="B487" s="2">
-        <v>0.68053300000000005</v>
-      </c>
-      <c r="C487" s="2">
-        <v>1.9795E-2</v>
-      </c>
-      <c r="D487" s="2" t="s">
+      <c r="B487" s="3">
+        <v>0.16637299999999999</v>
+      </c>
+      <c r="C487" s="3">
+        <v>1.024E-3</v>
+      </c>
+      <c r="D487" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488" s="2">
+      <c r="A488" s="3">
         <v>14605414</v>
       </c>
-      <c r="B488" s="2">
-        <v>0.76647399999999999</v>
-      </c>
-      <c r="C488" s="2">
-        <v>1.3129999999999999E-3</v>
-      </c>
-      <c r="D488" s="2" t="s">
+      <c r="B488" s="3">
+        <v>0.19142400000000001</v>
+      </c>
+      <c r="C488" s="3">
+        <v>1.6930000000000001E-3</v>
+      </c>
+      <c r="D488" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" s="2">
+      <c r="A489" s="3">
         <v>16777216</v>
       </c>
-      <c r="B489" s="2">
-        <v>0.88116300000000003</v>
-      </c>
-      <c r="C489" s="2">
-        <v>1.5510000000000001E-3</v>
-      </c>
-      <c r="D489" s="2" t="s">
+      <c r="B489" s="3">
+        <v>0.219751</v>
+      </c>
+      <c r="C489" s="3">
+        <v>1.284E-3</v>
+      </c>
+      <c r="D489" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="2">
+      <c r="A490" s="3">
         <v>19271960</v>
       </c>
-      <c r="B490" s="2">
-        <v>1.009571</v>
-      </c>
-      <c r="C490" s="2">
-        <v>4.836E-3</v>
-      </c>
-      <c r="D490" s="2" t="s">
+      <c r="B490" s="3">
+        <v>0.251531</v>
+      </c>
+      <c r="C490" s="3">
+        <v>4.1100000000000002E-4</v>
+      </c>
+      <c r="D490" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491" s="2">
+      <c r="A491" s="3">
         <v>22137669</v>
       </c>
-      <c r="B491" s="2">
-        <v>1.170804</v>
-      </c>
-      <c r="C491" s="2">
-        <v>1.3642E-2</v>
-      </c>
-      <c r="D491" s="2" t="s">
+      <c r="B491" s="3">
+        <v>0.28958099999999998</v>
+      </c>
+      <c r="C491" s="3">
+        <v>4.4900000000000002E-4</v>
+      </c>
+      <c r="D491" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A492" s="2">
+      <c r="A492" s="3">
         <v>25429504</v>
       </c>
-      <c r="B492" s="2">
-        <v>1.36145</v>
-      </c>
-      <c r="C492" s="2">
-        <v>3.7118999999999999E-2</v>
-      </c>
-      <c r="D492" s="2" t="s">
+      <c r="B492" s="3">
+        <v>0.33216000000000001</v>
+      </c>
+      <c r="C492" s="3">
+        <v>1.358E-3</v>
+      </c>
+      <c r="D492" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493" s="2">
+      <c r="A493" s="3">
         <v>29210829</v>
       </c>
-      <c r="B493" s="2">
-        <v>1.537642</v>
-      </c>
-      <c r="C493" s="2">
-        <v>2.8930000000000002E-3</v>
-      </c>
-      <c r="D493" s="2" t="s">
+      <c r="B493" s="3">
+        <v>0.38455299999999998</v>
+      </c>
+      <c r="C493" s="3">
+        <v>2.235E-3</v>
+      </c>
+      <c r="D493" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A494" s="2">
+      <c r="A494" s="3">
         <v>33554432</v>
       </c>
-      <c r="B494" s="2">
-        <v>1.760103</v>
-      </c>
-      <c r="C494" s="2">
-        <v>2.2251E-2</v>
-      </c>
-      <c r="D494" s="2" t="s">
+      <c r="B494" s="3">
+        <v>0.44852900000000001</v>
+      </c>
+      <c r="C494" s="3">
+        <v>7.3210000000000003E-3</v>
+      </c>
+      <c r="D494" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A495" s="2">
+      <c r="A495" s="3">
         <v>38543920</v>
       </c>
-      <c r="B495" s="2">
-        <v>2.0234770000000002</v>
-      </c>
-      <c r="C495" s="2">
-        <v>1.0675E-2</v>
-      </c>
-      <c r="D495" s="2" t="s">
+      <c r="B495" s="3">
+        <v>0.50617599999999996</v>
+      </c>
+      <c r="C495" s="3">
+        <v>7.6599999999999997E-4</v>
+      </c>
+      <c r="D495" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A496" s="2">
+      <c r="A496" s="3">
         <v>44275338</v>
       </c>
-      <c r="B496" s="2">
-        <v>2.3315700000000001</v>
-      </c>
-      <c r="C496" s="2">
-        <v>1.2482999999999999E-2</v>
-      </c>
-      <c r="D496" s="2" t="s">
+      <c r="B496" s="3">
+        <v>0.58214900000000003</v>
+      </c>
+      <c r="C496" s="3">
+        <v>3.7190000000000001E-3</v>
+      </c>
+      <c r="D496" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A497" s="2">
+      <c r="A497" s="3">
         <v>50859008</v>
       </c>
-      <c r="B497" s="2">
-        <v>2.6894909999999999</v>
-      </c>
-      <c r="C497" s="2">
-        <v>2.0986999999999999E-2</v>
-      </c>
-      <c r="D497" s="2" t="s">
+      <c r="B497" s="3">
+        <v>0.67033200000000004</v>
+      </c>
+      <c r="C497" s="3">
+        <v>6.0759999999999998E-3</v>
+      </c>
+      <c r="D497" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A498" s="2">
+      <c r="A498" s="3">
         <v>58421659</v>
       </c>
-      <c r="B498" s="2">
-        <v>3.0847630000000001</v>
-      </c>
-      <c r="C498" s="2">
-        <v>4.7828000000000002E-2</v>
-      </c>
-      <c r="D498" s="2" t="s">
+      <c r="B498" s="3">
+        <v>0.77732599999999996</v>
+      </c>
+      <c r="C498" s="3">
+        <v>1.5963000000000001E-2</v>
+      </c>
+      <c r="D498" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A499" s="2">
+      <c r="A499" s="3">
         <v>67108864</v>
       </c>
-      <c r="B499" s="2">
-        <v>3.5440689999999999</v>
-      </c>
-      <c r="C499" s="2">
-        <v>1.6445000000000001E-2</v>
-      </c>
-      <c r="D499" s="2" t="s">
+      <c r="B499" s="3">
+        <v>0.883718</v>
+      </c>
+      <c r="C499" s="3">
+        <v>3.137E-3</v>
+      </c>
+      <c r="D499" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -14896,1556 +14896,1556 @@
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A503" s="2">
+      <c r="A503" s="3">
         <v>2</v>
       </c>
-      <c r="B503" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C503" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="D503" s="2" t="s">
+      <c r="B503" s="3">
+        <v>8.83E-4</v>
+      </c>
+      <c r="C503" s="3">
+        <v>9.3999999999999994E-5</v>
+      </c>
+      <c r="D503" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A504" s="2">
+      <c r="A504" s="3">
         <v>3</v>
       </c>
-      <c r="B504" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C504" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D504" s="2" t="s">
+      <c r="B504" s="3">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="C504" s="3">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="D504" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A505" s="2">
+      <c r="A505" s="3">
         <v>4</v>
       </c>
-      <c r="B505" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C505" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D505" s="2" t="s">
+      <c r="B505" s="3">
+        <v>8.1400000000000005E-4</v>
+      </c>
+      <c r="C505" s="3">
+        <v>1.12E-4</v>
+      </c>
+      <c r="D505" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A506" s="2">
+      <c r="A506" s="3">
         <v>5</v>
       </c>
-      <c r="B506" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C506" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D506" s="2" t="s">
+      <c r="B506" s="3">
+        <v>9.1399999999999999E-4</v>
+      </c>
+      <c r="C506" s="3">
+        <v>9.7E-5</v>
+      </c>
+      <c r="D506" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A507" s="2">
+      <c r="A507" s="3">
         <v>6</v>
       </c>
-      <c r="B507" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C507" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D507" s="2" t="s">
+      <c r="B507" s="3">
+        <v>7.7300000000000003E-4</v>
+      </c>
+      <c r="C507" s="3">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D507" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A508" s="2">
-        <v>8</v>
-      </c>
-      <c r="B508" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C508" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D508" s="2" t="s">
+      <c r="A508" s="3">
+        <v>8</v>
+      </c>
+      <c r="B508" s="3">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="C508" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D508" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A509" s="2">
+      <c r="A509" s="3">
         <v>9</v>
       </c>
-      <c r="B509" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C509" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D509" s="2" t="s">
+      <c r="B509" s="3">
+        <v>7.8700000000000005E-4</v>
+      </c>
+      <c r="C509" s="3">
+        <v>5.5000000000000002E-5</v>
+      </c>
+      <c r="D509" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A510" s="2">
+      <c r="A510" s="3">
         <v>10</v>
       </c>
-      <c r="B510" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C510" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D510" s="2" t="s">
+      <c r="B510" s="3">
+        <v>7.8100000000000001E-4</v>
+      </c>
+      <c r="C510" s="3">
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="D510" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A511" s="2">
+      <c r="A511" s="3">
         <v>12</v>
       </c>
-      <c r="B511" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C511" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D511" s="2" t="s">
+      <c r="B511" s="3">
+        <v>7.8299999999999995E-4</v>
+      </c>
+      <c r="C511" s="3">
+        <v>9.2E-5</v>
+      </c>
+      <c r="D511" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A512" s="2">
+      <c r="A512" s="3">
         <v>13</v>
       </c>
-      <c r="B512" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C512" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D512" s="2" t="s">
+      <c r="B512" s="3">
+        <v>8.12E-4</v>
+      </c>
+      <c r="C512" s="3">
+        <v>9.7999999999999997E-5</v>
+      </c>
+      <c r="D512" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A513" s="2">
+      <c r="A513" s="3">
         <v>16</v>
       </c>
-      <c r="B513" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C513" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D513" s="2" t="s">
+      <c r="B513" s="3">
+        <v>8.4199999999999998E-4</v>
+      </c>
+      <c r="C513" s="3">
+        <v>5.5000000000000002E-5</v>
+      </c>
+      <c r="D513" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A514" s="2">
+      <c r="A514" s="3">
         <v>18</v>
       </c>
-      <c r="B514" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C514" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D514" s="2" t="s">
+      <c r="B514" s="3">
+        <v>8.6399999999999997E-4</v>
+      </c>
+      <c r="C514" s="3">
+        <v>1.2300000000000001E-4</v>
+      </c>
+      <c r="D514" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A515" s="2">
+      <c r="A515" s="3">
         <v>21</v>
       </c>
-      <c r="B515" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C515" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D515" s="2" t="s">
+      <c r="B515" s="3">
+        <v>8.3199999999999995E-4</v>
+      </c>
+      <c r="C515" s="3">
+        <v>4.6E-5</v>
+      </c>
+      <c r="D515" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A516" s="2">
+      <c r="A516" s="3">
         <v>24</v>
       </c>
-      <c r="B516" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C516" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D516" s="2" t="s">
+      <c r="B516" s="3">
+        <v>6.9800000000000005E-4</v>
+      </c>
+      <c r="C516" s="3">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="D516" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A517" s="2">
+      <c r="A517" s="3">
         <v>27</v>
       </c>
-      <c r="B517" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C517" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D517" s="2" t="s">
+      <c r="B517" s="3">
+        <v>7.5600000000000005E-4</v>
+      </c>
+      <c r="C517" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D517" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A518" s="2">
+      <c r="A518" s="3">
         <v>32</v>
       </c>
-      <c r="B518" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C518" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D518" s="2" t="s">
+      <c r="B518" s="3">
+        <v>7.4799999999999997E-4</v>
+      </c>
+      <c r="C518" s="3">
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="D518" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A519" s="2">
+      <c r="A519" s="3">
         <v>36</v>
       </c>
-      <c r="B519" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C519" s="2">
-        <v>0</v>
-      </c>
-      <c r="D519" s="2" t="s">
+      <c r="B519" s="3">
+        <v>8.1300000000000003E-4</v>
+      </c>
+      <c r="C519" s="3">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="D519" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A520" s="2">
+      <c r="A520" s="3">
         <v>42</v>
       </c>
-      <c r="B520" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C520" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D520" s="2" t="s">
+      <c r="B520" s="3">
+        <v>8.3500000000000002E-4</v>
+      </c>
+      <c r="C520" s="3">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="D520" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A521" s="2">
+      <c r="A521" s="3">
         <v>48</v>
       </c>
-      <c r="B521" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C521" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D521" s="2" t="s">
+      <c r="B521" s="3">
+        <v>6.8300000000000001E-4</v>
+      </c>
+      <c r="C521" s="3">
+        <v>4.1E-5</v>
+      </c>
+      <c r="D521" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A522" s="2">
+      <c r="A522" s="3">
         <v>55</v>
       </c>
-      <c r="B522" s="2">
+      <c r="B522" s="3">
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="C522" s="3">
+        <v>5.1E-5</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" s="3">
+        <v>64</v>
+      </c>
+      <c r="B523" s="3">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="C523" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" s="3">
+        <v>73</v>
+      </c>
+      <c r="B524" s="3">
+        <v>6.7299999999999999E-4</v>
+      </c>
+      <c r="C524" s="3">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="3">
+        <v>84</v>
+      </c>
+      <c r="B525" s="3">
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="C525" s="3">
+        <v>6.7999999999999999E-5</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" s="3">
+        <v>97</v>
+      </c>
+      <c r="B526" s="3">
+        <v>6.8099999999999996E-4</v>
+      </c>
+      <c r="C526" s="3">
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" s="3">
+        <v>111</v>
+      </c>
+      <c r="B527" s="3">
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="C527" s="3">
+        <v>5.8999999999999998E-5</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" s="3">
+        <v>128</v>
+      </c>
+      <c r="B528" s="3">
+        <v>6.7599999999999995E-4</v>
+      </c>
+      <c r="C528" s="3">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" s="3">
+        <v>147</v>
+      </c>
+      <c r="B529" s="3">
+        <v>7.27E-4</v>
+      </c>
+      <c r="C529" s="3">
+        <v>8.3999999999999995E-5</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" s="3">
+        <v>168</v>
+      </c>
+      <c r="B530" s="3">
+        <v>6.7699999999999998E-4</v>
+      </c>
+      <c r="C530" s="3">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" s="3">
+        <v>194</v>
+      </c>
+      <c r="B531" s="3">
+        <v>6.9399999999999996E-4</v>
+      </c>
+      <c r="C531" s="3">
+        <v>9.1000000000000003E-5</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" s="3">
+        <v>222</v>
+      </c>
+      <c r="B532" s="3">
+        <v>6.8300000000000001E-4</v>
+      </c>
+      <c r="C532" s="3">
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="3">
+        <v>256</v>
+      </c>
+      <c r="B533" s="3">
+        <v>6.7100000000000005E-4</v>
+      </c>
+      <c r="C533" s="3">
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="3">
+        <v>294</v>
+      </c>
+      <c r="B534" s="3">
+        <v>6.7299999999999999E-4</v>
+      </c>
+      <c r="C534" s="3">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="3">
+        <v>337</v>
+      </c>
+      <c r="B535" s="3">
+        <v>6.7599999999999995E-4</v>
+      </c>
+      <c r="C535" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="3">
+        <v>388</v>
+      </c>
+      <c r="B536" s="3">
+        <v>6.7599999999999995E-4</v>
+      </c>
+      <c r="C536" s="3">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="3">
+        <v>445</v>
+      </c>
+      <c r="B537" s="3">
+        <v>6.8900000000000005E-4</v>
+      </c>
+      <c r="C537" s="3">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="3">
+        <v>512</v>
+      </c>
+      <c r="B538" s="3">
+        <v>6.78E-4</v>
+      </c>
+      <c r="C538" s="3">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="3">
+        <v>588</v>
+      </c>
+      <c r="B539" s="3">
+        <v>7.27E-4</v>
+      </c>
+      <c r="C539" s="3">
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="3">
+        <v>675</v>
+      </c>
+      <c r="B540" s="3">
+        <v>7.0200000000000004E-4</v>
+      </c>
+      <c r="C540" s="3">
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="3">
+        <v>776</v>
+      </c>
+      <c r="B541" s="3">
+        <v>7.0899999999999999E-4</v>
+      </c>
+      <c r="C541" s="3">
+        <v>9.1000000000000003E-5</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="3">
+        <v>891</v>
+      </c>
+      <c r="B542" s="3">
+        <v>6.69E-4</v>
+      </c>
+      <c r="C542" s="3">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B543" s="3">
+        <v>6.7900000000000002E-4</v>
+      </c>
+      <c r="C543" s="3">
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="3">
+        <v>1176</v>
+      </c>
+      <c r="B544" s="3">
+        <v>6.9700000000000003E-4</v>
+      </c>
+      <c r="C544" s="3">
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" s="3">
+        <v>1351</v>
+      </c>
+      <c r="B545" s="3">
+        <v>6.7599999999999995E-4</v>
+      </c>
+      <c r="C545" s="3">
+        <v>5.7000000000000003E-5</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" s="3">
+        <v>1552</v>
+      </c>
+      <c r="B546" s="3">
+        <v>6.9099999999999999E-4</v>
+      </c>
+      <c r="C546" s="3">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" s="3">
+        <v>1782</v>
+      </c>
+      <c r="B547" s="3">
+        <v>6.7199999999999996E-4</v>
+      </c>
+      <c r="C547" s="3">
+        <v>4.6E-5</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" s="3">
+        <v>2048</v>
+      </c>
+      <c r="B548" s="3">
+        <v>6.7199999999999996E-4</v>
+      </c>
+      <c r="C548" s="3">
+        <v>5.5000000000000002E-5</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" s="3">
+        <v>2352</v>
+      </c>
+      <c r="B549" s="3">
+        <v>6.8300000000000001E-4</v>
+      </c>
+      <c r="C549" s="3">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" s="3">
+        <v>2702</v>
+      </c>
+      <c r="B550" s="3">
+        <v>6.9099999999999999E-4</v>
+      </c>
+      <c r="C550" s="3">
+        <v>5.3000000000000001E-5</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" s="3">
+        <v>3104</v>
+      </c>
+      <c r="B551" s="3">
+        <v>6.9800000000000005E-4</v>
+      </c>
+      <c r="C551" s="3">
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="3">
+        <v>3565</v>
+      </c>
+      <c r="B552" s="3">
+        <v>6.8099999999999996E-4</v>
+      </c>
+      <c r="C552" s="3">
+        <v>4.6E-5</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="3">
+        <v>4096</v>
+      </c>
+      <c r="B553" s="3">
+        <v>6.6500000000000001E-4</v>
+      </c>
+      <c r="C553" s="3">
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="3">
+        <v>4705</v>
+      </c>
+      <c r="B554" s="3">
+        <v>7.4399999999999998E-4</v>
+      </c>
+      <c r="C554" s="3">
+        <v>1.11E-4</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" s="3">
+        <v>5404</v>
+      </c>
+      <c r="B555" s="3">
+        <v>7.1900000000000002E-4</v>
+      </c>
+      <c r="C555" s="3">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="3">
+        <v>6208</v>
+      </c>
+      <c r="B556" s="3">
+        <v>6.78E-4</v>
+      </c>
+      <c r="C556" s="3">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="3">
+        <v>7131</v>
+      </c>
+      <c r="B557" s="3">
+        <v>7.0799999999999997E-4</v>
+      </c>
+      <c r="C557" s="3">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="3">
+        <v>8192</v>
+      </c>
+      <c r="B558" s="3">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="C558" s="3">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="3">
+        <v>9410</v>
+      </c>
+      <c r="B559" s="3">
+        <v>6.9899999999999997E-4</v>
+      </c>
+      <c r="C559" s="3">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" s="3">
+        <v>10809</v>
+      </c>
+      <c r="B560" s="3">
+        <v>6.9899999999999997E-4</v>
+      </c>
+      <c r="C560" s="3">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" s="3">
+        <v>12416</v>
+      </c>
+      <c r="B561" s="3">
+        <v>7.0299999999999996E-4</v>
+      </c>
+      <c r="C561" s="3">
+        <v>2.3E-5</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="3">
+        <v>14263</v>
+      </c>
+      <c r="B562" s="3">
+        <v>7.2900000000000005E-4</v>
+      </c>
+      <c r="C562" s="3">
+        <v>1.7E-5</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" s="3">
+        <v>16384</v>
+      </c>
+      <c r="B563" s="3">
+        <v>7.0899999999999999E-4</v>
+      </c>
+      <c r="C563" s="3">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="C522" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="D522" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A523" s="2">
-        <v>64</v>
-      </c>
-      <c r="B523" s="2">
+      <c r="D563" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" s="3">
+        <v>18820</v>
+      </c>
+      <c r="B564" s="3">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="C564" s="3">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="C523" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D523" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A524" s="2">
-        <v>73</v>
-      </c>
-      <c r="B524" s="2">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="C524" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A525" s="2">
-        <v>84</v>
-      </c>
-      <c r="B525" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C525" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D525" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A526" s="2">
-        <v>97</v>
-      </c>
-      <c r="B526" s="2">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="C526" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D526" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A527" s="2">
-        <v>111</v>
-      </c>
-      <c r="B527" s="2">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="C527" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D527" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A528" s="2">
-        <v>128</v>
-      </c>
-      <c r="B528" s="2">
+      <c r="D564" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" s="3">
+        <v>21618</v>
+      </c>
+      <c r="B565" s="3">
+        <v>7.4700000000000005E-4</v>
+      </c>
+      <c r="C565" s="3">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" s="3">
+        <v>24833</v>
+      </c>
+      <c r="B566" s="3">
+        <v>7.6800000000000002E-4</v>
+      </c>
+      <c r="C566" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C528" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D528" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A529" s="2">
-        <v>147</v>
-      </c>
-      <c r="B529" s="2">
-        <v>1.1E-5</v>
-      </c>
-      <c r="C529" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A530" s="2">
-        <v>168</v>
-      </c>
-      <c r="B530" s="2">
+      <c r="D566" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" s="3">
+        <v>28526</v>
+      </c>
+      <c r="B567" s="3">
+        <v>7.8600000000000002E-4</v>
+      </c>
+      <c r="C567" s="3">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" s="3">
+        <v>32768</v>
+      </c>
+      <c r="B568" s="3">
+        <v>8.2100000000000001E-4</v>
+      </c>
+      <c r="C568" s="3">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569" s="3">
+        <v>37640</v>
+      </c>
+      <c r="B569" s="3">
+        <v>8.5400000000000005E-4</v>
+      </c>
+      <c r="C569" s="3">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" s="3">
+        <v>43237</v>
+      </c>
+      <c r="B570" s="3">
+        <v>9.2400000000000002E-4</v>
+      </c>
+      <c r="C570" s="3">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" s="3">
+        <v>49667</v>
+      </c>
+      <c r="B571" s="3">
+        <v>9.3899999999999995E-4</v>
+      </c>
+      <c r="C571" s="3">
         <v>1.2E-5</v>
       </c>
-      <c r="C530" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A531" s="2">
-        <v>194</v>
-      </c>
-      <c r="B531" s="2">
-        <v>1.4E-5</v>
-      </c>
-      <c r="C531" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D531" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A532" s="2">
-        <v>222</v>
-      </c>
-      <c r="B532" s="2">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="C532" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D532" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A533" s="2">
-        <v>256</v>
-      </c>
-      <c r="B533" s="2">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="C533" s="2">
-        <v>0</v>
-      </c>
-      <c r="D533" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A534" s="2">
-        <v>294</v>
-      </c>
-      <c r="B534" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="C534" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D534" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A535" s="2">
-        <v>337</v>
-      </c>
-      <c r="B535" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="C535" s="2">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="D535" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A536" s="2">
-        <v>388</v>
-      </c>
-      <c r="B536" s="2">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="C536" s="2">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="D536" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A537" s="2">
-        <v>445</v>
-      </c>
-      <c r="B537" s="2">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="C537" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D537" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A538" s="2">
-        <v>512</v>
-      </c>
-      <c r="B538" s="2">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="C538" s="2">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="D538" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A539" s="2">
-        <v>588</v>
-      </c>
-      <c r="B539" s="2">
+      <c r="D571" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" s="3">
+        <v>57052</v>
+      </c>
+      <c r="B572" s="3">
+        <v>1.0039999999999999E-3</v>
+      </c>
+      <c r="C572" s="3">
+        <v>2.9E-5</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" s="3">
+        <v>65536</v>
+      </c>
+      <c r="B573" s="3">
+        <v>1.057E-3</v>
+      </c>
+      <c r="C573" s="3">
+        <v>2.8E-5</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" s="3">
+        <v>75281</v>
+      </c>
+      <c r="B574" s="3">
+        <v>1.158E-3</v>
+      </c>
+      <c r="C574" s="3">
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" s="3">
+        <v>86475</v>
+      </c>
+      <c r="B575" s="3">
+        <v>1.2329999999999999E-3</v>
+      </c>
+      <c r="C575" s="3">
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" s="3">
+        <v>99334</v>
+      </c>
+      <c r="B576" s="3">
+        <v>1.335E-3</v>
+      </c>
+      <c r="C576" s="3">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="C539" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D539" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A540" s="2">
-        <v>675</v>
-      </c>
-      <c r="B540" s="2">
-        <v>2.6999999999999999E-5</v>
-      </c>
-      <c r="C540" s="2">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="D540" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A541" s="2">
-        <v>776</v>
-      </c>
-      <c r="B541" s="2">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="C541" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D541" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A542" s="2">
-        <v>891</v>
-      </c>
-      <c r="B542" s="2">
-        <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="C542" s="2">
-        <v>1.8E-5</v>
-      </c>
-      <c r="D542" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A543" s="2">
-        <v>1024</v>
-      </c>
-      <c r="B543" s="2">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="C543" s="2">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="D543" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A544" s="2">
-        <v>1176</v>
-      </c>
-      <c r="B544" s="2">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="C544" s="2">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="D544" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A545" s="2">
-        <v>1351</v>
-      </c>
-      <c r="B545" s="2">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="C545" s="2">
-        <v>0</v>
-      </c>
-      <c r="D545" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A546" s="2">
-        <v>1552</v>
-      </c>
-      <c r="B546" s="2">
-        <v>4.1999999999999998E-5</v>
-      </c>
-      <c r="C546" s="2">
-        <v>0</v>
-      </c>
-      <c r="D546" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A547" s="2">
-        <v>1782</v>
-      </c>
-      <c r="B547" s="2">
-        <v>6.0999999999999999E-5</v>
-      </c>
-      <c r="C547" s="2">
-        <v>1.8E-5</v>
-      </c>
-      <c r="D547" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A548" s="2">
-        <v>2048</v>
-      </c>
-      <c r="B548" s="2">
-        <v>8.8999999999999995E-5</v>
-      </c>
-      <c r="C548" s="2">
-        <v>0</v>
-      </c>
-      <c r="D548" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A549" s="2">
-        <v>2352</v>
-      </c>
-      <c r="B549" s="2">
-        <v>6.6000000000000005E-5</v>
-      </c>
-      <c r="C549" s="2">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="D549" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A550" s="2">
-        <v>2702</v>
-      </c>
-      <c r="B550" s="2">
-        <v>7.7000000000000001E-5</v>
-      </c>
-      <c r="C550" s="2">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="D550" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A551" s="2">
-        <v>3104</v>
-      </c>
-      <c r="B551" s="2">
-        <v>8.7000000000000001E-5</v>
-      </c>
-      <c r="C551" s="2">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="D551" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A552" s="2">
-        <v>3565</v>
-      </c>
-      <c r="B552" s="2">
-        <v>9.5000000000000005E-5</v>
-      </c>
-      <c r="C552" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D552" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A553" s="2">
-        <v>4096</v>
-      </c>
-      <c r="B553" s="2">
-        <v>1.7899999999999999E-4</v>
-      </c>
-      <c r="C553" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D553" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A554" s="2">
-        <v>4705</v>
-      </c>
-      <c r="B554" s="2">
-        <v>1.2899999999999999E-4</v>
-      </c>
-      <c r="C554" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="D554" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A555" s="2">
-        <v>5404</v>
-      </c>
-      <c r="B555" s="2">
-        <v>2.4899999999999998E-4</v>
-      </c>
-      <c r="C555" s="2">
-        <v>1.44E-4</v>
-      </c>
-      <c r="D555" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A556" s="2">
-        <v>6208</v>
-      </c>
-      <c r="B556" s="2">
-        <v>1.7200000000000001E-4</v>
-      </c>
-      <c r="C556" s="2">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="D556" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A557" s="2">
-        <v>7131</v>
-      </c>
-      <c r="B557" s="2">
-        <v>1.95E-4</v>
-      </c>
-      <c r="C557" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D557" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A558" s="2">
-        <v>8192</v>
-      </c>
-      <c r="B558" s="2">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="C558" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="D558" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A559" s="2">
-        <v>9410</v>
-      </c>
-      <c r="B559" s="2">
-        <v>2.5599999999999999E-4</v>
-      </c>
-      <c r="C559" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="D559" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A560" s="2">
-        <v>10809</v>
-      </c>
-      <c r="B560" s="2">
-        <v>2.9399999999999999E-4</v>
-      </c>
-      <c r="C560" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D560" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A561" s="2">
-        <v>12416</v>
-      </c>
-      <c r="B561" s="2">
-        <v>3.3700000000000001E-4</v>
-      </c>
-      <c r="C561" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="D561" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A562" s="2">
-        <v>14263</v>
-      </c>
-      <c r="B562" s="2">
-        <v>3.8699999999999997E-4</v>
-      </c>
-      <c r="C562" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D562" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A563" s="2">
-        <v>16384</v>
-      </c>
-      <c r="B563" s="2">
-        <v>7.5000000000000002E-4</v>
-      </c>
-      <c r="C563" s="2">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="D563" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A564" s="2">
-        <v>18820</v>
-      </c>
-      <c r="B564" s="2">
-        <v>5.3899999999999998E-4</v>
-      </c>
-      <c r="C564" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="D564" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A565" s="2">
-        <v>21618</v>
-      </c>
-      <c r="B565" s="2">
-        <v>5.9100000000000005E-4</v>
-      </c>
-      <c r="C565" s="2">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="D565" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A566" s="2">
-        <v>24833</v>
-      </c>
-      <c r="B566" s="2">
-        <v>6.7900000000000002E-4</v>
-      </c>
-      <c r="C566" s="2">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="D566" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A567" s="2">
-        <v>28526</v>
-      </c>
-      <c r="B567" s="2">
-        <v>7.7899999999999996E-4</v>
-      </c>
-      <c r="C567" s="2">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="D567" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A568" s="2">
-        <v>32768</v>
-      </c>
-      <c r="B568" s="2">
-        <v>1.358E-3</v>
-      </c>
-      <c r="C568" s="2">
-        <v>1.8E-5</v>
-      </c>
-      <c r="D568" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A569" s="2">
-        <v>37640</v>
-      </c>
-      <c r="B569" s="2">
-        <v>1.0430000000000001E-3</v>
-      </c>
-      <c r="C569" s="2">
-        <v>2.6999999999999999E-5</v>
-      </c>
-      <c r="D569" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A570" s="2">
-        <v>43237</v>
-      </c>
-      <c r="B570" s="2">
-        <v>1.24E-3</v>
-      </c>
-      <c r="C570" s="2">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="D570" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A571" s="2">
-        <v>49667</v>
-      </c>
-      <c r="B571" s="2">
-        <v>1.4159999999999999E-3</v>
-      </c>
-      <c r="C571" s="2">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="D571" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A572" s="2">
-        <v>57052</v>
-      </c>
-      <c r="B572" s="2">
-        <v>1.5770000000000001E-3</v>
-      </c>
-      <c r="C572" s="2">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="D572" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A573" s="2">
-        <v>65536</v>
-      </c>
-      <c r="B573" s="2">
-        <v>1.903E-3</v>
-      </c>
-      <c r="C573" s="2">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="D573" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A574" s="2">
-        <v>75281</v>
-      </c>
-      <c r="B574" s="2">
-        <v>2.1640000000000001E-3</v>
-      </c>
-      <c r="C574" s="2">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="D574" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A575" s="2">
-        <v>86475</v>
-      </c>
-      <c r="B575" s="2">
-        <v>2.4940000000000001E-3</v>
-      </c>
-      <c r="C575" s="2">
-        <v>1.1E-5</v>
-      </c>
-      <c r="D575" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A576" s="2">
-        <v>99334</v>
-      </c>
-      <c r="B576" s="2">
-        <v>2.8579999999999999E-3</v>
-      </c>
-      <c r="C576" s="2">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="D576" s="2" t="s">
+      <c r="D576" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A577" s="2">
+      <c r="A577" s="3">
         <v>114104</v>
       </c>
-      <c r="B577" s="2">
-        <v>3.3249999999999998E-3</v>
-      </c>
-      <c r="C577" s="2">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="D577" s="2" t="s">
+      <c r="B577" s="3">
+        <v>1.5870000000000001E-3</v>
+      </c>
+      <c r="C577" s="3">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="D577" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A578" s="2">
+      <c r="A578" s="3">
         <v>131072</v>
       </c>
-      <c r="B578" s="2">
-        <v>5.8149999999999999E-3</v>
-      </c>
-      <c r="C578" s="2">
-        <v>6.2000000000000003E-5</v>
-      </c>
-      <c r="D578" s="2" t="s">
+      <c r="B578" s="3">
+        <v>1.725E-3</v>
+      </c>
+      <c r="C578" s="3">
+        <v>1.26E-4</v>
+      </c>
+      <c r="D578" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A579" s="2">
+      <c r="A579" s="3">
         <v>150562</v>
       </c>
-      <c r="B579" s="2">
-        <v>4.2529999999999998E-3</v>
-      </c>
-      <c r="C579" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D579" s="2" t="s">
+      <c r="B579" s="3">
+        <v>1.9870000000000001E-3</v>
+      </c>
+      <c r="C579" s="3">
+        <v>9.8999999999999994E-5</v>
+      </c>
+      <c r="D579" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A580" s="2">
+      <c r="A580" s="3">
         <v>172950</v>
       </c>
-      <c r="B580" s="2">
-        <v>5.0809999999999996E-3</v>
-      </c>
-      <c r="C580" s="2">
-        <v>8.7000000000000001E-5</v>
-      </c>
-      <c r="D580" s="2" t="s">
+      <c r="B580" s="3">
+        <v>2.1159999999999998E-3</v>
+      </c>
+      <c r="C580" s="3">
+        <v>4.1E-5</v>
+      </c>
+      <c r="D580" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A581" s="2">
+      <c r="A581" s="3">
         <v>198668</v>
       </c>
-      <c r="B581" s="2">
-        <v>5.692E-3</v>
-      </c>
-      <c r="C581" s="2">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="D581" s="2" t="s">
+      <c r="B581" s="3">
+        <v>2.2520000000000001E-3</v>
+      </c>
+      <c r="C581" s="3">
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="D581" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A582" s="2">
+      <c r="A582" s="3">
         <v>228209</v>
       </c>
-      <c r="B582" s="2">
-        <v>6.5519999999999997E-3</v>
-      </c>
-      <c r="C582" s="2">
-        <v>9.7E-5</v>
-      </c>
-      <c r="D582" s="2" t="s">
+      <c r="B582" s="3">
+        <v>2.5530000000000001E-3</v>
+      </c>
+      <c r="C582" s="3">
+        <v>8.2000000000000001E-5</v>
+      </c>
+      <c r="D582" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A583" s="2">
+      <c r="A583" s="3">
         <v>262144</v>
       </c>
-      <c r="B583" s="2">
-        <v>1.2005E-2</v>
-      </c>
-      <c r="C583" s="2">
-        <v>1.4799999999999999E-4</v>
-      </c>
-      <c r="D583" s="2" t="s">
+      <c r="B583" s="3">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="C583" s="3">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="D583" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A584" s="2">
+      <c r="A584" s="3">
         <v>301124</v>
       </c>
-      <c r="B584" s="2">
-        <v>1.3677999999999999E-2</v>
-      </c>
-      <c r="C584" s="2">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="D584" s="2" t="s">
+      <c r="B584" s="3">
+        <v>3.5460000000000001E-3</v>
+      </c>
+      <c r="C584" s="3">
+        <v>9.2999999999999997E-5</v>
+      </c>
+      <c r="D584" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A585" s="2">
+      <c r="A585" s="3">
         <v>345901</v>
       </c>
-      <c r="B585" s="2">
-        <v>1.5921999999999999E-2</v>
-      </c>
-      <c r="C585" s="2">
-        <v>9.1000000000000003E-5</v>
-      </c>
-      <c r="D585" s="2" t="s">
+      <c r="B585" s="3">
+        <v>4.1739999999999998E-3</v>
+      </c>
+      <c r="C585" s="3">
+        <v>2.6499999999999999E-4</v>
+      </c>
+      <c r="D585" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A586" s="2">
+      <c r="A586" s="3">
         <v>397336</v>
       </c>
-      <c r="B586" s="2">
-        <v>3.7475000000000001E-2</v>
-      </c>
-      <c r="C586" s="2">
-        <v>2.0840999999999998E-2</v>
-      </c>
-      <c r="D586" s="2" t="s">
+      <c r="B586" s="3">
+        <v>4.5909999999999996E-3</v>
+      </c>
+      <c r="C586" s="3">
+        <v>4.6E-5</v>
+      </c>
+      <c r="D586" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A587" s="2">
+      <c r="A587" s="3">
         <v>456419</v>
       </c>
-      <c r="B587" s="2">
-        <v>2.1080999999999999E-2</v>
-      </c>
-      <c r="C587" s="2">
-        <v>5.1999999999999997E-5</v>
-      </c>
-      <c r="D587" s="2" t="s">
+      <c r="B587" s="3">
+        <v>5.8900000000000003E-3</v>
+      </c>
+      <c r="C587" s="3">
+        <v>5.71E-4</v>
+      </c>
+      <c r="D587" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A588" s="2">
+      <c r="A588" s="3">
         <v>524288</v>
       </c>
-      <c r="B588" s="2">
-        <v>2.4527E-2</v>
-      </c>
-      <c r="C588" s="2">
-        <v>2.24E-4</v>
-      </c>
-      <c r="D588" s="2" t="s">
+      <c r="B588" s="3">
+        <v>6.5199999999999998E-3</v>
+      </c>
+      <c r="C588" s="3">
+        <v>4.4499999999999997E-4</v>
+      </c>
+      <c r="D588" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A589" s="2">
+      <c r="A589" s="3">
         <v>602248</v>
       </c>
-      <c r="B589" s="2">
-        <v>2.8256E-2</v>
-      </c>
-      <c r="C589" s="2">
-        <v>9.8999999999999994E-5</v>
-      </c>
-      <c r="D589" s="2" t="s">
+      <c r="B589" s="3">
+        <v>7.3720000000000001E-3</v>
+      </c>
+      <c r="C589" s="3">
+        <v>3.86E-4</v>
+      </c>
+      <c r="D589" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A590" s="2">
+      <c r="A590" s="3">
         <v>691802</v>
       </c>
-      <c r="B590" s="2">
-        <v>3.2579999999999998E-2</v>
-      </c>
-      <c r="C590" s="2">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="D590" s="2" t="s">
+      <c r="B590" s="3">
+        <v>8.6400000000000001E-3</v>
+      </c>
+      <c r="C590" s="3">
+        <v>3.88E-4</v>
+      </c>
+      <c r="D590" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A591" s="2">
+      <c r="A591" s="3">
         <v>794672</v>
       </c>
-      <c r="B591" s="2">
-        <v>3.7561999999999998E-2</v>
-      </c>
-      <c r="C591" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D591" s="2" t="s">
+      <c r="B591" s="3">
+        <v>8.7539999999999996E-3</v>
+      </c>
+      <c r="C591" s="3">
+        <v>2.92E-4</v>
+      </c>
+      <c r="D591" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A592" s="2">
+      <c r="A592" s="3">
         <v>912838</v>
       </c>
-      <c r="B592" s="2">
-        <v>4.3114E-2</v>
-      </c>
-      <c r="C592" s="2">
-        <v>1.05E-4</v>
-      </c>
-      <c r="D592" s="2" t="s">
+      <c r="B592" s="3">
+        <v>1.1537E-2</v>
+      </c>
+      <c r="C592" s="3">
+        <v>2.9500000000000001E-4</v>
+      </c>
+      <c r="D592" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A593" s="2">
+      <c r="A593" s="3">
         <v>1048576</v>
       </c>
-      <c r="B593" s="2">
-        <v>4.9361000000000002E-2</v>
-      </c>
-      <c r="C593" s="2">
-        <v>5.8999999999999998E-5</v>
-      </c>
-      <c r="D593" s="2" t="s">
+      <c r="B593" s="3">
+        <v>1.2666999999999999E-2</v>
+      </c>
+      <c r="C593" s="3">
+        <v>7.8200000000000003E-4</v>
+      </c>
+      <c r="D593" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A594" s="2">
+      <c r="A594" s="3">
         <v>1204497</v>
       </c>
-      <c r="B594" s="2">
-        <v>5.6550999999999997E-2</v>
-      </c>
-      <c r="C594" s="2">
-        <v>2.4000000000000001E-5</v>
-      </c>
-      <c r="D594" s="2" t="s">
+      <c r="B594" s="3">
+        <v>1.4198000000000001E-2</v>
+      </c>
+      <c r="C594" s="3">
+        <v>1.1019999999999999E-3</v>
+      </c>
+      <c r="D594" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A595" s="2">
+      <c r="A595" s="3">
         <v>1383604</v>
       </c>
-      <c r="B595" s="2">
-        <v>6.5396999999999997E-2</v>
-      </c>
-      <c r="C595" s="2">
-        <v>5.0900000000000001E-4</v>
-      </c>
-      <c r="D595" s="2" t="s">
+      <c r="B595" s="3">
+        <v>1.5594999999999999E-2</v>
+      </c>
+      <c r="C595" s="3">
+        <v>4.0900000000000002E-4</v>
+      </c>
+      <c r="D595" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A596" s="2">
+      <c r="A596" s="3">
         <v>1589344</v>
       </c>
-      <c r="B596" s="2">
-        <v>7.5068999999999997E-2</v>
-      </c>
-      <c r="C596" s="2">
-        <v>3.1199999999999999E-4</v>
-      </c>
-      <c r="D596" s="2" t="s">
+      <c r="B596" s="3">
+        <v>1.9210999999999999E-2</v>
+      </c>
+      <c r="C596" s="3">
+        <v>8.7200000000000005E-4</v>
+      </c>
+      <c r="D596" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A597" s="2">
+      <c r="A597" s="3">
         <v>1825676</v>
       </c>
-      <c r="B597" s="2">
-        <v>8.5943000000000006E-2</v>
-      </c>
-      <c r="C597" s="2">
-        <v>5.3000000000000001E-5</v>
-      </c>
-      <c r="D597" s="2" t="s">
+      <c r="B597" s="3">
+        <v>2.1918E-2</v>
+      </c>
+      <c r="C597" s="3">
+        <v>2.9500000000000001E-4</v>
+      </c>
+      <c r="D597" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A598" s="2">
+      <c r="A598" s="3">
         <v>2097152</v>
       </c>
-      <c r="B598" s="2">
-        <v>9.9014000000000005E-2</v>
-      </c>
-      <c r="C598" s="2">
-        <v>1.9100000000000001E-4</v>
-      </c>
-      <c r="D598" s="2" t="s">
+      <c r="B598" s="3">
+        <v>2.2790999999999999E-2</v>
+      </c>
+      <c r="C598" s="3">
+        <v>7.2900000000000005E-4</v>
+      </c>
+      <c r="D598" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A599" s="2">
+      <c r="A599" s="3">
         <v>2408995</v>
       </c>
-      <c r="B599" s="2">
-        <v>0.113229</v>
-      </c>
-      <c r="C599" s="2">
-        <v>5.5000000000000002E-5</v>
-      </c>
-      <c r="D599" s="2" t="s">
+      <c r="B599" s="3">
+        <v>2.6418000000000001E-2</v>
+      </c>
+      <c r="C599" s="3">
+        <v>1.1739999999999999E-3</v>
+      </c>
+      <c r="D599" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A600" s="2">
+      <c r="A600" s="3">
         <v>2767208</v>
       </c>
-      <c r="B600" s="2">
-        <v>0.13056100000000001</v>
-      </c>
-      <c r="C600" s="2">
-        <v>5.1500000000000005E-4</v>
-      </c>
-      <c r="D600" s="2" t="s">
+      <c r="B600" s="3">
+        <v>3.1821000000000002E-2</v>
+      </c>
+      <c r="C600" s="3">
+        <v>1.0250000000000001E-3</v>
+      </c>
+      <c r="D600" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A601" s="2">
+      <c r="A601" s="3">
         <v>3178688</v>
       </c>
-      <c r="B601" s="2">
-        <v>0.147786</v>
-      </c>
-      <c r="C601" s="2">
-        <v>2.9069999999999999E-3</v>
-      </c>
-      <c r="D601" s="2" t="s">
+      <c r="B601" s="3">
+        <v>3.7478999999999998E-2</v>
+      </c>
+      <c r="C601" s="3">
+        <v>7.9900000000000001E-4</v>
+      </c>
+      <c r="D601" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A602" s="2">
+      <c r="A602" s="3">
         <v>3651353</v>
       </c>
-      <c r="B602" s="2">
-        <v>0.18223</v>
-      </c>
-      <c r="C602" s="2">
-        <v>9.2779999999999998E-3</v>
-      </c>
-      <c r="D602" s="2" t="s">
+      <c r="B602" s="3">
+        <v>4.0847000000000001E-2</v>
+      </c>
+      <c r="C602" s="3">
+        <v>2.3570000000000002E-3</v>
+      </c>
+      <c r="D602" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A603" s="2">
+      <c r="A603" s="3">
         <v>4194304</v>
       </c>
-      <c r="B603" s="2">
-        <v>0.19558700000000001</v>
-      </c>
-      <c r="C603" s="2">
-        <v>2.0699999999999998E-3</v>
-      </c>
-      <c r="D603" s="2" t="s">
+      <c r="B603" s="3">
+        <v>4.9509999999999998E-2</v>
+      </c>
+      <c r="C603" s="3">
+        <v>2.3370000000000001E-3</v>
+      </c>
+      <c r="D603" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A604" s="2">
+      <c r="A604" s="3">
         <v>4817990</v>
       </c>
-      <c r="B604" s="2">
-        <v>0.22920099999999999</v>
-      </c>
-      <c r="C604" s="2">
-        <v>1.503E-3</v>
-      </c>
-      <c r="D604" s="2" t="s">
+      <c r="B604" s="3">
+        <v>5.3032999999999997E-2</v>
+      </c>
+      <c r="C604" s="3">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="D604" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A605" s="2">
+      <c r="A605" s="3">
         <v>5534417</v>
       </c>
-      <c r="B605" s="2">
-        <v>0.26041399999999998</v>
-      </c>
-      <c r="C605" s="2">
-        <v>9.4300000000000004E-4</v>
-      </c>
-      <c r="D605" s="2" t="s">
+      <c r="B605" s="3">
+        <v>6.1538000000000002E-2</v>
+      </c>
+      <c r="C605" s="3">
+        <v>3.669E-3</v>
+      </c>
+      <c r="D605" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A606" s="2">
+      <c r="A606" s="3">
         <v>6357376</v>
       </c>
-      <c r="B606" s="2">
-        <v>0.29972799999999999</v>
-      </c>
-      <c r="C606" s="2">
-        <v>3.4400000000000001E-4</v>
-      </c>
-      <c r="D606" s="2" t="s">
+      <c r="B606" s="3">
+        <v>7.3428999999999994E-2</v>
+      </c>
+      <c r="C606" s="3">
+        <v>2.5230000000000001E-3</v>
+      </c>
+      <c r="D606" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A607" s="2">
+      <c r="A607" s="3">
         <v>7302707</v>
       </c>
-      <c r="B607" s="2">
-        <v>0.34397899999999998</v>
-      </c>
-      <c r="C607" s="2">
-        <v>1.041E-3</v>
-      </c>
-      <c r="D607" s="2" t="s">
+      <c r="B607" s="3">
+        <v>8.3113999999999993E-2</v>
+      </c>
+      <c r="C607" s="3">
+        <v>4.3909999999999999E-3</v>
+      </c>
+      <c r="D607" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A608" s="2">
+      <c r="A608" s="3">
         <v>8388608</v>
       </c>
-      <c r="B608" s="2">
-        <v>0.39508900000000002</v>
-      </c>
-      <c r="C608" s="2">
-        <v>4.5800000000000002E-4</v>
-      </c>
-      <c r="D608" s="2" t="s">
+      <c r="B608" s="3">
+        <v>9.4964999999999994E-2</v>
+      </c>
+      <c r="C608" s="3">
+        <v>1.5629999999999999E-3</v>
+      </c>
+      <c r="D608" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A609" s="2">
+      <c r="A609" s="3">
         <v>9635980</v>
       </c>
-      <c r="B609" s="2">
-        <v>0.455596</v>
-      </c>
-      <c r="C609" s="2">
-        <v>1.7290000000000001E-3</v>
-      </c>
-      <c r="D609" s="2" t="s">
+      <c r="B609" s="3">
+        <v>0.112217</v>
+      </c>
+      <c r="C609" s="3">
+        <v>1.526E-3</v>
+      </c>
+      <c r="D609" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A610" s="2">
+      <c r="A610" s="3">
         <v>11068834</v>
       </c>
-      <c r="B610" s="2">
-        <v>0.53655699999999995</v>
-      </c>
-      <c r="C610" s="2">
-        <v>2.0745E-2</v>
-      </c>
-      <c r="D610" s="2" t="s">
+      <c r="B610" s="3">
+        <v>0.127195</v>
+      </c>
+      <c r="C610" s="3">
+        <v>3.0959999999999998E-3</v>
+      </c>
+      <c r="D610" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A611" s="2">
+      <c r="A611" s="3">
         <v>12714752</v>
       </c>
-      <c r="B611" s="2">
-        <v>0.60335300000000003</v>
-      </c>
-      <c r="C611" s="2">
-        <v>5.8599999999999998E-3</v>
-      </c>
-      <c r="D611" s="2" t="s">
+      <c r="B611" s="3">
+        <v>0.14125599999999999</v>
+      </c>
+      <c r="C611" s="3">
+        <v>1.3090000000000001E-3</v>
+      </c>
+      <c r="D611" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A612" s="2">
+      <c r="A612" s="3">
         <v>14605414</v>
       </c>
-      <c r="B612" s="2">
-        <v>0.69625499999999996</v>
-      </c>
-      <c r="C612" s="2">
-        <v>7.5989999999999999E-3</v>
-      </c>
-      <c r="D612" s="2" t="s">
+      <c r="B612" s="3">
+        <v>0.16605700000000001</v>
+      </c>
+      <c r="C612" s="3">
+        <v>3.251E-3</v>
+      </c>
+      <c r="D612" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A613" s="2">
+      <c r="A613" s="3">
         <v>16777216</v>
       </c>
-      <c r="B613" s="2">
-        <v>0.79044199999999998</v>
-      </c>
-      <c r="C613" s="2">
-        <v>1.274E-3</v>
-      </c>
-      <c r="D613" s="2" t="s">
+      <c r="B613" s="3">
+        <v>0.18824199999999999</v>
+      </c>
+      <c r="C613" s="3">
+        <v>5.0930000000000003E-3</v>
+      </c>
+      <c r="D613" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E613" s="2"/>
@@ -16456,16 +16456,16 @@
       <c r="J613" s="2"/>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A614" s="2">
+      <c r="A614" s="3">
         <v>19271960</v>
       </c>
-      <c r="B614" s="2">
-        <v>0.90446499999999996</v>
-      </c>
-      <c r="C614" s="2">
-        <v>1.3290000000000001E-3</v>
-      </c>
-      <c r="D614" s="2" t="s">
+      <c r="B614" s="3">
+        <v>0.21906400000000001</v>
+      </c>
+      <c r="C614" s="3">
+        <v>8.7500000000000002E-4</v>
+      </c>
+      <c r="D614" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E614" s="2"/>
@@ -16476,16 +16476,16 @@
       <c r="J614" s="2"/>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A615" s="2">
+      <c r="A615" s="3">
         <v>22137669</v>
       </c>
-      <c r="B615" s="2">
-        <v>1.0429489999999999</v>
-      </c>
-      <c r="C615" s="2">
-        <v>1.392E-3</v>
-      </c>
-      <c r="D615" s="2" t="s">
+      <c r="B615" s="3">
+        <v>0.24989900000000001</v>
+      </c>
+      <c r="C615" s="3">
+        <v>7.9570000000000005E-3</v>
+      </c>
+      <c r="D615" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E615" s="2"/>
@@ -16496,16 +16496,16 @@
       <c r="J615" s="2"/>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A616" s="2">
+      <c r="A616" s="3">
         <v>25429504</v>
       </c>
-      <c r="B616" s="2">
-        <v>1.2029319999999999</v>
-      </c>
-      <c r="C616" s="2">
-        <v>5.973E-3</v>
-      </c>
-      <c r="D616" s="2" t="s">
+      <c r="B616" s="3">
+        <v>0.284721</v>
+      </c>
+      <c r="C616" s="3">
+        <v>4.7369999999999999E-3</v>
+      </c>
+      <c r="D616" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E616" s="2"/>
@@ -16516,16 +16516,16 @@
       <c r="J616" s="2"/>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A617" s="2">
+      <c r="A617" s="3">
         <v>29210829</v>
       </c>
-      <c r="B617" s="2">
-        <v>1.380196</v>
-      </c>
-      <c r="C617" s="2">
-        <v>1.2722000000000001E-2</v>
-      </c>
-      <c r="D617" s="2" t="s">
+      <c r="B617" s="3">
+        <v>0.337447</v>
+      </c>
+      <c r="C617" s="3">
+        <v>1.1820000000000001E-3</v>
+      </c>
+      <c r="D617" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E617" s="2"/>
@@ -16536,16 +16536,16 @@
       <c r="J617" s="2"/>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A618" s="2">
+      <c r="A618" s="3">
         <v>33554432</v>
       </c>
-      <c r="B618" s="2">
-        <v>1.5800670000000001</v>
-      </c>
-      <c r="C618" s="2">
-        <v>1.836E-3</v>
-      </c>
-      <c r="D618" s="2" t="s">
+      <c r="B618" s="3">
+        <v>0.37368200000000001</v>
+      </c>
+      <c r="C618" s="3">
+        <v>8.4620000000000008E-3</v>
+      </c>
+      <c r="D618" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E618" s="2"/>
@@ -16556,16 +16556,16 @@
       <c r="J618" s="2"/>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A619" s="2">
+      <c r="A619" s="3">
         <v>38543920</v>
       </c>
-      <c r="B619" s="2">
-        <v>1.7915019999999999</v>
-      </c>
-      <c r="C619" s="2">
-        <v>2.147E-2</v>
-      </c>
-      <c r="D619" s="2" t="s">
+      <c r="B619" s="3">
+        <v>0.433394</v>
+      </c>
+      <c r="C619" s="3">
+        <v>1.348E-3</v>
+      </c>
+      <c r="D619" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E619" s="2"/>
@@ -16576,16 +16576,16 @@
       <c r="J619" s="2"/>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A620" s="2">
+      <c r="A620" s="3">
         <v>44275338</v>
       </c>
-      <c r="B620" s="2">
-        <v>2.0897209999999999</v>
-      </c>
-      <c r="C620" s="2">
-        <v>4.7219999999999996E-3</v>
-      </c>
-      <c r="D620" s="2" t="s">
+      <c r="B620" s="3">
+        <v>0.51137600000000005</v>
+      </c>
+      <c r="C620" s="3">
+        <v>2.4066000000000001E-2</v>
+      </c>
+      <c r="D620" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E620" s="2"/>
@@ -16596,16 +16596,16 @@
       <c r="J620" s="2"/>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A621" s="2">
+      <c r="A621" s="3">
         <v>50859008</v>
       </c>
-      <c r="B621" s="2">
-        <v>2.4215450000000001</v>
-      </c>
-      <c r="C621" s="2">
-        <v>1.8505000000000001E-2</v>
-      </c>
-      <c r="D621" s="2" t="s">
+      <c r="B621" s="3">
+        <v>0.56406400000000001</v>
+      </c>
+      <c r="C621" s="3">
+        <v>1.2056000000000001E-2</v>
+      </c>
+      <c r="D621" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E621" s="2"/>
@@ -16616,16 +16616,16 @@
       <c r="J621" s="2"/>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A622" s="2">
+      <c r="A622" s="3">
         <v>58421659</v>
       </c>
-      <c r="B622" s="2">
-        <v>2.766534</v>
-      </c>
-      <c r="C622" s="2">
-        <v>8.7799999999999996E-3</v>
-      </c>
-      <c r="D622" s="2" t="s">
+      <c r="B622" s="3">
+        <v>0.66171899999999995</v>
+      </c>
+      <c r="C622" s="3">
+        <v>8.4690000000000008E-3</v>
+      </c>
+      <c r="D622" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E622" s="2"/>
@@ -16636,16 +16636,16 @@
       <c r="J622" s="2"/>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A623" s="2">
+      <c r="A623" s="3">
         <v>67108864</v>
       </c>
-      <c r="B623" s="2">
-        <v>3.1063269999999998</v>
-      </c>
-      <c r="C623" s="2">
-        <v>8.1033999999999995E-2</v>
-      </c>
-      <c r="D623" s="2" t="s">
+      <c r="B623" s="3">
+        <v>0.76144999999999996</v>
+      </c>
+      <c r="C623" s="3">
+        <v>1.3226999999999999E-2</v>
+      </c>
+      <c r="D623" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E623" s="2"/>

--- a/results/2013_08_15_sort_high_res.xlsx
+++ b/results/2013_08_15_sort_high_res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="27">
   <si>
     <t>Runner built on Jul 21 2013 02:44:35</t>
   </si>
@@ -94,7 +94,7 @@
     <t>Radix sort local (THESIS AMD dixxi)</t>
   </si>
   <si>
-    <t>Total runtime 27min 57s 162ms</t>
+    <t>Radix sort local vec (THESIS AMD dixxi)</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7545,6 +7546,769 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stats!$A$1129:$B$1129</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radix sort local vec (THESIS AMD dixxi) OpenCL GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>stats!$A$1132:$A$1252</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2352</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3104</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3565</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4705</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5404</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7131</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9410</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10809</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12416</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14263</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18820</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>21618</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>24833</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28526</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>37640</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43237</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>49667</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>57052</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>75281</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>86475</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>99334</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>114104</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>150562</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>172950</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>198668</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>228209</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>301124</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>345901</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>397336</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>456419</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>602248</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>691802</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>794672</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>912838</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1204497</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1383604</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1589344</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1825676</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2408995</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2767208</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3178688</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3651353</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4817990</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5534417</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6357376</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7302707</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9635980</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11068834</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>12714752</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14605414</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>19271960</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22137669</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>25429504</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>29210829</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>38543920</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44275338</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>50859008</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>58421659</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>67108864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>stats!$I$1132:$I$1252</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>6.3930000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9909999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1219999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5690000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5690000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1890000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4549999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.744E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8390000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5290000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0720000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0369999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8129999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.731E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7889999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6499999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6299999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5040000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8700000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4140000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5129999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.457E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1399999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4279999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6899999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.4819999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.1219999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.8570000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6979999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.1469999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.855E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4339999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.6639999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.6959999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.5269999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.6059999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.0520000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.0639999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.8630000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.4660000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7699999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.5120000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.7400000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.6340000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4409999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.8199999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4349999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.1089999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.2399999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.6579999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.5230000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0930000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.4070000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.4869999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3379999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.1749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.9659999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.6730000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.3860000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.5979999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.1700000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.4840000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.9769999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.4599999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.6889999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.6049999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.1679999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.8719999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.4070000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.1040000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.1859999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.1510000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.6480000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.3330000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5259999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.8789999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0444999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.1001E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.089E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.1143E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.4154999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5313999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.7204000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8034000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9841000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.3942999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.6058999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.8244999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.1587999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.5349999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.1377999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.6786000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.1434000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.0414000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.5599000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.5936000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.591E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.9623000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.112918</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.127582</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.14842900000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.16816800000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.19503200000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.22329399999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.25682100000000002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.29662899999999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.33914299999999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.38895099999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.44506000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.51392400000000005</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.588117</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.67390000000000005</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.77773899999999996</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.89144900000000005</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.0191159999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1738139999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.347224</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.54203</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.7677419999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.0352649999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -7553,11 +8317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="39636352"/>
-        <c:axId val="39634624"/>
+        <c:axId val="71569344"/>
+        <c:axId val="71569920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39636352"/>
+        <c:axId val="71569344"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7594,12 +8358,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39634624"/>
+        <c:crossAx val="71569920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39634624"/>
+        <c:axId val="71569920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7630,7 +8394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39636352"/>
+        <c:crossAx val="71569344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7974,10 +8738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1130"/>
+  <dimension ref="A1:O1253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K510" sqref="K510"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32415,19 +33179,3958 @@
       <c r="I1127" s="3"/>
       <c r="J1127" s="3"/>
     </row>
+    <row r="1129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1129" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1129" s="4"/>
+      <c r="D1129" s="4"/>
+      <c r="E1129" s="4"/>
+      <c r="F1129" s="4"/>
+      <c r="G1129" s="4"/>
+      <c r="H1129" s="4"/>
+      <c r="I1129" s="4"/>
+      <c r="J1129" s="4"/>
+    </row>
     <row r="1130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1130" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1130" s="3"/>
-      <c r="C1130" s="3"/>
-      <c r="D1130" s="3"/>
-      <c r="E1130" s="3"/>
-      <c r="F1130" s="3"/>
-      <c r="G1130" s="3"/>
-      <c r="H1130" s="3"/>
-      <c r="I1130" s="3"/>
-      <c r="J1130" s="3"/>
+      <c r="A1130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1130" s="4">
+        <v>0.19917399999999999</v>
+      </c>
+      <c r="C1130" s="4"/>
+      <c r="D1130" s="4"/>
+      <c r="E1130" s="4"/>
+      <c r="F1130" s="4"/>
+      <c r="G1130" s="4"/>
+      <c r="H1130" s="4"/>
+      <c r="I1130" s="4"/>
+      <c r="J1130" s="4"/>
+    </row>
+    <row r="1131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1131" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1131" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1131" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1131" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1131" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1131" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1131" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1131" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1131" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1131" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1132" s="4">
+        <v>2</v>
+      </c>
+      <c r="B1132" s="4">
+        <v>1.235E-3</v>
+      </c>
+      <c r="C1132" s="4">
+        <v>1.1659999999999999E-3</v>
+      </c>
+      <c r="D1132" s="4">
+        <v>4.8780000000000004E-3</v>
+      </c>
+      <c r="E1132" s="4">
+        <v>2.0709999999999999E-3</v>
+      </c>
+      <c r="F1132" s="4">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="G1132" s="4">
+        <v>1.45E-4</v>
+      </c>
+      <c r="H1132" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1132" s="4">
+        <v>6.3930000000000002E-3</v>
+      </c>
+      <c r="J1132" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1133" s="4">
+        <v>3</v>
+      </c>
+      <c r="B1133" s="4">
+        <v>3.8400000000000001E-4</v>
+      </c>
+      <c r="C1133" s="4">
+        <v>5.7000000000000003E-5</v>
+      </c>
+      <c r="D1133" s="4">
+        <v>4.4130000000000003E-3</v>
+      </c>
+      <c r="E1133" s="4">
+        <v>1.343E-3</v>
+      </c>
+      <c r="F1133" s="4">
+        <v>1.94E-4</v>
+      </c>
+      <c r="G1133" s="4">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="H1133" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1133" s="4">
+        <v>4.9909999999999998E-3</v>
+      </c>
+      <c r="J1133" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1134" s="4">
+        <v>4</v>
+      </c>
+      <c r="B1134" s="4">
+        <v>6.3699999999999998E-4</v>
+      </c>
+      <c r="C1134" s="4">
+        <v>1.55E-4</v>
+      </c>
+      <c r="D1134" s="4">
+        <v>4.0489999999999996E-3</v>
+      </c>
+      <c r="E1134" s="4">
+        <v>4.6700000000000002E-4</v>
+      </c>
+      <c r="F1134" s="4">
+        <v>4.35E-4</v>
+      </c>
+      <c r="G1134" s="4">
+        <v>6.7999999999999999E-5</v>
+      </c>
+      <c r="H1134" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1134" s="4">
+        <v>5.1219999999999998E-3</v>
+      </c>
+      <c r="J1134" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1135" s="4">
+        <v>5</v>
+      </c>
+      <c r="B1135" s="4">
+        <v>4.73E-4</v>
+      </c>
+      <c r="C1135" s="4">
+        <v>1.21E-4</v>
+      </c>
+      <c r="D1135" s="4">
+        <v>4.5950000000000001E-3</v>
+      </c>
+      <c r="E1135" s="4">
+        <v>1.291E-3</v>
+      </c>
+      <c r="F1135" s="4">
+        <v>5.0100000000000003E-4</v>
+      </c>
+      <c r="G1135" s="4">
+        <v>1.1E-4</v>
+      </c>
+      <c r="H1135" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1135" s="4">
+        <v>5.5690000000000002E-3</v>
+      </c>
+      <c r="J1135" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1136" s="4">
+        <v>6</v>
+      </c>
+      <c r="B1136" s="4">
+        <v>1.4350000000000001E-3</v>
+      </c>
+      <c r="C1136" s="4">
+        <v>8.9400000000000005E-4</v>
+      </c>
+      <c r="D1136" s="4">
+        <v>3.676E-3</v>
+      </c>
+      <c r="E1136" s="4">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="F1136" s="4">
+        <v>4.5899999999999999E-4</v>
+      </c>
+      <c r="G1136" s="4">
+        <v>2.1100000000000001E-4</v>
+      </c>
+      <c r="H1136" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1136" s="4">
+        <v>5.5690000000000002E-3</v>
+      </c>
+      <c r="J1136" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1137" s="4">
+        <v>8</v>
+      </c>
+      <c r="B1137" s="4">
+        <v>1.702E-3</v>
+      </c>
+      <c r="C1137" s="4">
+        <v>1.531E-3</v>
+      </c>
+      <c r="D1137" s="4">
+        <v>4.0109999999999998E-3</v>
+      </c>
+      <c r="E1137" s="4">
+        <v>2.4499999999999999E-4</v>
+      </c>
+      <c r="F1137" s="4">
+        <v>4.7600000000000002E-4</v>
+      </c>
+      <c r="G1137" s="4">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="H1137" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1137" s="4">
+        <v>6.1890000000000001E-3</v>
+      </c>
+      <c r="J1137" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1138" s="4">
+        <v>9</v>
+      </c>
+      <c r="B1138" s="4">
+        <v>6.0700000000000001E-4</v>
+      </c>
+      <c r="C1138" s="4">
+        <v>1.02E-4</v>
+      </c>
+      <c r="D1138" s="4">
+        <v>4.3140000000000001E-3</v>
+      </c>
+      <c r="E1138" s="4">
+        <v>8.6700000000000004E-4</v>
+      </c>
+      <c r="F1138" s="4">
+        <v>5.3399999999999997E-4</v>
+      </c>
+      <c r="G1138" s="4">
+        <v>8.8999999999999995E-5</v>
+      </c>
+      <c r="H1138" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1138" s="4">
+        <v>5.4549999999999998E-3</v>
+      </c>
+      <c r="J1138" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1139" s="4">
+        <v>10</v>
+      </c>
+      <c r="B1139" s="4">
+        <v>5.7700000000000004E-4</v>
+      </c>
+      <c r="C1139" s="4">
+        <v>2.6899999999999998E-4</v>
+      </c>
+      <c r="D1139" s="4">
+        <v>4.8300000000000001E-3</v>
+      </c>
+      <c r="E1139" s="4">
+        <v>1.804E-3</v>
+      </c>
+      <c r="F1139" s="4">
+        <v>3.3599999999999998E-4</v>
+      </c>
+      <c r="G1139" s="4">
+        <v>1.8799999999999999E-4</v>
+      </c>
+      <c r="H1139" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1139" s="4">
+        <v>5.744E-3</v>
+      </c>
+      <c r="J1139" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1140" s="4">
+        <v>12</v>
+      </c>
+      <c r="B1140" s="4">
+        <v>6.2E-4</v>
+      </c>
+      <c r="C1140" s="4">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="D1140" s="4">
+        <v>3.715E-3</v>
+      </c>
+      <c r="E1140" s="4">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="F1140" s="4">
+        <v>5.04E-4</v>
+      </c>
+      <c r="G1140" s="4">
+        <v>1.07E-4</v>
+      </c>
+      <c r="H1140" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1140" s="4">
+        <v>4.8390000000000004E-3</v>
+      </c>
+      <c r="J1140" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1141" s="4">
+        <v>13</v>
+      </c>
+      <c r="B1141" s="4">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="C1141" s="4">
+        <v>1.6799999999999999E-4</v>
+      </c>
+      <c r="D1141" s="4">
+        <v>4.2919999999999998E-3</v>
+      </c>
+      <c r="E1141" s="4">
+        <v>6.3900000000000003E-4</v>
+      </c>
+      <c r="F1141" s="4">
+        <v>5.1699999999999999E-4</v>
+      </c>
+      <c r="G1141" s="4">
+        <v>8.8999999999999995E-5</v>
+      </c>
+      <c r="H1141" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1141" s="4">
+        <v>5.5290000000000001E-3</v>
+      </c>
+      <c r="J1141" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1142" s="4">
+        <v>16</v>
+      </c>
+      <c r="B1142" s="4">
+        <v>5.5400000000000002E-4</v>
+      </c>
+      <c r="C1142" s="4">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="D1142" s="4">
+        <v>5.2129999999999998E-3</v>
+      </c>
+      <c r="E1142" s="4">
+        <v>2.3939999999999999E-3</v>
+      </c>
+      <c r="F1142" s="4">
+        <v>3.0400000000000002E-4</v>
+      </c>
+      <c r="G1142" s="4">
+        <v>1.17E-4</v>
+      </c>
+      <c r="H1142" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1142" s="4">
+        <v>6.0720000000000001E-3</v>
+      </c>
+      <c r="J1142" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1143" s="4">
+        <v>18</v>
+      </c>
+      <c r="B1143" s="4">
+        <v>4.8200000000000001E-4</v>
+      </c>
+      <c r="C1143" s="4">
+        <v>2.31E-4</v>
+      </c>
+      <c r="D1143" s="4">
+        <v>3.4129999999999998E-3</v>
+      </c>
+      <c r="E1143" s="4">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="F1143" s="4">
+        <v>1.4200000000000001E-4</v>
+      </c>
+      <c r="G1143" s="4">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="H1143" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1143" s="4">
+        <v>4.0369999999999998E-3</v>
+      </c>
+      <c r="J1143" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1144" s="4">
+        <v>21</v>
+      </c>
+      <c r="B1144" s="4">
+        <v>3.4200000000000002E-4</v>
+      </c>
+      <c r="C1144" s="4">
+        <v>1.13E-4</v>
+      </c>
+      <c r="D1144" s="4">
+        <v>4.3220000000000003E-3</v>
+      </c>
+      <c r="E1144" s="4">
+        <v>1.217E-3</v>
+      </c>
+      <c r="F1144" s="4">
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="G1144" s="4">
+        <v>1.1E-5</v>
+      </c>
+      <c r="H1144" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1144" s="4">
+        <v>4.8129999999999996E-3</v>
+      </c>
+      <c r="J1144" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1145" s="4">
+        <v>24</v>
+      </c>
+      <c r="B1145" s="4">
+        <v>5.4299999999999997E-4</v>
+      </c>
+      <c r="C1145" s="4">
+        <v>3.8299999999999999E-4</v>
+      </c>
+      <c r="D1145" s="4">
+        <v>4.045E-3</v>
+      </c>
+      <c r="E1145" s="4">
+        <v>9.0300000000000005E-4</v>
+      </c>
+      <c r="F1145" s="4">
+        <v>1.4300000000000001E-4</v>
+      </c>
+      <c r="G1145" s="4">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="H1145" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1145" s="4">
+        <v>4.731E-3</v>
+      </c>
+      <c r="J1145" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1146" s="4">
+        <v>27</v>
+      </c>
+      <c r="B1146" s="4">
+        <v>1.155E-3</v>
+      </c>
+      <c r="C1146" s="4">
+        <v>1.145E-3</v>
+      </c>
+      <c r="D1146" s="4">
+        <v>3.5040000000000002E-3</v>
+      </c>
+      <c r="E1146" s="4">
+        <v>1.5300000000000001E-4</v>
+      </c>
+      <c r="F1146" s="4">
+        <v>1.3100000000000001E-4</v>
+      </c>
+      <c r="G1146" s="4">
+        <v>1.1E-5</v>
+      </c>
+      <c r="H1146" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1146" s="4">
+        <v>4.7889999999999999E-3</v>
+      </c>
+      <c r="J1146" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1147" s="4">
+        <v>32</v>
+      </c>
+      <c r="B1147" s="4">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="C1147" s="4">
+        <v>2.4899999999999998E-4</v>
+      </c>
+      <c r="D1147" s="4">
+        <v>4.0810000000000004E-3</v>
+      </c>
+      <c r="E1147" s="4">
+        <v>9.5600000000000004E-4</v>
+      </c>
+      <c r="F1147" s="4">
+        <v>1.44E-4</v>
+      </c>
+      <c r="G1147" s="4">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="H1147" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1147" s="4">
+        <v>4.6499999999999996E-3</v>
+      </c>
+      <c r="J1147" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1148" s="4">
+        <v>36</v>
+      </c>
+      <c r="B1148" s="4">
+        <v>6.6299999999999996E-4</v>
+      </c>
+      <c r="C1148" s="4">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="D1148" s="4">
+        <v>4.4339999999999996E-3</v>
+      </c>
+      <c r="E1148" s="4">
+        <v>1.0120000000000001E-3</v>
+      </c>
+      <c r="F1148" s="4">
+        <v>5.3300000000000005E-4</v>
+      </c>
+      <c r="G1148" s="4">
+        <v>1.03E-4</v>
+      </c>
+      <c r="H1148" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1148" s="4">
+        <v>5.6299999999999996E-3</v>
+      </c>
+      <c r="J1148" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1149" s="4">
+        <v>42</v>
+      </c>
+      <c r="B1149" s="4">
+        <v>5.8299999999999997E-4</v>
+      </c>
+      <c r="C1149" s="4">
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="D1149" s="4">
+        <v>3.5799999999999998E-3</v>
+      </c>
+      <c r="E1149" s="4">
+        <v>1.45E-4</v>
+      </c>
+      <c r="F1149" s="4">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="G1149" s="4">
+        <v>1.7799999999999999E-4</v>
+      </c>
+      <c r="H1149" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1149" s="4">
+        <v>4.5040000000000002E-3</v>
+      </c>
+      <c r="J1149" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1150" s="4">
+        <v>48</v>
+      </c>
+      <c r="B1150" s="4">
+        <v>1.08E-3</v>
+      </c>
+      <c r="C1150" s="4">
+        <v>1.073E-3</v>
+      </c>
+      <c r="D1150" s="4">
+        <v>3.558E-3</v>
+      </c>
+      <c r="E1150" s="4">
+        <v>1.21E-4</v>
+      </c>
+      <c r="F1150" s="4">
+        <v>2.32E-4</v>
+      </c>
+      <c r="G1150" s="4">
+        <v>4.6E-5</v>
+      </c>
+      <c r="H1150" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1150" s="4">
+        <v>4.8700000000000002E-3</v>
+      </c>
+      <c r="J1150" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1151" s="4">
+        <v>55</v>
+      </c>
+      <c r="B1151" s="4">
+        <v>1.142E-3</v>
+      </c>
+      <c r="C1151" s="4">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="D1151" s="4">
+        <v>3.7420000000000001E-3</v>
+      </c>
+      <c r="E1151" s="4">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="F1151" s="4">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="G1151" s="4">
+        <v>5.5000000000000002E-5</v>
+      </c>
+      <c r="H1151" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1151" s="4">
+        <v>5.4140000000000004E-3</v>
+      </c>
+      <c r="J1151" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1151" s="3"/>
+    </row>
+    <row r="1152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1152" s="4">
+        <v>64</v>
+      </c>
+      <c r="B1152" s="4">
+        <v>5.53E-4</v>
+      </c>
+      <c r="C1152" s="4">
+        <v>8.8999999999999995E-5</v>
+      </c>
+      <c r="D1152" s="4">
+        <v>4.437E-3</v>
+      </c>
+      <c r="E1152" s="4">
+        <v>6.8900000000000005E-4</v>
+      </c>
+      <c r="F1152" s="4">
+        <v>5.2400000000000005E-4</v>
+      </c>
+      <c r="G1152" s="4">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="H1152" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1152" s="4">
+        <v>5.5129999999999997E-3</v>
+      </c>
+      <c r="J1152" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1153" s="4">
+        <v>73</v>
+      </c>
+      <c r="B1153" s="4">
+        <v>6.2E-4</v>
+      </c>
+      <c r="C1153" s="4">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="D1153" s="4">
+        <v>4.2919999999999998E-3</v>
+      </c>
+      <c r="E1153" s="4">
+        <v>8.8500000000000004E-4</v>
+      </c>
+      <c r="F1153" s="4">
+        <v>5.4500000000000002E-4</v>
+      </c>
+      <c r="G1153" s="4">
+        <v>1.2300000000000001E-4</v>
+      </c>
+      <c r="H1153" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1153" s="4">
+        <v>5.457E-3</v>
+      </c>
+      <c r="J1153" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1154" s="4">
+        <v>84</v>
+      </c>
+      <c r="B1154" s="4">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="C1154" s="4">
+        <v>1.7200000000000001E-4</v>
+      </c>
+      <c r="D1154" s="4">
+        <v>4.0870000000000004E-3</v>
+      </c>
+      <c r="E1154" s="4">
+        <v>2.0699999999999999E-4</v>
+      </c>
+      <c r="F1154" s="4">
+        <v>5.2300000000000003E-4</v>
+      </c>
+      <c r="G1154" s="4">
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="H1154" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1154" s="4">
+        <v>5.1399999999999996E-3</v>
+      </c>
+      <c r="J1154" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1155" s="4">
+        <v>97</v>
+      </c>
+      <c r="B1155" s="4">
+        <v>5.2499999999999997E-4</v>
+      </c>
+      <c r="C1155" s="4">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="D1155" s="4">
+        <v>3.5990000000000002E-3</v>
+      </c>
+      <c r="E1155" s="4">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F1155" s="4">
+        <v>3.0400000000000002E-4</v>
+      </c>
+      <c r="G1155" s="4">
+        <v>1.3100000000000001E-4</v>
+      </c>
+      <c r="H1155" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1155" s="4">
+        <v>4.4279999999999996E-3</v>
+      </c>
+      <c r="J1155" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1156" s="4">
+        <v>111</v>
+      </c>
+      <c r="B1156" s="4">
+        <v>1.1169999999999999E-3</v>
+      </c>
+      <c r="C1156" s="4">
+        <v>3.2299999999999999E-4</v>
+      </c>
+      <c r="D1156" s="4">
+        <v>4.0990000000000002E-3</v>
+      </c>
+      <c r="E1156" s="4">
+        <v>3.8200000000000002E-4</v>
+      </c>
+      <c r="F1156" s="4">
+        <v>4.7399999999999997E-4</v>
+      </c>
+      <c r="G1156" s="4">
+        <v>6.7999999999999999E-5</v>
+      </c>
+      <c r="H1156" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1156" s="4">
+        <v>5.6899999999999997E-3</v>
+      </c>
+      <c r="J1156" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1157" s="4">
+        <v>128</v>
+      </c>
+      <c r="B1157" s="4">
+        <v>8.2200000000000003E-4</v>
+      </c>
+      <c r="C1157" s="4">
+        <v>2.02E-4</v>
+      </c>
+      <c r="D1157" s="4">
+        <v>4.1840000000000002E-3</v>
+      </c>
+      <c r="E1157" s="4">
+        <v>7.3800000000000005E-4</v>
+      </c>
+      <c r="F1157" s="4">
+        <v>4.7600000000000002E-4</v>
+      </c>
+      <c r="G1157" s="4">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="H1157" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1157" s="4">
+        <v>5.4819999999999999E-3</v>
+      </c>
+      <c r="J1157" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1158" s="4">
+        <v>147</v>
+      </c>
+      <c r="B1158" s="4">
+        <v>1.011E-3</v>
+      </c>
+      <c r="C1158" s="4">
+        <v>3.5E-4</v>
+      </c>
+      <c r="D1158" s="4">
+        <v>3.676E-3</v>
+      </c>
+      <c r="E1158" s="4">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="F1158" s="4">
+        <v>4.35E-4</v>
+      </c>
+      <c r="G1158" s="4">
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="H1158" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1158" s="4">
+        <v>5.1219999999999998E-3</v>
+      </c>
+      <c r="J1158" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1159" s="4">
+        <v>168</v>
+      </c>
+      <c r="B1159" s="4">
+        <v>1.439E-3</v>
+      </c>
+      <c r="C1159" s="4">
+        <v>1.0369999999999999E-3</v>
+      </c>
+      <c r="D1159" s="4">
+        <v>3.9029999999999998E-3</v>
+      </c>
+      <c r="E1159" s="4">
+        <v>2.02E-4</v>
+      </c>
+      <c r="F1159" s="4">
+        <v>5.1500000000000005E-4</v>
+      </c>
+      <c r="G1159" s="4">
+        <v>5.7000000000000003E-5</v>
+      </c>
+      <c r="H1159" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1159" s="4">
+        <v>5.8570000000000002E-3</v>
+      </c>
+      <c r="J1159" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1160" s="4">
+        <v>194</v>
+      </c>
+      <c r="B1160" s="4">
+        <v>3.4900000000000003E-4</v>
+      </c>
+      <c r="C1160" s="4">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="D1160" s="4">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="E1160" s="4">
+        <v>7.0100000000000002E-4</v>
+      </c>
+      <c r="F1160" s="4">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G1160" s="4">
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="H1160" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1160" s="4">
+        <v>4.6979999999999999E-3</v>
+      </c>
+      <c r="J1160" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1161" s="4">
+        <v>222</v>
+      </c>
+      <c r="B1161" s="4">
+        <v>4.0900000000000002E-4</v>
+      </c>
+      <c r="C1161" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D1161" s="4">
+        <v>4.4520000000000002E-3</v>
+      </c>
+      <c r="E1161" s="4">
+        <v>1.333E-3</v>
+      </c>
+      <c r="F1161" s="4">
+        <v>2.8600000000000001E-4</v>
+      </c>
+      <c r="G1161" s="4">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="H1161" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1161" s="4">
+        <v>5.1469999999999997E-3</v>
+      </c>
+      <c r="J1161" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1162" s="4">
+        <v>256</v>
+      </c>
+      <c r="B1162" s="4">
+        <v>1.1670000000000001E-3</v>
+      </c>
+      <c r="C1162" s="4">
+        <v>3.3199999999999999E-4</v>
+      </c>
+      <c r="D1162" s="4">
+        <v>4.241E-3</v>
+      </c>
+      <c r="E1162" s="4">
+        <v>8.92E-4</v>
+      </c>
+      <c r="F1162" s="4">
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="G1162" s="4">
+        <v>9.7E-5</v>
+      </c>
+      <c r="H1162" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1162" s="4">
+        <v>5.855E-3</v>
+      </c>
+      <c r="J1162" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1163" s="4">
+        <v>294</v>
+      </c>
+      <c r="B1163" s="4">
+        <v>1.1980000000000001E-3</v>
+      </c>
+      <c r="C1163" s="4">
+        <v>6.2100000000000002E-4</v>
+      </c>
+      <c r="D1163" s="4">
+        <v>3.7859999999999999E-3</v>
+      </c>
+      <c r="E1163" s="4">
+        <v>9.2999999999999997E-5</v>
+      </c>
+      <c r="F1163" s="4">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="G1163" s="4">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="H1163" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1163" s="4">
+        <v>5.4339999999999996E-3</v>
+      </c>
+      <c r="J1163" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1164" s="4">
+        <v>337</v>
+      </c>
+      <c r="B1164" s="4">
+        <v>7.4299999999999995E-4</v>
+      </c>
+      <c r="C1164" s="4">
+        <v>1.0900000000000001E-4</v>
+      </c>
+      <c r="D1164" s="4">
+        <v>4.3049999999999998E-3</v>
+      </c>
+      <c r="E1164" s="4">
+        <v>8.3500000000000002E-4</v>
+      </c>
+      <c r="F1164" s="4">
+        <v>6.1600000000000001E-4</v>
+      </c>
+      <c r="G1164" s="4">
+        <v>1.37E-4</v>
+      </c>
+      <c r="H1164" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1164" s="4">
+        <v>5.6639999999999998E-3</v>
+      </c>
+      <c r="J1164" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1165" s="4">
+        <v>388</v>
+      </c>
+      <c r="B1165" s="4">
+        <v>1.4630000000000001E-3</v>
+      </c>
+      <c r="C1165" s="4">
+        <v>8.3299999999999997E-4</v>
+      </c>
+      <c r="D1165" s="4">
+        <v>3.8070000000000001E-3</v>
+      </c>
+      <c r="E1165" s="4">
+        <v>1.35E-4</v>
+      </c>
+      <c r="F1165" s="4">
+        <v>4.26E-4</v>
+      </c>
+      <c r="G1165" s="4">
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="H1165" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1165" s="4">
+        <v>5.6959999999999997E-3</v>
+      </c>
+      <c r="J1165" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1166" s="4">
+        <v>445</v>
+      </c>
+      <c r="B1166" s="4">
+        <v>7.3099999999999999E-4</v>
+      </c>
+      <c r="C1166" s="4">
+        <v>1.2E-4</v>
+      </c>
+      <c r="D1166" s="4">
+        <v>4.2859999999999999E-3</v>
+      </c>
+      <c r="E1166" s="4">
+        <v>8.4900000000000004E-4</v>
+      </c>
+      <c r="F1166" s="4">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="G1166" s="4">
+        <v>4.8999999999999998E-5</v>
+      </c>
+      <c r="H1166" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1166" s="4">
+        <v>5.5269999999999998E-3</v>
+      </c>
+      <c r="J1166" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1167" s="4">
+        <v>512</v>
+      </c>
+      <c r="B1167" s="4">
+        <v>1.3290000000000001E-3</v>
+      </c>
+      <c r="C1167" s="4">
+        <v>9.5600000000000004E-4</v>
+      </c>
+      <c r="D1167" s="4">
+        <v>3.803E-3</v>
+      </c>
+      <c r="E1167" s="4">
+        <v>1.76E-4</v>
+      </c>
+      <c r="F1167" s="4">
+        <v>4.7399999999999997E-4</v>
+      </c>
+      <c r="G1167" s="4">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="H1167" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1167" s="4">
+        <v>5.6059999999999999E-3</v>
+      </c>
+      <c r="J1167" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1168" s="4">
+        <v>588</v>
+      </c>
+      <c r="B1168" s="4">
+        <v>1.042E-3</v>
+      </c>
+      <c r="C1168" s="4">
+        <v>6.4700000000000001E-4</v>
+      </c>
+      <c r="D1168" s="4">
+        <v>4.5580000000000004E-3</v>
+      </c>
+      <c r="E1168" s="4">
+        <v>1.341E-3</v>
+      </c>
+      <c r="F1168" s="4">
+        <v>4.5199999999999998E-4</v>
+      </c>
+      <c r="G1168" s="4">
+        <v>2.5799999999999998E-4</v>
+      </c>
+      <c r="H1168" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1168" s="4">
+        <v>6.0520000000000001E-3</v>
+      </c>
+      <c r="J1168" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1169" s="4">
+        <v>675</v>
+      </c>
+      <c r="B1169" s="4">
+        <v>1.4790000000000001E-3</v>
+      </c>
+      <c r="C1169" s="4">
+        <v>8.5400000000000005E-4</v>
+      </c>
+      <c r="D1169" s="4">
+        <v>4.0959999999999998E-3</v>
+      </c>
+      <c r="E1169" s="4">
+        <v>5.6800000000000004E-4</v>
+      </c>
+      <c r="F1169" s="4">
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="G1169" s="4">
+        <v>1.05E-4</v>
+      </c>
+      <c r="H1169" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1169" s="4">
+        <v>6.0639999999999999E-3</v>
+      </c>
+      <c r="J1169" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1170" s="4">
+        <v>776</v>
+      </c>
+      <c r="B1170" s="4">
+        <v>5.2300000000000003E-4</v>
+      </c>
+      <c r="C1170" s="4">
+        <v>7.8999999999999996E-5</v>
+      </c>
+      <c r="D1170" s="4">
+        <v>4.0049999999999999E-3</v>
+      </c>
+      <c r="E1170" s="4">
+        <v>5.5500000000000005E-4</v>
+      </c>
+      <c r="F1170" s="4">
+        <v>3.3599999999999998E-4</v>
+      </c>
+      <c r="G1170" s="4">
+        <v>3.4E-5</v>
+      </c>
+      <c r="H1170" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1170" s="4">
+        <v>4.8630000000000001E-3</v>
+      </c>
+      <c r="J1170" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1171" s="4">
+        <v>891</v>
+      </c>
+      <c r="B1171" s="4">
+        <v>1.377E-3</v>
+      </c>
+      <c r="C1171" s="4">
+        <v>1.1180000000000001E-3</v>
+      </c>
+      <c r="D1171" s="4">
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="E1171" s="4">
+        <v>1.83E-4</v>
+      </c>
+      <c r="F1171" s="4">
+        <v>3.4900000000000003E-4</v>
+      </c>
+      <c r="G1171" s="4">
+        <v>2.1800000000000001E-4</v>
+      </c>
+      <c r="H1171" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1171" s="4">
+        <v>5.4660000000000004E-3</v>
+      </c>
+      <c r="J1171" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1172" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B1172" s="4">
+        <v>6.4700000000000001E-4</v>
+      </c>
+      <c r="C1172" s="4">
+        <v>1.07E-4</v>
+      </c>
+      <c r="D1172" s="4">
+        <v>3.6150000000000002E-3</v>
+      </c>
+      <c r="E1172" s="4">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="F1172" s="4">
+        <v>5.0799999999999999E-4</v>
+      </c>
+      <c r="G1172" s="4">
+        <v>1.4E-5</v>
+      </c>
+      <c r="H1172" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1172" s="4">
+        <v>4.7699999999999999E-3</v>
+      </c>
+      <c r="J1172" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1173" s="4">
+        <v>1176</v>
+      </c>
+      <c r="B1173" s="4">
+        <v>1.253E-3</v>
+      </c>
+      <c r="C1173" s="4">
+        <v>6.8400000000000004E-4</v>
+      </c>
+      <c r="D1173" s="4">
+        <v>3.8159999999999999E-3</v>
+      </c>
+      <c r="E1173" s="4">
+        <v>1.73E-4</v>
+      </c>
+      <c r="F1173" s="4">
+        <v>4.4299999999999998E-4</v>
+      </c>
+      <c r="G1173" s="4">
+        <v>1.02E-4</v>
+      </c>
+      <c r="H1173" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1173" s="4">
+        <v>5.5120000000000004E-3</v>
+      </c>
+      <c r="J1173" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1174" s="4">
+        <v>1351</v>
+      </c>
+      <c r="B1174" s="4">
+        <v>9.8700000000000003E-4</v>
+      </c>
+      <c r="C1174" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D1174" s="4">
+        <v>4.2579999999999996E-3</v>
+      </c>
+      <c r="E1174" s="4">
+        <v>8.3600000000000005E-4</v>
+      </c>
+      <c r="F1174" s="4">
+        <v>4.95E-4</v>
+      </c>
+      <c r="G1174" s="4">
+        <v>5.8E-5</v>
+      </c>
+      <c r="H1174" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1174" s="4">
+        <v>5.7400000000000003E-3</v>
+      </c>
+      <c r="J1174" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1175" s="4">
+        <v>1552</v>
+      </c>
+      <c r="B1175" s="4">
+        <v>1.3649999999999999E-3</v>
+      </c>
+      <c r="C1175" s="4">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="D1175" s="4">
+        <v>3.823E-3</v>
+      </c>
+      <c r="E1175" s="4">
+        <v>2.0599999999999999E-4</v>
+      </c>
+      <c r="F1175" s="4">
+        <v>4.4499999999999997E-4</v>
+      </c>
+      <c r="G1175" s="4">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="H1175" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1175" s="4">
+        <v>5.6340000000000001E-3</v>
+      </c>
+      <c r="J1175" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1176" s="4">
+        <v>1782</v>
+      </c>
+      <c r="B1176" s="4">
+        <v>1.088E-3</v>
+      </c>
+      <c r="C1176" s="4">
+        <v>5.9900000000000003E-4</v>
+      </c>
+      <c r="D1176" s="4">
+        <v>3.764E-3</v>
+      </c>
+      <c r="E1176" s="4">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="F1176" s="4">
+        <v>5.8900000000000001E-4</v>
+      </c>
+      <c r="G1176" s="4">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H1176" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1176" s="4">
+        <v>5.4409999999999997E-3</v>
+      </c>
+      <c r="J1176" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1177" s="4">
+        <v>2048</v>
+      </c>
+      <c r="B1177" s="4">
+        <v>1.735E-3</v>
+      </c>
+      <c r="C1177" s="4">
+        <v>1.786E-3</v>
+      </c>
+      <c r="D1177" s="4">
+        <v>3.7190000000000001E-3</v>
+      </c>
+      <c r="E1177" s="4">
+        <v>1.45E-4</v>
+      </c>
+      <c r="F1177" s="4">
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="G1177" s="4">
+        <v>1.1E-4</v>
+      </c>
+      <c r="H1177" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1177" s="4">
+        <v>5.8199999999999997E-3</v>
+      </c>
+      <c r="J1177" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1178" s="4">
+        <v>2352</v>
+      </c>
+      <c r="B1178" s="4">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="C1178" s="4">
+        <v>1.73E-4</v>
+      </c>
+      <c r="D1178" s="4">
+        <v>4.2050000000000004E-3</v>
+      </c>
+      <c r="E1178" s="4">
+        <v>6.9099999999999999E-4</v>
+      </c>
+      <c r="F1178" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G1178" s="4">
+        <v>1.93E-4</v>
+      </c>
+      <c r="H1178" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1178" s="4">
+        <v>5.4349999999999997E-3</v>
+      </c>
+      <c r="J1178" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1179" s="4">
+        <v>2702</v>
+      </c>
+      <c r="B1179" s="4">
+        <v>7.36E-4</v>
+      </c>
+      <c r="C1179" s="4">
+        <v>1.6699999999999999E-4</v>
+      </c>
+      <c r="D1179" s="4">
+        <v>3.9779999999999998E-3</v>
+      </c>
+      <c r="E1179" s="4">
+        <v>4.6299999999999998E-4</v>
+      </c>
+      <c r="F1179" s="4">
+        <v>3.9599999999999998E-4</v>
+      </c>
+      <c r="G1179" s="4">
+        <v>9.2999999999999997E-5</v>
+      </c>
+      <c r="H1179" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1179" s="4">
+        <v>5.1089999999999998E-3</v>
+      </c>
+      <c r="J1179" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1180" s="4">
+        <v>3104</v>
+      </c>
+      <c r="B1180" s="4">
+        <v>6.0599999999999998E-4</v>
+      </c>
+      <c r="C1180" s="4">
+        <v>1.7899999999999999E-4</v>
+      </c>
+      <c r="D1180" s="4">
+        <v>3.973E-3</v>
+      </c>
+      <c r="E1180" s="4">
+        <v>3.9899999999999999E-4</v>
+      </c>
+      <c r="F1180" s="4">
+        <v>6.6E-4</v>
+      </c>
+      <c r="G1180" s="4">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="H1180" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1180" s="4">
+        <v>5.2399999999999999E-3</v>
+      </c>
+      <c r="J1180" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1181" s="4">
+        <v>3565</v>
+      </c>
+      <c r="B1181" s="4">
+        <v>7.76E-4</v>
+      </c>
+      <c r="C1181" s="4">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="D1181" s="4">
+        <v>4.2700000000000004E-3</v>
+      </c>
+      <c r="E1181" s="4">
+        <v>8.4800000000000001E-4</v>
+      </c>
+      <c r="F1181" s="4">
+        <v>6.1200000000000002E-4</v>
+      </c>
+      <c r="G1181" s="4">
+        <v>4.6E-5</v>
+      </c>
+      <c r="H1181" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1181" s="4">
+        <v>5.6579999999999998E-3</v>
+      </c>
+      <c r="J1181" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1182" s="4">
+        <v>4096</v>
+      </c>
+      <c r="B1182" s="4">
+        <v>8.12E-4</v>
+      </c>
+      <c r="C1182" s="4">
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="D1182" s="4">
+        <v>3.5149999999999999E-3</v>
+      </c>
+      <c r="E1182" s="4">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="F1182" s="4">
+        <v>1.95E-4</v>
+      </c>
+      <c r="G1182" s="4">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="H1182" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1182" s="4">
+        <v>4.5230000000000001E-3</v>
+      </c>
+      <c r="J1182" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1183" s="4">
+        <v>4705</v>
+      </c>
+      <c r="B1183" s="4">
+        <v>7.2800000000000002E-4</v>
+      </c>
+      <c r="C1183" s="4">
+        <v>1.4300000000000001E-4</v>
+      </c>
+      <c r="D1183" s="4">
+        <v>4.8209999999999998E-3</v>
+      </c>
+      <c r="E1183" s="4">
+        <v>1.812E-3</v>
+      </c>
+      <c r="F1183" s="4">
+        <v>5.4500000000000002E-4</v>
+      </c>
+      <c r="G1183" s="4">
+        <v>1.07E-4</v>
+      </c>
+      <c r="H1183" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1183" s="4">
+        <v>6.0930000000000003E-3</v>
+      </c>
+      <c r="J1183" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1184" s="4">
+        <v>5404</v>
+      </c>
+      <c r="B1184" s="4">
+        <v>8.1099999999999998E-4</v>
+      </c>
+      <c r="C1184" s="4">
+        <v>1.21E-4</v>
+      </c>
+      <c r="D1184" s="4">
+        <v>3.9630000000000004E-3</v>
+      </c>
+      <c r="E1184" s="4">
+        <v>5.1099999999999995E-4</v>
+      </c>
+      <c r="F1184" s="4">
+        <v>6.3299999999999999E-4</v>
+      </c>
+      <c r="G1184" s="4">
+        <v>9.2E-5</v>
+      </c>
+      <c r="H1184" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1184" s="4">
+        <v>5.4070000000000003E-3</v>
+      </c>
+      <c r="J1184" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1185" s="4">
+        <v>6208</v>
+      </c>
+      <c r="B1185" s="4">
+        <v>7.54E-4</v>
+      </c>
+      <c r="C1185" s="4">
+        <v>1.03E-4</v>
+      </c>
+      <c r="D1185" s="4">
+        <v>4.3670000000000002E-3</v>
+      </c>
+      <c r="E1185" s="4">
+        <v>1.206E-3</v>
+      </c>
+      <c r="F1185" s="4">
+        <v>3.6699999999999998E-4</v>
+      </c>
+      <c r="G1185" s="4">
+        <v>1.7799999999999999E-4</v>
+      </c>
+      <c r="H1185" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1185" s="4">
+        <v>5.4869999999999997E-3</v>
+      </c>
+      <c r="J1185" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1186" s="4">
+        <v>7131</v>
+      </c>
+      <c r="B1186" s="4">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="C1186" s="4">
+        <v>1.01E-4</v>
+      </c>
+      <c r="D1186" s="4">
+        <v>4.176E-3</v>
+      </c>
+      <c r="E1186" s="4">
+        <v>8.6600000000000002E-4</v>
+      </c>
+      <c r="F1186" s="4">
+        <v>4.8200000000000001E-4</v>
+      </c>
+      <c r="G1186" s="4">
+        <v>9.2999999999999997E-5</v>
+      </c>
+      <c r="H1186" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1186" s="4">
+        <v>5.3379999999999999E-3</v>
+      </c>
+      <c r="J1186" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1187" s="4">
+        <v>8192</v>
+      </c>
+      <c r="B1187" s="4">
+        <v>1.1039999999999999E-3</v>
+      </c>
+      <c r="C1187" s="4">
+        <v>2.63E-4</v>
+      </c>
+      <c r="D1187" s="4">
+        <v>3.6180000000000001E-3</v>
+      </c>
+      <c r="E1187" s="4">
+        <v>5.7000000000000003E-5</v>
+      </c>
+      <c r="F1187" s="4">
+        <v>4.5300000000000001E-4</v>
+      </c>
+      <c r="G1187" s="4">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="H1187" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1187" s="4">
+        <v>5.1749999999999999E-3</v>
+      </c>
+      <c r="J1187" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1188" s="4">
+        <v>9410</v>
+      </c>
+      <c r="B1188" s="4">
+        <v>9.1600000000000004E-4</v>
+      </c>
+      <c r="C1188" s="4">
+        <v>8.3999999999999995E-5</v>
+      </c>
+      <c r="D1188" s="4">
+        <v>3.6340000000000001E-3</v>
+      </c>
+      <c r="E1188" s="4">
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="F1188" s="4">
+        <v>4.1599999999999997E-4</v>
+      </c>
+      <c r="G1188" s="4">
+        <v>1.74E-4</v>
+      </c>
+      <c r="H1188" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1188" s="4">
+        <v>4.9659999999999999E-3</v>
+      </c>
+      <c r="J1188" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1189" s="4">
+        <v>10809</v>
+      </c>
+      <c r="B1189" s="4">
+        <v>1.472E-3</v>
+      </c>
+      <c r="C1189" s="4">
+        <v>8.9599999999999999E-4</v>
+      </c>
+      <c r="D1189" s="4">
+        <v>3.6519999999999999E-3</v>
+      </c>
+      <c r="E1189" s="4">
+        <v>1.11E-4</v>
+      </c>
+      <c r="F1189" s="4">
+        <v>5.4900000000000001E-4</v>
+      </c>
+      <c r="G1189" s="4">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="H1189" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1189" s="4">
+        <v>5.6730000000000001E-3</v>
+      </c>
+      <c r="J1189" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1190" s="4">
+        <v>12416</v>
+      </c>
+      <c r="B1190" s="4">
+        <v>8.3799999999999999E-4</v>
+      </c>
+      <c r="C1190" s="4">
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="D1190" s="4">
+        <v>4.0619999999999996E-3</v>
+      </c>
+      <c r="E1190" s="4">
+        <v>5.2300000000000003E-4</v>
+      </c>
+      <c r="F1190" s="4">
+        <v>4.8700000000000002E-4</v>
+      </c>
+      <c r="G1190" s="4">
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="H1190" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1190" s="4">
+        <v>5.3860000000000002E-3</v>
+      </c>
+      <c r="J1190" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1191" s="4">
+        <v>14263</v>
+      </c>
+      <c r="B1191" s="4">
+        <v>7.1199999999999996E-4</v>
+      </c>
+      <c r="C1191" s="4">
+        <v>9.7E-5</v>
+      </c>
+      <c r="D1191" s="4">
+        <v>4.3410000000000002E-3</v>
+      </c>
+      <c r="E1191" s="4">
+        <v>1.1329999999999999E-3</v>
+      </c>
+      <c r="F1191" s="4">
+        <v>5.44E-4</v>
+      </c>
+      <c r="G1191" s="4">
+        <v>8.8999999999999995E-5</v>
+      </c>
+      <c r="H1191" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1191" s="4">
+        <v>5.5979999999999997E-3</v>
+      </c>
+      <c r="J1191" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1192" s="4">
+        <v>16384</v>
+      </c>
+      <c r="B1192" s="4">
+        <v>7.0799999999999997E-4</v>
+      </c>
+      <c r="C1192" s="4">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="D1192" s="4">
+        <v>3.9480000000000001E-3</v>
+      </c>
+      <c r="E1192" s="4">
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="F1192" s="4">
+        <v>5.13E-4</v>
+      </c>
+      <c r="G1192" s="4">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="H1192" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1192" s="4">
+        <v>5.1700000000000001E-3</v>
+      </c>
+      <c r="J1192" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1193" s="4">
+        <v>18820</v>
+      </c>
+      <c r="B1193" s="4">
+        <v>7.7899999999999996E-4</v>
+      </c>
+      <c r="C1193" s="4">
+        <v>1.2300000000000001E-4</v>
+      </c>
+      <c r="D1193" s="4">
+        <v>4.2810000000000001E-3</v>
+      </c>
+      <c r="E1193" s="4">
+        <v>1.3550000000000001E-3</v>
+      </c>
+      <c r="F1193" s="4">
+        <v>4.2299999999999998E-4</v>
+      </c>
+      <c r="G1193" s="4">
+        <v>1.6899999999999999E-4</v>
+      </c>
+      <c r="H1193" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1193" s="4">
+        <v>5.4840000000000002E-3</v>
+      </c>
+      <c r="J1193" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1194" s="4">
+        <v>21618</v>
+      </c>
+      <c r="B1194" s="4">
+        <v>1.018E-3</v>
+      </c>
+      <c r="C1194" s="4">
+        <v>2.1699999999999999E-4</v>
+      </c>
+      <c r="D1194" s="4">
+        <v>3.3930000000000002E-3</v>
+      </c>
+      <c r="E1194" s="4">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="F1194" s="4">
+        <v>5.6700000000000001E-4</v>
+      </c>
+      <c r="G1194" s="4">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="H1194" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1194" s="4">
+        <v>4.9769999999999997E-3</v>
+      </c>
+      <c r="J1194" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1195" s="4">
+        <v>24833</v>
+      </c>
+      <c r="B1195" s="4">
+        <v>1.531E-3</v>
+      </c>
+      <c r="C1195" s="4">
+        <v>1.2880000000000001E-3</v>
+      </c>
+      <c r="D1195" s="4">
+        <v>3.467E-3</v>
+      </c>
+      <c r="E1195" s="4">
+        <v>1.6699999999999999E-4</v>
+      </c>
+      <c r="F1195" s="4">
+        <v>4.6200000000000001E-4</v>
+      </c>
+      <c r="G1195" s="4">
+        <v>1.54E-4</v>
+      </c>
+      <c r="H1195" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1195" s="4">
+        <v>5.4599999999999996E-3</v>
+      </c>
+      <c r="J1195" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1196" s="4">
+        <v>28526</v>
+      </c>
+      <c r="B1196" s="4">
+        <v>1.0430000000000001E-3</v>
+      </c>
+      <c r="C1196" s="4">
+        <v>6.1700000000000004E-4</v>
+      </c>
+      <c r="D1196" s="4">
+        <v>3.29E-3</v>
+      </c>
+      <c r="E1196" s="4">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="F1196" s="4">
+        <v>3.57E-4</v>
+      </c>
+      <c r="G1196" s="4">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="H1196" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1196" s="4">
+        <v>4.6889999999999996E-3</v>
+      </c>
+      <c r="J1196" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1197" s="4">
+        <v>32768</v>
+      </c>
+      <c r="B1197" s="4">
+        <v>3.2200000000000002E-4</v>
+      </c>
+      <c r="C1197" s="4">
+        <v>1.03E-4</v>
+      </c>
+      <c r="D1197" s="4">
+        <v>4.8919999999999996E-3</v>
+      </c>
+      <c r="E1197" s="4">
+        <v>2.496E-3</v>
+      </c>
+      <c r="F1197" s="4">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="G1197" s="4">
+        <v>1.8699999999999999E-4</v>
+      </c>
+      <c r="H1197" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1197" s="4">
+        <v>5.6049999999999997E-3</v>
+      </c>
+      <c r="J1197" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1198" s="4">
+        <v>37640</v>
+      </c>
+      <c r="B1198" s="4">
+        <v>2.1930000000000001E-3</v>
+      </c>
+      <c r="C1198" s="4">
+        <v>1.9959999999999999E-3</v>
+      </c>
+      <c r="D1198" s="4">
+        <v>4.4640000000000001E-3</v>
+      </c>
+      <c r="E1198" s="4">
+        <v>3.6200000000000002E-4</v>
+      </c>
+      <c r="F1198" s="4">
+        <v>5.1099999999999995E-4</v>
+      </c>
+      <c r="G1198" s="4">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="H1198" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1198" s="4">
+        <v>7.1679999999999999E-3</v>
+      </c>
+      <c r="J1198" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1199" s="4">
+        <v>43237</v>
+      </c>
+      <c r="B1199" s="4">
+        <v>1.193E-3</v>
+      </c>
+      <c r="C1199" s="4">
+        <v>4.7699999999999999E-4</v>
+      </c>
+      <c r="D1199" s="4">
+        <v>4.1570000000000001E-3</v>
+      </c>
+      <c r="E1199" s="4">
+        <v>1.47E-4</v>
+      </c>
+      <c r="F1199" s="4">
+        <v>5.2300000000000003E-4</v>
+      </c>
+      <c r="G1199" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="H1199" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1199" s="4">
+        <v>5.8719999999999996E-3</v>
+      </c>
+      <c r="J1199" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1200" s="4">
+        <v>49667</v>
+      </c>
+      <c r="B1200" s="4">
+        <v>1.5839999999999999E-3</v>
+      </c>
+      <c r="C1200" s="4">
+        <v>9.8799999999999995E-4</v>
+      </c>
+      <c r="D1200" s="4">
+        <v>4.1949999999999999E-3</v>
+      </c>
+      <c r="E1200" s="4">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="F1200" s="4">
+        <v>6.2799999999999998E-4</v>
+      </c>
+      <c r="G1200" s="4">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="H1200" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1200" s="4">
+        <v>6.4070000000000004E-3</v>
+      </c>
+      <c r="J1200" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1201" s="4">
+        <v>57052</v>
+      </c>
+      <c r="B1201" s="4">
+        <v>1.1789999999999999E-3</v>
+      </c>
+      <c r="C1201" s="4">
+        <v>2.9300000000000002E-4</v>
+      </c>
+      <c r="D1201" s="4">
+        <v>4.2050000000000004E-3</v>
+      </c>
+      <c r="E1201" s="4">
+        <v>9.5000000000000005E-5</v>
+      </c>
+      <c r="F1201" s="4">
+        <v>7.2099999999999996E-4</v>
+      </c>
+      <c r="G1201" s="4">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="H1201" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1201" s="4">
+        <v>6.1040000000000001E-3</v>
+      </c>
+      <c r="J1201" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1202" s="4">
+        <v>65536</v>
+      </c>
+      <c r="B1202" s="4">
+        <v>6.7100000000000005E-4</v>
+      </c>
+      <c r="C1202" s="4">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="D1202" s="4">
+        <v>4.7980000000000002E-3</v>
+      </c>
+      <c r="E1202" s="4">
+        <v>1.0759999999999999E-3</v>
+      </c>
+      <c r="F1202" s="4">
+        <v>7.1699999999999997E-4</v>
+      </c>
+      <c r="G1202" s="4">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H1202" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1202" s="4">
+        <v>6.1859999999999997E-3</v>
+      </c>
+      <c r="J1202" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1203" s="4">
+        <v>75281</v>
+      </c>
+      <c r="B1203" s="4">
+        <v>1.369E-3</v>
+      </c>
+      <c r="C1203" s="4">
+        <v>5.9699999999999998E-4</v>
+      </c>
+      <c r="D1203" s="4">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E1203" s="4">
+        <v>1.83E-4</v>
+      </c>
+      <c r="F1203" s="4">
+        <v>7.3200000000000001E-4</v>
+      </c>
+      <c r="G1203" s="4">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="H1203" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1203" s="4">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="J1203" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1204" s="4">
+        <v>86475</v>
+      </c>
+      <c r="B1204" s="4">
+        <v>1.1919999999999999E-3</v>
+      </c>
+      <c r="C1204" s="4">
+        <v>1.93E-4</v>
+      </c>
+      <c r="D1204" s="4">
+        <v>4.3819999999999996E-3</v>
+      </c>
+      <c r="E1204" s="4">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="F1204" s="4">
+        <v>5.7600000000000001E-4</v>
+      </c>
+      <c r="G1204" s="4">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="H1204" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1204" s="4">
+        <v>6.1510000000000002E-3</v>
+      </c>
+      <c r="J1204" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1205" s="4">
+        <v>99334</v>
+      </c>
+      <c r="B1205" s="4">
+        <v>1.2489999999999999E-3</v>
+      </c>
+      <c r="C1205" s="4">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="D1205" s="4">
+        <v>5.6020000000000002E-3</v>
+      </c>
+      <c r="E1205" s="4">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="F1205" s="4">
+        <v>7.9600000000000005E-4</v>
+      </c>
+      <c r="G1205" s="4">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="H1205" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1205" s="4">
+        <v>7.6480000000000003E-3</v>
+      </c>
+      <c r="J1205" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1206" s="4">
+        <v>114104</v>
+      </c>
+      <c r="B1206" s="4">
+        <v>2.016E-3</v>
+      </c>
+      <c r="C1206" s="4">
+        <v>1.237E-3</v>
+      </c>
+      <c r="D1206" s="4">
+        <v>5.5059999999999996E-3</v>
+      </c>
+      <c r="E1206" s="4">
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="F1206" s="4">
+        <v>8.12E-4</v>
+      </c>
+      <c r="G1206" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="H1206" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1206" s="4">
+        <v>8.3330000000000001E-3</v>
+      </c>
+      <c r="J1206" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1207" s="4">
+        <v>131072</v>
+      </c>
+      <c r="B1207" s="4">
+        <v>7.0299999999999996E-4</v>
+      </c>
+      <c r="C1207" s="4">
+        <v>1.21E-4</v>
+      </c>
+      <c r="D1207" s="4">
+        <v>5.9439999999999996E-3</v>
+      </c>
+      <c r="E1207" s="4">
+        <v>4.7199999999999998E-4</v>
+      </c>
+      <c r="F1207" s="4">
+        <v>8.7900000000000001E-4</v>
+      </c>
+      <c r="G1207" s="4">
+        <v>9.8999999999999994E-5</v>
+      </c>
+      <c r="H1207" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1207" s="4">
+        <v>7.5259999999999997E-3</v>
+      </c>
+      <c r="J1207" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1208" s="4">
+        <v>150562</v>
+      </c>
+      <c r="B1208" s="4">
+        <v>1.3029999999999999E-3</v>
+      </c>
+      <c r="C1208" s="4">
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="D1208" s="4">
+        <v>6.6800000000000002E-3</v>
+      </c>
+      <c r="E1208" s="4">
+        <v>9.3099999999999997E-4</v>
+      </c>
+      <c r="F1208" s="4">
+        <v>8.9700000000000001E-4</v>
+      </c>
+      <c r="G1208" s="4">
+        <v>6.7999999999999999E-5</v>
+      </c>
+      <c r="H1208" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1208" s="4">
+        <v>8.8789999999999997E-3</v>
+      </c>
+      <c r="J1208" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1209" s="4">
+        <v>172950</v>
+      </c>
+      <c r="B1209" s="4">
+        <v>1.335E-3</v>
+      </c>
+      <c r="C1209" s="4">
+        <v>8.8999999999999995E-5</v>
+      </c>
+      <c r="D1209" s="4">
+        <v>8.2369999999999995E-3</v>
+      </c>
+      <c r="E1209" s="4">
+        <v>3.77E-4</v>
+      </c>
+      <c r="F1209" s="4">
+        <v>8.7399999999999999E-4</v>
+      </c>
+      <c r="G1209" s="4">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="H1209" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1209" s="4">
+        <v>1.0444999999999999E-2</v>
+      </c>
+      <c r="J1209" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1210" s="4">
+        <v>198668</v>
+      </c>
+      <c r="B1210" s="4">
+        <v>1.3010000000000001E-3</v>
+      </c>
+      <c r="C1210" s="4">
+        <v>2.8600000000000001E-4</v>
+      </c>
+      <c r="D1210" s="4">
+        <v>8.829E-3</v>
+      </c>
+      <c r="E1210" s="4">
+        <v>1.73E-4</v>
+      </c>
+      <c r="F1210" s="4">
+        <v>8.7100000000000003E-4</v>
+      </c>
+      <c r="G1210" s="4">
+        <v>1.12E-4</v>
+      </c>
+      <c r="H1210" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1210" s="4">
+        <v>1.1001E-2</v>
+      </c>
+      <c r="J1210" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1211" s="4">
+        <v>228209</v>
+      </c>
+      <c r="B1211" s="4">
+        <v>1.3450000000000001E-3</v>
+      </c>
+      <c r="C1211" s="4">
+        <v>9.7999999999999997E-5</v>
+      </c>
+      <c r="D1211" s="4">
+        <v>8.5100000000000002E-3</v>
+      </c>
+      <c r="E1211" s="4">
+        <v>1.5100000000000001E-4</v>
+      </c>
+      <c r="F1211" s="4">
+        <v>1.0349999999999999E-3</v>
+      </c>
+      <c r="G1211" s="4">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="H1211" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1211" s="4">
+        <v>1.089E-2</v>
+      </c>
+      <c r="J1211" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1212" s="4">
+        <v>262144</v>
+      </c>
+      <c r="B1212" s="4">
+        <v>1.0460000000000001E-3</v>
+      </c>
+      <c r="C1212" s="4">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="D1212" s="4">
+        <v>9.1280000000000007E-3</v>
+      </c>
+      <c r="E1212" s="4">
+        <v>1.2799999999999999E-4</v>
+      </c>
+      <c r="F1212" s="4">
+        <v>9.6900000000000003E-4</v>
+      </c>
+      <c r="G1212" s="4">
+        <v>2.3599999999999999E-4</v>
+      </c>
+      <c r="H1212" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1212" s="4">
+        <v>1.1143E-2</v>
+      </c>
+      <c r="J1212" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1213" s="4">
+        <v>301124</v>
+      </c>
+      <c r="B1213" s="4">
+        <v>2.3630000000000001E-3</v>
+      </c>
+      <c r="C1213" s="4">
+        <v>9.59E-4</v>
+      </c>
+      <c r="D1213" s="4">
+        <v>1.0636E-2</v>
+      </c>
+      <c r="E1213" s="4">
+        <v>2.33E-4</v>
+      </c>
+      <c r="F1213" s="4">
+        <v>1.1559999999999999E-3</v>
+      </c>
+      <c r="G1213" s="4">
+        <v>9.5000000000000005E-5</v>
+      </c>
+      <c r="H1213" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1213" s="4">
+        <v>1.4154999999999999E-2</v>
+      </c>
+      <c r="J1213" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1214" s="4">
+        <v>345901</v>
+      </c>
+      <c r="B1214" s="4">
+        <v>1.7849999999999999E-3</v>
+      </c>
+      <c r="C1214" s="4">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="D1214" s="4">
+        <v>1.2315E-2</v>
+      </c>
+      <c r="E1214" s="4">
+        <v>2.2100000000000001E-4</v>
+      </c>
+      <c r="F1214" s="4">
+        <v>1.214E-3</v>
+      </c>
+      <c r="G1214" s="4">
+        <v>1.47E-4</v>
+      </c>
+      <c r="H1214" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1214" s="4">
+        <v>1.5313999999999999E-2</v>
+      </c>
+      <c r="J1214" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1215" s="4">
+        <v>397336</v>
+      </c>
+      <c r="B1215" s="4">
+        <v>1.7570000000000001E-3</v>
+      </c>
+      <c r="C1215" s="4">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="D1215" s="4">
+        <v>1.4063000000000001E-2</v>
+      </c>
+      <c r="E1215" s="4">
+        <v>9.7099999999999997E-4</v>
+      </c>
+      <c r="F1215" s="4">
+        <v>1.3829999999999999E-3</v>
+      </c>
+      <c r="G1215" s="4">
+        <v>1.02E-4</v>
+      </c>
+      <c r="H1215" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1215" s="4">
+        <v>1.7204000000000001E-2</v>
+      </c>
+      <c r="J1215" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1216" s="4">
+        <v>456419</v>
+      </c>
+      <c r="B1216" s="4">
+        <v>2.049E-3</v>
+      </c>
+      <c r="C1216" s="4">
+        <v>1.4100000000000001E-4</v>
+      </c>
+      <c r="D1216" s="4">
+        <v>1.4586E-2</v>
+      </c>
+      <c r="E1216" s="4">
+        <v>7.9199999999999995E-4</v>
+      </c>
+      <c r="F1216" s="4">
+        <v>1.3990000000000001E-3</v>
+      </c>
+      <c r="G1216" s="4">
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="H1216" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1216" s="4">
+        <v>1.8034000000000001E-2</v>
+      </c>
+      <c r="J1216" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1217" s="4">
+        <v>524288</v>
+      </c>
+      <c r="B1217" s="4">
+        <v>1.7290000000000001E-3</v>
+      </c>
+      <c r="C1217" s="4">
+        <v>8.8999999999999995E-5</v>
+      </c>
+      <c r="D1217" s="4">
+        <v>1.6542000000000001E-2</v>
+      </c>
+      <c r="E1217" s="4">
+        <v>2.6600000000000001E-4</v>
+      </c>
+      <c r="F1217" s="4">
+        <v>1.57E-3</v>
+      </c>
+      <c r="G1217" s="4">
+        <v>2.5900000000000001E-4</v>
+      </c>
+      <c r="H1217" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1217" s="4">
+        <v>1.9841000000000001E-2</v>
+      </c>
+      <c r="J1217" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1218" s="4">
+        <v>602248</v>
+      </c>
+      <c r="B1218" s="4">
+        <v>3.2179999999999999E-3</v>
+      </c>
+      <c r="C1218" s="4">
+        <v>1.3470000000000001E-3</v>
+      </c>
+      <c r="D1218" s="4">
+        <v>1.8983E-2</v>
+      </c>
+      <c r="E1218" s="4">
+        <v>4.9399999999999997E-4</v>
+      </c>
+      <c r="F1218" s="4">
+        <v>1.7420000000000001E-3</v>
+      </c>
+      <c r="G1218" s="4">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="H1218" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1218" s="4">
+        <v>2.3942999999999999E-2</v>
+      </c>
+      <c r="J1218" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1219" s="4">
+        <v>691802</v>
+      </c>
+      <c r="B1219" s="4">
+        <v>2.5019999999999999E-3</v>
+      </c>
+      <c r="C1219" s="4">
+        <v>2.2599999999999999E-4</v>
+      </c>
+      <c r="D1219" s="4">
+        <v>2.1673000000000001E-2</v>
+      </c>
+      <c r="E1219" s="4">
+        <v>4.64E-4</v>
+      </c>
+      <c r="F1219" s="4">
+        <v>1.884E-3</v>
+      </c>
+      <c r="G1219" s="4">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="H1219" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1219" s="4">
+        <v>2.6058999999999999E-2</v>
+      </c>
+      <c r="J1219" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1220" s="4">
+        <v>794672</v>
+      </c>
+      <c r="B1220" s="4">
+        <v>2.8270000000000001E-3</v>
+      </c>
+      <c r="C1220" s="4">
+        <v>1.7899999999999999E-4</v>
+      </c>
+      <c r="D1220" s="4">
+        <v>2.3290999999999999E-2</v>
+      </c>
+      <c r="E1220" s="4">
+        <v>3.2400000000000001E-4</v>
+      </c>
+      <c r="F1220" s="4">
+        <v>2.127E-3</v>
+      </c>
+      <c r="G1220" s="4">
+        <v>4.1800000000000002E-4</v>
+      </c>
+      <c r="H1220" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1220" s="4">
+        <v>2.8244999999999999E-2</v>
+      </c>
+      <c r="J1220" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1221" s="4">
+        <v>912838</v>
+      </c>
+      <c r="B1221" s="4">
+        <v>2.9759999999999999E-3</v>
+      </c>
+      <c r="C1221" s="4">
+        <v>1.8900000000000001E-4</v>
+      </c>
+      <c r="D1221" s="4">
+        <v>2.6235000000000001E-2</v>
+      </c>
+      <c r="E1221" s="4">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="F1221" s="4">
+        <v>2.3770000000000002E-3</v>
+      </c>
+      <c r="G1221" s="4">
+        <v>2.81E-4</v>
+      </c>
+      <c r="H1221" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1221" s="4">
+        <v>3.1587999999999998E-2</v>
+      </c>
+      <c r="J1221" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1222" s="4">
+        <v>1048576</v>
+      </c>
+      <c r="B1222" s="4">
+        <v>2.8170000000000001E-3</v>
+      </c>
+      <c r="C1222" s="4">
+        <v>2.4800000000000001E-4</v>
+      </c>
+      <c r="D1222" s="4">
+        <v>3.0041999999999999E-2</v>
+      </c>
+      <c r="E1222" s="4">
+        <v>3.2600000000000001E-4</v>
+      </c>
+      <c r="F1222" s="4">
+        <v>2.4910000000000002E-3</v>
+      </c>
+      <c r="G1222" s="4">
+        <v>5.0799999999999999E-4</v>
+      </c>
+      <c r="H1222" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1222" s="4">
+        <v>3.5349999999999999E-2</v>
+      </c>
+      <c r="J1222" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1223" s="4">
+        <v>1204497</v>
+      </c>
+      <c r="B1223" s="4">
+        <v>3.6909999999999998E-3</v>
+      </c>
+      <c r="C1223" s="4">
+        <v>2.5300000000000002E-4</v>
+      </c>
+      <c r="D1223" s="4">
+        <v>3.4605999999999998E-2</v>
+      </c>
+      <c r="E1223" s="4">
+        <v>6.4700000000000001E-4</v>
+      </c>
+      <c r="F1223" s="4">
+        <v>3.0799999999999998E-3</v>
+      </c>
+      <c r="G1223" s="4">
+        <v>8.8900000000000003E-4</v>
+      </c>
+      <c r="H1223" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1223" s="4">
+        <v>4.1377999999999998E-2</v>
+      </c>
+      <c r="J1223" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1224" s="4">
+        <v>1383604</v>
+      </c>
+      <c r="B1224" s="4">
+        <v>4.1409999999999997E-3</v>
+      </c>
+      <c r="C1224" s="4">
+        <v>1.0900000000000001E-4</v>
+      </c>
+      <c r="D1224" s="4">
+        <v>3.9176999999999997E-2</v>
+      </c>
+      <c r="E1224" s="4">
+        <v>4.08E-4</v>
+      </c>
+      <c r="F1224" s="4">
+        <v>3.4680000000000002E-3</v>
+      </c>
+      <c r="G1224" s="4">
+        <v>8.3199999999999995E-4</v>
+      </c>
+      <c r="H1224" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1224" s="4">
+        <v>4.6786000000000001E-2</v>
+      </c>
+      <c r="J1224" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1225" s="4">
+        <v>1589344</v>
+      </c>
+      <c r="B1225" s="4">
+        <v>4.1770000000000002E-3</v>
+      </c>
+      <c r="C1225" s="4">
+        <v>2.6699999999999998E-4</v>
+      </c>
+      <c r="D1225" s="4">
+        <v>4.3898E-2</v>
+      </c>
+      <c r="E1225" s="4">
+        <v>2.8200000000000002E-4</v>
+      </c>
+      <c r="F1225" s="4">
+        <v>3.3579999999999999E-3</v>
+      </c>
+      <c r="G1225" s="4">
+        <v>5.1900000000000004E-4</v>
+      </c>
+      <c r="H1225" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1225" s="4">
+        <v>5.1434000000000001E-2</v>
+      </c>
+      <c r="J1225" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1226" s="4">
+        <v>1825676</v>
+      </c>
+      <c r="B1226" s="4">
+        <v>6.1830000000000001E-3</v>
+      </c>
+      <c r="C1226" s="4">
+        <v>2.189E-3</v>
+      </c>
+      <c r="D1226" s="4">
+        <v>5.0299000000000003E-2</v>
+      </c>
+      <c r="E1226" s="4">
+        <v>9.3099999999999997E-4</v>
+      </c>
+      <c r="F1226" s="4">
+        <v>3.9319999999999997E-3</v>
+      </c>
+      <c r="G1226" s="4">
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="H1226" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1226" s="4">
+        <v>6.0414000000000002E-2</v>
+      </c>
+      <c r="J1226" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1227" s="4">
+        <v>2097152</v>
+      </c>
+      <c r="B1227" s="4">
+        <v>4.6639999999999997E-3</v>
+      </c>
+      <c r="C1227" s="4">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="D1227" s="4">
+        <v>5.6578000000000003E-2</v>
+      </c>
+      <c r="E1227" s="4">
+        <v>2.4600000000000002E-4</v>
+      </c>
+      <c r="F1227" s="4">
+        <v>4.3569999999999998E-3</v>
+      </c>
+      <c r="G1227" s="4">
+        <v>6.5899999999999997E-4</v>
+      </c>
+      <c r="H1227" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1227" s="4">
+        <v>6.5599000000000005E-2</v>
+      </c>
+      <c r="J1227" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1228" s="4">
+        <v>2408995</v>
+      </c>
+      <c r="B1228" s="4">
+        <v>6.1469999999999997E-3</v>
+      </c>
+      <c r="C1228" s="4">
+        <v>1.4799999999999999E-4</v>
+      </c>
+      <c r="D1228" s="4">
+        <v>6.4780000000000004E-2</v>
+      </c>
+      <c r="E1228" s="4">
+        <v>4.7199999999999998E-4</v>
+      </c>
+      <c r="F1228" s="4">
+        <v>5.0099999999999997E-3</v>
+      </c>
+      <c r="G1228" s="4">
+        <v>7.5799999999999999E-4</v>
+      </c>
+      <c r="H1228" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1228" s="4">
+        <v>7.5936000000000003E-2</v>
+      </c>
+      <c r="J1228" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1229" s="4">
+        <v>2767208</v>
+      </c>
+      <c r="B1229" s="4">
+        <v>6.5579999999999996E-3</v>
+      </c>
+      <c r="C1229" s="4">
+        <v>4.0499999999999998E-4</v>
+      </c>
+      <c r="D1229" s="4">
+        <v>7.3782E-2</v>
+      </c>
+      <c r="E1229" s="4">
+        <v>5.6099999999999998E-4</v>
+      </c>
+      <c r="F1229" s="4">
+        <v>5.5700000000000003E-3</v>
+      </c>
+      <c r="G1229" s="4">
+        <v>9.2400000000000002E-4</v>
+      </c>
+      <c r="H1229" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1229" s="4">
+        <v>8.591E-2</v>
+      </c>
+      <c r="J1229" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1230" s="4">
+        <v>3178688</v>
+      </c>
+      <c r="B1230" s="4">
+        <v>7.6099999999999996E-3</v>
+      </c>
+      <c r="C1230" s="4">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="D1230" s="4">
+        <v>8.5591E-2</v>
+      </c>
+      <c r="E1230" s="4">
+        <v>5.8799999999999998E-4</v>
+      </c>
+      <c r="F1230" s="4">
+        <v>6.4219999999999998E-3</v>
+      </c>
+      <c r="G1230" s="4">
+        <v>1.0989999999999999E-3</v>
+      </c>
+      <c r="H1230" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1230" s="4">
+        <v>9.9623000000000003E-2</v>
+      </c>
+      <c r="J1230" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1231" s="4">
+        <v>3651353</v>
+      </c>
+      <c r="B1231" s="4">
+        <v>8.5710000000000005E-3</v>
+      </c>
+      <c r="C1231" s="4">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="D1231" s="4">
+        <v>9.7182000000000004E-2</v>
+      </c>
+      <c r="E1231" s="4">
+        <v>7.0500000000000001E-4</v>
+      </c>
+      <c r="F1231" s="4">
+        <v>7.1659999999999996E-3</v>
+      </c>
+      <c r="G1231" s="4">
+        <v>1.2390000000000001E-3</v>
+      </c>
+      <c r="H1231" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1231" s="4">
+        <v>0.112918</v>
+      </c>
+      <c r="J1231" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1232" s="4">
+        <v>4194304</v>
+      </c>
+      <c r="B1232" s="4">
+        <v>8.5800000000000008E-3</v>
+      </c>
+      <c r="C1232" s="4">
+        <v>5.5099999999999995E-4</v>
+      </c>
+      <c r="D1232" s="4">
+        <v>0.111022</v>
+      </c>
+      <c r="E1232" s="4">
+        <v>7.9500000000000003E-4</v>
+      </c>
+      <c r="F1232" s="4">
+        <v>7.979E-3</v>
+      </c>
+      <c r="G1232" s="4">
+        <v>1.3290000000000001E-3</v>
+      </c>
+      <c r="H1232" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1232" s="4">
+        <v>0.127582</v>
+      </c>
+      <c r="J1232" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1233" s="4">
+        <v>4817990</v>
+      </c>
+      <c r="B1233" s="4">
+        <v>1.128E-2</v>
+      </c>
+      <c r="C1233" s="4">
+        <v>4.26E-4</v>
+      </c>
+      <c r="D1233" s="4">
+        <v>0.12754799999999999</v>
+      </c>
+      <c r="E1233" s="4">
+        <v>7.4700000000000005E-4</v>
+      </c>
+      <c r="F1233" s="4">
+        <v>9.6010000000000002E-3</v>
+      </c>
+      <c r="G1233" s="4">
+        <v>2.0010000000000002E-3</v>
+      </c>
+      <c r="H1233" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1233" s="4">
+        <v>0.14842900000000001</v>
+      </c>
+      <c r="J1233" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1234" s="4">
+        <v>5534417</v>
+      </c>
+      <c r="B1234" s="4">
+        <v>1.2695E-2</v>
+      </c>
+      <c r="C1234" s="4">
+        <v>3.9399999999999998E-4</v>
+      </c>
+      <c r="D1234" s="4">
+        <v>0.144896</v>
+      </c>
+      <c r="E1234" s="4">
+        <v>8.7799999999999998E-4</v>
+      </c>
+      <c r="F1234" s="4">
+        <v>1.0577E-2</v>
+      </c>
+      <c r="G1234" s="4">
+        <v>1.6869999999999999E-3</v>
+      </c>
+      <c r="H1234" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1234" s="4">
+        <v>0.16816800000000001</v>
+      </c>
+      <c r="J1234" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1235" s="4">
+        <v>6357376</v>
+      </c>
+      <c r="B1235" s="4">
+        <v>1.4893999999999999E-2</v>
+      </c>
+      <c r="C1235" s="4">
+        <v>4.8299999999999998E-4</v>
+      </c>
+      <c r="D1235" s="4">
+        <v>0.16744899999999999</v>
+      </c>
+      <c r="E1235" s="4">
+        <v>1.0480000000000001E-3</v>
+      </c>
+      <c r="F1235" s="4">
+        <v>1.2689000000000001E-2</v>
+      </c>
+      <c r="G1235" s="4">
+        <v>2.7729999999999999E-3</v>
+      </c>
+      <c r="H1235" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1235" s="4">
+        <v>0.19503200000000001</v>
+      </c>
+      <c r="J1235" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1236" s="4">
+        <v>7302707</v>
+      </c>
+      <c r="B1236" s="4">
+        <v>1.6759E-2</v>
+      </c>
+      <c r="C1236" s="4">
+        <v>6.8999999999999997E-4</v>
+      </c>
+      <c r="D1236" s="4">
+        <v>0.191251</v>
+      </c>
+      <c r="E1236" s="4">
+        <v>1.3339999999999999E-3</v>
+      </c>
+      <c r="F1236" s="4">
+        <v>1.5285E-2</v>
+      </c>
+      <c r="G1236" s="4">
+        <v>3.019E-3</v>
+      </c>
+      <c r="H1236" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1236" s="4">
+        <v>0.22329399999999999</v>
+      </c>
+      <c r="J1236" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1237" s="4">
+        <v>8388608</v>
+      </c>
+      <c r="B1237" s="4">
+        <v>1.6479000000000001E-2</v>
+      </c>
+      <c r="C1237" s="4">
+        <v>4.8500000000000003E-4</v>
+      </c>
+      <c r="D1237" s="4">
+        <v>0.221883</v>
+      </c>
+      <c r="E1237" s="4">
+        <v>1.18E-4</v>
+      </c>
+      <c r="F1237" s="4">
+        <v>1.8459E-2</v>
+      </c>
+      <c r="G1237" s="4">
+        <v>2.7009999999999998E-3</v>
+      </c>
+      <c r="H1237" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1237" s="4">
+        <v>0.25682100000000002</v>
+      </c>
+      <c r="J1237" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1238" s="4">
+        <v>9635980</v>
+      </c>
+      <c r="B1238" s="4">
+        <v>2.1825000000000001E-2</v>
+      </c>
+      <c r="C1238" s="4">
+        <v>4.0099999999999999E-4</v>
+      </c>
+      <c r="D1238" s="4">
+        <v>0.25343500000000002</v>
+      </c>
+      <c r="E1238" s="4">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="F1238" s="4">
+        <v>2.1368000000000002E-2</v>
+      </c>
+      <c r="G1238" s="4">
+        <v>3.6800000000000001E-3</v>
+      </c>
+      <c r="H1238" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1238" s="4">
+        <v>0.29662899999999998</v>
+      </c>
+      <c r="J1238" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1239" s="4">
+        <v>11068834</v>
+      </c>
+      <c r="B1239" s="4">
+        <v>2.5152999999999998E-2</v>
+      </c>
+      <c r="C1239" s="4">
+        <v>5.8900000000000001E-4</v>
+      </c>
+      <c r="D1239" s="4">
+        <v>0.28972900000000001</v>
+      </c>
+      <c r="E1239" s="4">
+        <v>2.7E-4</v>
+      </c>
+      <c r="F1239" s="4">
+        <v>2.4261000000000001E-2</v>
+      </c>
+      <c r="G1239" s="4">
+        <v>3.5109999999999998E-3</v>
+      </c>
+      <c r="H1239" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1239" s="4">
+        <v>0.33914299999999997</v>
+      </c>
+      <c r="J1239" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1240" s="4">
+        <v>12714752</v>
+      </c>
+      <c r="B1240" s="4">
+        <v>2.8783E-2</v>
+      </c>
+      <c r="C1240" s="4">
+        <v>8.3699999999999996E-4</v>
+      </c>
+      <c r="D1240" s="4">
+        <v>0.33168599999999998</v>
+      </c>
+      <c r="E1240" s="4">
+        <v>3.3799999999999998E-4</v>
+      </c>
+      <c r="F1240" s="4">
+        <v>2.8480999999999999E-2</v>
+      </c>
+      <c r="G1240" s="4">
+        <v>4.091E-3</v>
+      </c>
+      <c r="H1240" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1240" s="4">
+        <v>0.38895099999999999</v>
+      </c>
+      <c r="J1240" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1241" s="4">
+        <v>14605414</v>
+      </c>
+      <c r="B1241" s="4">
+        <v>3.3205999999999999E-2</v>
+      </c>
+      <c r="C1241" s="4">
+        <v>1.632E-3</v>
+      </c>
+      <c r="D1241" s="4">
+        <v>0.38005100000000003</v>
+      </c>
+      <c r="E1241" s="4">
+        <v>1.9100000000000001E-4</v>
+      </c>
+      <c r="F1241" s="4">
+        <v>3.1801999999999997E-2</v>
+      </c>
+      <c r="G1241" s="4">
+        <v>4.731E-3</v>
+      </c>
+      <c r="H1241" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1241" s="4">
+        <v>0.44506000000000001</v>
+      </c>
+      <c r="J1241" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1242" s="4">
+        <v>16777216</v>
+      </c>
+      <c r="B1242" s="4">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="C1242" s="4">
+        <v>6.7999999999999999E-5</v>
+      </c>
+      <c r="D1242" s="4">
+        <v>0.44028099999999998</v>
+      </c>
+      <c r="E1242" s="4">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="F1242" s="4">
+        <v>3.6541999999999998E-2</v>
+      </c>
+      <c r="G1242" s="4">
+        <v>5.4419999999999998E-3</v>
+      </c>
+      <c r="H1242" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1242" s="4">
+        <v>0.51392400000000005</v>
+      </c>
+      <c r="J1242" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1243" s="4">
+        <v>19271960</v>
+      </c>
+      <c r="B1243" s="4">
+        <v>4.5603999999999999E-2</v>
+      </c>
+      <c r="C1243" s="4">
+        <v>4.0299999999999998E-4</v>
+      </c>
+      <c r="D1243" s="4">
+        <v>0.50109300000000001</v>
+      </c>
+      <c r="E1243" s="4">
+        <v>1.6100000000000001E-4</v>
+      </c>
+      <c r="F1243" s="4">
+        <v>4.1419999999999998E-2</v>
+      </c>
+      <c r="G1243" s="4">
+        <v>5.7279999999999996E-3</v>
+      </c>
+      <c r="H1243" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1243" s="4">
+        <v>0.588117</v>
+      </c>
+      <c r="J1243" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1244" s="4">
+        <v>22137669</v>
+      </c>
+      <c r="B1244" s="4">
+        <v>5.1806999999999999E-2</v>
+      </c>
+      <c r="C1244" s="4">
+        <v>2.6499999999999999E-4</v>
+      </c>
+      <c r="D1244" s="4">
+        <v>0.574855</v>
+      </c>
+      <c r="E1244" s="4">
+        <v>4.86E-4</v>
+      </c>
+      <c r="F1244" s="4">
+        <v>4.7238000000000002E-2</v>
+      </c>
+      <c r="G1244" s="4">
+        <v>6.3790000000000001E-3</v>
+      </c>
+      <c r="H1244" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1244" s="4">
+        <v>0.67390000000000005</v>
+      </c>
+      <c r="J1244" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1245" s="4">
+        <v>25429504</v>
+      </c>
+      <c r="B1245" s="4">
+        <v>6.0198000000000002E-2</v>
+      </c>
+      <c r="C1245" s="4">
+        <v>3.2699999999999998E-4</v>
+      </c>
+      <c r="D1245" s="4">
+        <v>0.66328600000000004</v>
+      </c>
+      <c r="E1245" s="4">
+        <v>2.8800000000000001E-4</v>
+      </c>
+      <c r="F1245" s="4">
+        <v>5.4254999999999998E-2</v>
+      </c>
+      <c r="G1245" s="4">
+        <v>7.2090000000000001E-3</v>
+      </c>
+      <c r="H1245" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1245" s="4">
+        <v>0.77773899999999996</v>
+      </c>
+      <c r="J1245" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1246" s="4">
+        <v>29210829</v>
+      </c>
+      <c r="B1246" s="4">
+        <v>6.9157999999999997E-2</v>
+      </c>
+      <c r="C1246" s="4">
+        <v>2.7599999999999999E-4</v>
+      </c>
+      <c r="D1246" s="4">
+        <v>0.76040399999999997</v>
+      </c>
+      <c r="E1246" s="4">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="F1246" s="4">
+        <v>6.1886999999999998E-2</v>
+      </c>
+      <c r="G1246" s="4">
+        <v>8.5039999999999994E-3</v>
+      </c>
+      <c r="H1246" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1246" s="4">
+        <v>0.89144900000000005</v>
+      </c>
+      <c r="J1246" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1247" s="4">
+        <v>33554432</v>
+      </c>
+      <c r="B1247" s="4">
+        <v>7.4732000000000007E-2</v>
+      </c>
+      <c r="C1247" s="4">
+        <v>1.36E-4</v>
+      </c>
+      <c r="D1247" s="4">
+        <v>0.87198699999999996</v>
+      </c>
+      <c r="E1247" s="4">
+        <v>2.7179999999999999E-3</v>
+      </c>
+      <c r="F1247" s="4">
+        <v>7.2397000000000003E-2</v>
+      </c>
+      <c r="G1247" s="4">
+        <v>9.325E-3</v>
+      </c>
+      <c r="H1247" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1247" s="4">
+        <v>1.0191159999999999</v>
+      </c>
+      <c r="J1247" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1248" s="4">
+        <v>38543920</v>
+      </c>
+      <c r="B1248" s="4">
+        <v>9.1037999999999994E-2</v>
+      </c>
+      <c r="C1248" s="4">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="D1248" s="4">
+        <v>1.0026219999999999</v>
+      </c>
+      <c r="E1248" s="4">
+        <v>1.041E-3</v>
+      </c>
+      <c r="F1248" s="4">
+        <v>8.0154000000000003E-2</v>
+      </c>
+      <c r="G1248" s="4">
+        <v>1.0597000000000001E-2</v>
+      </c>
+      <c r="H1248" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1248" s="4">
+        <v>1.1738139999999999</v>
+      </c>
+      <c r="J1248" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1249" s="4">
+        <v>44275338</v>
+      </c>
+      <c r="B1249" s="4">
+        <v>0.104573</v>
+      </c>
+      <c r="C1249" s="4">
+        <v>3.1100000000000002E-4</v>
+      </c>
+      <c r="D1249" s="4">
+        <v>1.1494629999999999</v>
+      </c>
+      <c r="E1249" s="4">
+        <v>2.9500000000000001E-4</v>
+      </c>
+      <c r="F1249" s="4">
+        <v>9.3187999999999993E-2</v>
+      </c>
+      <c r="G1249" s="4">
+        <v>1.2533000000000001E-2</v>
+      </c>
+      <c r="H1249" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1249" s="4">
+        <v>1.347224</v>
+      </c>
+      <c r="J1249" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1250" s="4">
+        <v>50859008</v>
+      </c>
+      <c r="B1250" s="4">
+        <v>0.119936</v>
+      </c>
+      <c r="C1250" s="4">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="D1250" s="4">
+        <v>1.3157160000000001</v>
+      </c>
+      <c r="E1250" s="4">
+        <v>1.219E-3</v>
+      </c>
+      <c r="F1250" s="4">
+        <v>0.106378</v>
+      </c>
+      <c r="G1250" s="4">
+        <v>1.4120000000000001E-2</v>
+      </c>
+      <c r="H1250" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1250" s="4">
+        <v>1.54203</v>
+      </c>
+      <c r="J1250" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1251" s="4">
+        <v>58421659</v>
+      </c>
+      <c r="B1251" s="4">
+        <v>0.137484</v>
+      </c>
+      <c r="C1251" s="4">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="D1251" s="4">
+        <v>1.5097020000000001</v>
+      </c>
+      <c r="E1251" s="4">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="F1251" s="4">
+        <v>0.120557</v>
+      </c>
+      <c r="G1251" s="4">
+        <v>1.5499000000000001E-2</v>
+      </c>
+      <c r="H1251" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1251" s="4">
+        <v>1.7677419999999999</v>
+      </c>
+      <c r="J1251" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1252" s="4">
+        <v>67108864</v>
+      </c>
+      <c r="B1252" s="4">
+        <v>0.15456400000000001</v>
+      </c>
+      <c r="C1252" s="4">
+        <v>4.4000000000000002E-4</v>
+      </c>
+      <c r="D1252" s="4">
+        <v>1.740704</v>
+      </c>
+      <c r="E1252" s="4">
+        <v>1.057E-3</v>
+      </c>
+      <c r="F1252" s="4">
+        <v>0.13999600000000001</v>
+      </c>
+      <c r="G1252" s="4">
+        <v>1.7998E-2</v>
+      </c>
+      <c r="H1252" s="4">
+        <v>256</v>
+      </c>
+      <c r="I1252" s="4">
+        <v>2.0352649999999999</v>
+      </c>
+      <c r="J1252" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1253" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1253" s="4">
+        <v>1.75E-4</v>
+      </c>
+      <c r="C1253" s="3"/>
+      <c r="D1253" s="3"/>
+      <c r="E1253" s="3"/>
+      <c r="F1253" s="3"/>
+      <c r="G1253" s="3"/>
+      <c r="H1253" s="3"/>
+      <c r="I1253" s="3"/>
+      <c r="J1253" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
